--- a/QuantLibXL/Data2/XLS/GBP_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_SynthQuotesFeed.xlsx
@@ -2361,12 +2361,12 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>104</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="D9" s="349">
         <f>_xll.ohTrigger(Contribution!O1)</f>
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E9" s="132"/>
       <c r="G9" s="335"/>
@@ -3281,14 +3281,16 @@
       </c>
       <c r="D18" s="56">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"0D","f")</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="E18" s="132"/>
       <c r="G18" s="131"/>
       <c r="H18" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="126"/>
+      <c r="I18" s="126">
+        <v>41778.545613425929</v>
+      </c>
       <c r="J18" s="132"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
@@ -3298,7 +3300,7 @@
       </c>
       <c r="D19" s="50" t="str">
         <f>_xll.qlDiscountingSwapEngine(,OisCurve,,,,,EvaluationDate)</f>
-        <v>obj_00395#0001</v>
+        <v>obj_0039d#0000</v>
       </c>
       <c r="E19" s="132"/>
       <c r="G19" s="131"/>
@@ -3307,7 +3309,7 @@
       </c>
       <c r="I19" s="126">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="J19" s="132"/>
     </row>
@@ -3327,7 +3329,7 @@
       </c>
       <c r="I20" s="237">
         <f>[1]!TriggerCounter</f>
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="J20" s="132"/>
     </row>
@@ -3347,7 +3349,7 @@
       </c>
       <c r="I21" s="237">
         <f>[1]!LastFixingsTrigger</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="132"/>
     </row>
@@ -3466,7 +3468,7 @@
       </c>
       <c r="D34" s="127" t="str">
         <f>_xll.qlLibor(,Currency,IborTenor,YieldCurve,,D32)</f>
-        <v>obj_00669#0003</v>
+        <v>obj_003e6#0000</v>
       </c>
       <c r="E34" s="132"/>
     </row>
@@ -3487,7 +3489,7 @@
       </c>
       <c r="D36" s="127" t="str">
         <f>_xll.qlInterpolation(,BasisInterpolation,SynthFRA!I2:I6,SynthFRA!M2:M6)</f>
-        <v>obj_0069b#0079</v>
+        <v>obj_0069b#0019</v>
       </c>
       <c r="E36" s="132"/>
     </row>
@@ -3508,7 +3510,7 @@
       </c>
       <c r="D38" s="127" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,NDays,Calendar,_xll.ohPack(SynthFRA!A3:A127),DayCounter,,,Accuracy,TraitsID,InterpolatorID)</f>
-        <v>obj_00668#0003</v>
+        <v>obj_003e5#0000</v>
       </c>
       <c r="E38" s="132"/>
     </row>
@@ -3533,7 +3535,7 @@
       <c r="B41" s="131"/>
       <c r="C41" s="355">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="D41" s="356">
         <f>MAX(_xll.ohPack(SynthFRA!E2:E127))</f>
@@ -3545,11 +3547,11 @@
       <c r="B42" s="131"/>
       <c r="C42" s="355">
         <f>MAX(_xll.ohPack(SynthFRA!D3:D127))</f>
-        <v>43599</v>
+        <v>43605</v>
       </c>
       <c r="D42" s="356">
         <f>MIN(_xll.ohPack(SynthFRA!E2:E127))</f>
-        <v>0.89610184291541017</v>
+        <v>0.8978061312588419</v>
       </c>
       <c r="E42" s="132"/>
     </row>
@@ -3617,9 +3619,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView topLeftCell="D1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3636,8 +3636,7 @@
     <col min="13" max="13" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.33203125" style="1" bestFit="1"/>
     <col min="15" max="17" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -3703,7 +3702,7 @@
       </c>
       <c r="B2" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E2,F2,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c6#0001</v>
+        <v>obj_003be#0000</v>
       </c>
       <c r="C2" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B2,OisEngine)</f>
@@ -3715,23 +3714,23 @@
       </c>
       <c r="E2" s="104">
         <f>SettlementDate</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F2" s="105">
         <f>_xll.qlCalendarAdvance(Calendar,E2,A3,"mf")</f>
-        <v>41806</v>
+        <v>41809</v>
       </c>
       <c r="G2" s="106">
         <f>_xll.qlQuoteValue($D2,AllTriggers)</f>
-        <v>4.8687999999999995E-3</v>
+        <v>4.8719000000000002E-3</v>
       </c>
       <c r="H2" s="107">
         <f>_xll.qlOvernightIndexedSwapFairRate(B2,_xll.ohTrigger(C2,InterestRatesTrigger))</f>
-        <v>4.1671232876713572E-3</v>
+        <v>4.1671232865520174E-3</v>
       </c>
       <c r="I2" s="108">
         <f>G2-H2</f>
-        <v>7.0167671232864229E-4</v>
+        <v>7.0477671344798282E-4</v>
       </c>
       <c r="J2" s="109" t="b">
         <v>0</v>
@@ -3745,20 +3744,20 @@
       </c>
       <c r="O2" s="112">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P2" s="110">
         <f>(O2^2-N2^2)/(O2-N2)</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="109"/>
       <c r="R2" s="123">
         <f>(O2^3-N2^3)/3/(O2-N2)</f>
-        <v>363</v>
+        <v>320.33333333333337</v>
       </c>
       <c r="S2" s="123">
         <f>(O2+N2)/2</f>
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="T2" s="123">
         <v>1</v>
@@ -3771,7 +3770,7 @@
       </c>
       <c r="B3" s="57" t="str">
         <f>_xll.qlMakeDatedOIS(,E3,F3,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a2#0001</v>
+        <v>obj_00345#0002</v>
       </c>
       <c r="C3" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B3,OisEngine)</f>
@@ -3782,24 +3781,24 @@
         <v>Gbplibor1MLastFixing_Quote</v>
       </c>
       <c r="E3" s="97">
-        <f>E2</f>
-        <v>41773</v>
+        <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D3),_xll.qlInterestRateIndexFixingDays(A4)&amp;"D","f",,LastFixingsTrigger)</f>
+        <v>41778</v>
       </c>
       <c r="F3" s="98">
         <f>F2</f>
-        <v>41806</v>
+        <v>41809</v>
       </c>
       <c r="G3" s="99">
         <f>_xll.qlQuoteValue(D3,AllTriggers)</f>
-        <v>4.8687999999999995E-3</v>
+        <v>4.8719000000000002E-3</v>
       </c>
       <c r="H3" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(B3,_xll.ohTrigger(C3,InterestRatesTrigger))</f>
-        <v>4.1671232876713572E-3</v>
+        <v>4.1671232865520174E-3</v>
       </c>
       <c r="I3" s="101">
         <f t="shared" ref="I3:I27" si="1">G3-H3</f>
-        <v>7.0167671232864229E-4</v>
+        <v>7.0477671344798282E-4</v>
       </c>
       <c r="J3" s="109" t="b">
         <f>NOT(ISERROR(I3))</f>
@@ -3807,11 +3806,11 @@
       </c>
       <c r="K3" s="111">
         <f>K4</f>
-        <v>6.580374390923599E-7</v>
+        <v>-3.0232919027164575E-7</v>
       </c>
       <c r="L3" s="100">
         <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K3*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>6.7996147683859441E-4</v>
+        <v>7.1414891834640387E-4</v>
       </c>
       <c r="M3" s="110"/>
       <c r="N3" s="112">
@@ -3820,20 +3819,20 @@
       </c>
       <c r="O3" s="112">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P3" s="110">
         <f>(O3^2-N3^2)/(O3-N3)</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="109"/>
       <c r="R3" s="123">
         <f>(O3^3-N3^3)/3/(O3-N3)</f>
-        <v>363</v>
+        <v>320.33333333333337</v>
       </c>
       <c r="S3" s="123">
         <f>(O3+N3)/2</f>
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="T3" s="123">
         <v>1</v>
@@ -3846,7 +3845,7 @@
       </c>
       <c r="B4" s="57" t="str">
         <f>_xll.qlMakeDatedOIS(,E4,F4,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003de#0001</v>
+        <v>obj_003e3#0000</v>
       </c>
       <c r="C4" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B4,OisEngine)</f>
@@ -3857,23 +3856,23 @@
       </c>
       <c r="E4" s="54">
         <f>F3</f>
-        <v>41806</v>
+        <v>41809</v>
       </c>
       <c r="F4" s="55">
         <f>F5</f>
-        <v>41834</v>
+        <v>41841</v>
       </c>
       <c r="G4" s="27">
         <f>((1+G5*(F5-E5)/360)/(1+G3*(F3-E3)/360)-1)/(F4-E4)*360</f>
-        <v>4.9073491030924921E-3</v>
+        <v>4.8513584851786473E-3</v>
       </c>
       <c r="H4" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B4,_xll.ohTrigger(C4,InterestRatesTrigger))</f>
-        <v>4.1655321069792159E-3</v>
+        <v>4.1656285107177782E-3</v>
       </c>
       <c r="I4" s="16">
         <f>G4-H4</f>
-        <v>7.4181699611327624E-4</v>
+        <v>6.8572997446086914E-4</v>
       </c>
       <c r="J4" s="1" t="b">
         <f>NOT(ISERROR(I4))</f>
@@ -3881,20 +3880,20 @@
       </c>
       <c r="K4" s="15">
         <f>(I4-_xll.ohFilter($I$2:$I$3,$J$2:$J$3))/(P4-_xll.ohFilter($P$2:$P$3,$J$2:$J$3))</f>
-        <v>6.580374390923599E-7</v>
+        <v>-3.0232919027164575E-7</v>
       </c>
       <c r="L4" s="15">
         <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K4*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>6.7996147683859441E-4</v>
+        <v>7.1414891834640387E-4</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="113">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O4" s="113">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P4" s="5">
         <f>(O4^2-N4^2)/(O4-N4)</f>
@@ -3902,7 +3901,7 @@
       </c>
       <c r="R4" s="92">
         <f>(O4^3-N4^3)/3/(O4-N4)</f>
-        <v>2274.3333333333335</v>
+        <v>2294.3333333333335</v>
       </c>
       <c r="S4" s="92">
         <f>(O4+N4)/2</f>
@@ -3915,7 +3914,7 @@
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B5" s="57" t="str">
         <f>_xll.qlMakeDatedOIS(,E5,F5,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a6#0001</v>
+        <v>obj_003d3#0000</v>
       </c>
       <c r="C5" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B5,OisEngine)</f>
@@ -3927,23 +3926,23 @@
       </c>
       <c r="E5" s="54">
         <f>SettlementDate</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F5" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,E5,"2M","mf")</f>
-        <v>41834</v>
+        <v>41841</v>
       </c>
       <c r="G5" s="51">
         <f>_xll.qlQuoteValue($D5,AllTriggers)</f>
-        <v>4.8874999999999995E-3</v>
+        <v>4.8625000000000005E-3</v>
       </c>
       <c r="H5" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B5,_xll.ohTrigger(C5,InterestRatesTrigger))</f>
-        <v>4.1671232856104112E-3</v>
+        <v>4.1671232865717455E-3</v>
       </c>
       <c r="I5" s="16">
         <f>G5-H5</f>
-        <v>7.2037671438958829E-4</v>
+        <v>6.9537671342825499E-4</v>
       </c>
       <c r="J5" s="1" t="b">
         <v>0</v>
@@ -3964,7 +3963,7 @@
       </c>
       <c r="B6" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E6,F6,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003af#0001</v>
+        <v>obj_003cf#0000</v>
       </c>
       <c r="C6" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B6,OisEngine)</f>
@@ -3976,23 +3975,23 @@
       </c>
       <c r="E6" s="104">
         <f>SettlementDate</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F6" s="105">
         <f>_xll.qlCalendarAdvance(Calendar,E6,A7,"mf")</f>
-        <v>41865</v>
+        <v>41870</v>
       </c>
       <c r="G6" s="106">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>5.2688000000000006E-3</v>
+        <v>5.2769000000000002E-3</v>
       </c>
       <c r="H6" s="107">
         <f>_xll.qlOvernightIndexedSwapFairRate(B6,_xll.ohTrigger(C6,InterestRatesTrigger))</f>
-        <v>4.1794520513397434E-3</v>
+        <v>4.1794520541097021E-3</v>
       </c>
       <c r="I6" s="108">
         <f t="shared" si="1"/>
-        <v>1.0893479486602572E-3</v>
+        <v>1.097447945890298E-3</v>
       </c>
       <c r="J6" s="109" t="b">
         <v>0</v>
@@ -4032,7 +4031,7 @@
       </c>
       <c r="B7" s="57" t="str">
         <f>_xll.qlMakeDatedOIS(,E7,F7,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ae#0001</v>
+        <v>obj_00348#0002</v>
       </c>
       <c r="C7" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B7,OisEngine)</f>
@@ -4043,27 +4042,27 @@
         <v>Gbplibor3MLastFixing_Quote</v>
       </c>
       <c r="E7" s="97">
-        <f>E6</f>
-        <v>41773</v>
+        <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D7),_xll.qlInterestRateIndexFixingDays(A8)&amp;"D","f",,LastFixingsTrigger)</f>
+        <v>41778</v>
       </c>
       <c r="F7" s="98">
         <f>F6</f>
-        <v>41865</v>
+        <v>41870</v>
       </c>
       <c r="G7" s="99">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>5.2688000000000006E-3</v>
+        <v>5.2769000000000002E-3</v>
       </c>
       <c r="H7" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(B7,_xll.ohTrigger(C7,InterestRatesTrigger))</f>
-        <v>4.1794520513397434E-3</v>
+        <v>4.1794520541097021E-3</v>
       </c>
       <c r="I7" s="101">
         <f t="shared" si="1"/>
-        <v>1.0893479486602572E-3</v>
+        <v>1.097447945890298E-3</v>
       </c>
       <c r="J7" s="109" t="b">
-        <f>AND(ISERROR(I8),ISERROR(I9),NOT(ISERROR(I7)))</f>
+        <f>AND(NOT(ISERROR(I7)),E10&lt;&gt;SettlementDate)</f>
         <v>1</v>
       </c>
       <c r="K7" s="116"/>
@@ -4119,11 +4118,11 @@
       <c r="M8" s="110"/>
       <c r="N8" s="112">
         <f t="shared" si="2"/>
-        <v>-41773</v>
+        <v>-41778</v>
       </c>
       <c r="O8" s="112">
         <f t="shared" si="3"/>
-        <v>-41773</v>
+        <v>-41778</v>
       </c>
       <c r="P8" s="110" t="e">
         <f t="shared" si="6"/>
@@ -4136,7 +4135,7 @@
       </c>
       <c r="S8" s="123">
         <f t="shared" si="5"/>
-        <v>-41773</v>
+        <v>-41778</v>
       </c>
       <c r="T8" s="123">
         <v>1</v>
@@ -4166,20 +4165,20 @@
       </c>
       <c r="K9" s="100">
         <f>AVERAGE(_xll.ohFilter(K10:K12,J10:J12))</f>
-        <v>-4.0749301250571258E-7</v>
+        <v>2.5301090281643175E-6</v>
       </c>
       <c r="L9" s="100">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K9*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.1268373058107828E-3</v>
+        <v>8.6467791529918085E-4</v>
       </c>
       <c r="M9" s="110"/>
       <c r="N9" s="112">
         <f t="shared" si="2"/>
-        <v>-41773</v>
+        <v>-41778</v>
       </c>
       <c r="O9" s="112">
         <f t="shared" si="3"/>
-        <v>-41773</v>
+        <v>-41778</v>
       </c>
       <c r="P9" s="110" t="e">
         <f t="shared" si="6"/>
@@ -4192,7 +4191,7 @@
       </c>
       <c r="S9" s="123">
         <f t="shared" si="5"/>
-        <v>-41773</v>
+        <v>-41778</v>
       </c>
       <c r="T9" s="123">
         <v>1</v>
@@ -4211,35 +4210,35 @@
       </c>
       <c r="Z9" s="68">
         <f t="array" ref="Z9:Z11">MMULT(AD9:AF11,AB9:AB11)</f>
-        <v>1.6342491855929052E-7</v>
+        <v>-4.0575438369294792E-7</v>
       </c>
       <c r="AB9" s="68">
         <f t="array" ref="AB9:AB11">_xll.ohFilter(I6:I14,$J6:$J14)</f>
-        <v>1.0893479486602572E-3</v>
+        <v>1.097447945890298E-3</v>
       </c>
       <c r="AD9" s="74">
         <f t="array" ref="AD9:AF11">MINVERSE(V9:X11)</f>
-        <v>4.0816326530612344E-3</v>
+        <v>1.6666666666666771E-2</v>
       </c>
       <c r="AE9" s="75">
-        <v>-5.1020408163265423E-3</v>
+        <v>-1.7857142857142971E-2</v>
       </c>
       <c r="AF9" s="76">
-        <v>1.0204081632653084E-3</v>
+        <v>1.1904761904761999E-3</v>
       </c>
       <c r="AH9" s="71">
         <f t="array" ref="AH9:AH11">MMULT(V9:X11,Z9:Z11)-AB9:AB11</f>
-        <v>-4.3368086899420177E-19</v>
+        <v>6.7220534694101275E-18</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
-        <f>_xll.qlIMMNextCode(EvaluationDate,FALSE)</f>
+        <f>_xll.qlIMMNextCode(SettlementDate-1,FALSE)</f>
         <v>K4</v>
       </c>
       <c r="B10" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E10,F10,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c0#0001</v>
+        <v>obj_003bd#0001</v>
       </c>
       <c r="C10" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B10,OisEngine)</f>
@@ -4259,57 +4258,57 @@
       </c>
       <c r="G10" s="51">
         <f>1-_xll.qlQuoteValue($D10,AllTriggers)/100</f>
-        <v>5.2500000000000879E-3</v>
+        <v>5.2999999999999714E-3</v>
       </c>
       <c r="H10" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B10,_xll.ohTrigger(C10,InterestRatesTrigger))</f>
-        <v>4.1880651001825813E-3</v>
+        <v>4.1772197031186842E-3</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="1"/>
-        <v>1.0619348998175066E-3</v>
+        <v>1.1227802968812872E-3</v>
       </c>
       <c r="J10" s="1" t="b">
-        <f>AND(NOT(ISERROR(I10)),E10&lt;&gt;$E$9,E10&lt;&gt;$E$8)</f>
+        <f>AND(NOT(ISERROR(I10)))</f>
         <v>1</v>
       </c>
       <c r="K10" s="15">
         <f>(I10-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P10-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-1.9580749173393281E-6</v>
+        <v>6.3330877477472958E-6</v>
       </c>
       <c r="L10" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K10*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.2694908410554753E-3</v>
+        <v>5.1480387309754683E-4</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="113">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O10" s="113">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" si="6"/>
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="R10" s="92">
         <f t="shared" si="4"/>
-        <v>3514.3333333333335</v>
+        <v>3009.3333333333335</v>
       </c>
       <c r="S10" s="92">
         <f t="shared" si="5"/>
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="T10" s="92">
         <v>1</v>
       </c>
       <c r="V10" s="86">
-        <v>3514.3333333333335</v>
+        <v>3009.3333333333335</v>
       </c>
       <c r="W10" s="87">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="X10" s="88">
         <v>1</v>
@@ -4318,25 +4317,25 @@
         <v>44</v>
       </c>
       <c r="Z10" s="69">
-        <v>-2.0095216772048381E-5</v>
+        <v>5.0807087562631885E-5</v>
       </c>
       <c r="AA10" s="59" t="s">
         <v>45</v>
       </c>
       <c r="AB10" s="69">
-        <v>1.0619348998175066E-3</v>
+        <v>1.1227802968812872E-3</v>
       </c>
       <c r="AD10" s="77">
-        <v>-0.54693877551020531</v>
+        <v>-2.0666666666666789</v>
       </c>
       <c r="AE10" s="78">
-        <v>0.64795918367347094</v>
+        <v>2.1785714285714421</v>
       </c>
       <c r="AF10" s="79">
-        <v>-0.1010204081632656</v>
+        <v>-0.11190476190476308</v>
       </c>
       <c r="AH10" s="72">
-        <v>0</v>
+        <v>6.9388939039072284E-18</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -4346,7 +4345,7 @@
       </c>
       <c r="B11" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E11,F11,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003d5#0001</v>
+        <v>obj_003de#0001</v>
       </c>
       <c r="C11" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B11,OisEngine)</f>
@@ -4370,11 +4369,11 @@
       </c>
       <c r="H11" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B11,_xll.ohTrigger(C11,InterestRatesTrigger))</f>
-        <v>4.2375608753653579E-3</v>
+        <v>4.213400471546903E-3</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="1"/>
-        <v>1.112439124634608E-3</v>
+        <v>1.1365995284530628E-3</v>
       </c>
       <c r="J11" s="1" t="b">
         <f>NOT(ISERROR(I11))</f>
@@ -4382,62 +4381,62 @@
       </c>
       <c r="K11" s="15">
         <f>(I11-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P11-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>3.2987394249072571E-7</v>
+        <v>6.5252637604608014E-7</v>
       </c>
       <c r="L11" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K11*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.0589995459511104E-3</v>
+        <v>1.0374155192940586E-3</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="113">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O11" s="113">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P11" s="5">
         <f t="shared" si="6"/>
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="R11" s="92">
         <f t="shared" si="4"/>
-        <v>7266.333333333333</v>
+        <v>6481.333333333333</v>
       </c>
       <c r="S11" s="92">
         <f t="shared" si="5"/>
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="T11" s="92">
         <v>1</v>
       </c>
       <c r="V11" s="89">
-        <v>7266.333333333333</v>
+        <v>6481.333333333333</v>
       </c>
       <c r="W11" s="90">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="X11" s="91">
         <v>1</v>
       </c>
       <c r="Z11" s="70">
-        <v>1.5526517499458705E-3</v>
+        <v>-9.4909714131724901E-5</v>
       </c>
       <c r="AB11" s="70">
-        <v>1.112439124634608E-3</v>
+        <v>1.1365995284530628E-3</v>
       </c>
       <c r="AD11" s="80">
-        <v>14.643537414966017</v>
+        <v>49.044444444444721</v>
       </c>
       <c r="AE11" s="81">
-        <v>-15.411564625850378</v>
+        <v>-49.833333333333641</v>
       </c>
       <c r="AF11" s="82">
-        <v>1.7680272108843613</v>
+        <v>1.7888888888889158</v>
       </c>
       <c r="AH11" s="73">
-        <v>1.7347234759768071E-18</v>
+        <v>9.1072982488782372E-18</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -4446,7 +4445,7 @@
       </c>
       <c r="B12" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E12,F12,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003dd#0001</v>
+        <v>obj_003d6#0000</v>
       </c>
       <c r="C12" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B12,OisEngine)</f>
@@ -4458,11 +4457,11 @@
       </c>
       <c r="E12" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>41806</v>
+        <v>41809</v>
       </c>
       <c r="F12" s="55">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E12)</f>
-        <v>41898</v>
+        <v>41901</v>
       </c>
       <c r="G12" s="51">
         <f>_xll.qlQuoteValue($D12,AllTriggers)</f>
@@ -4470,11 +4469,11 @@
       </c>
       <c r="H12" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B12,_xll.ohTrigger(C12,InterestRatesTrigger))</f>
-        <v>4.2338744034758668E-3</v>
+        <v>4.2150598505463288E-3</v>
       </c>
       <c r="I12" s="16">
         <f>G12-H12</f>
-        <v>1.1161255965241338E-3</v>
+        <v>1.1349401494536717E-3</v>
       </c>
       <c r="J12" s="1" t="b">
         <f>AND(NOT(ISERROR(I12)),E12&lt;&gt;$E$11,E12&lt;&gt;$E$10)</f>
@@ -4482,32 +4481,32 @@
       </c>
       <c r="K12" s="15">
         <f>(I12-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P12-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>4.0572193733146453E-7</v>
+        <v>6.0471296069957585E-7</v>
       </c>
       <c r="L12" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K12*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.0520215304257625E-3</v>
+        <v>1.041814353505937E-3</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="113">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O12" s="113">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P12" s="5">
         <f t="shared" si="6"/>
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="R12" s="92">
         <f t="shared" si="4"/>
-        <v>6946.333333333333</v>
+        <v>6634.333333333333</v>
       </c>
       <c r="S12" s="92">
         <f t="shared" si="5"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T12" s="92">
         <v>1</v>
@@ -4522,7 +4521,7 @@
       </c>
       <c r="B13" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E13,F13,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003d9#0001</v>
+        <v>obj_003e1#0000</v>
       </c>
       <c r="C13" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B13,OisEngine)</f>
@@ -4534,11 +4533,11 @@
       </c>
       <c r="E13" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>41834</v>
+        <v>41841</v>
       </c>
       <c r="F13" s="55">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E13)</f>
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="G13" s="51">
         <f>_xll.qlQuoteValue($D13,AllTriggers)</f>
@@ -4546,11 +4545,11 @@
       </c>
       <c r="H13" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B13,_xll.ohTrigger(C13,InterestRatesTrigger))</f>
-        <v>4.2871158287270134E-3</v>
+        <v>4.2912395716915054E-3</v>
       </c>
       <c r="I13" s="16">
         <f>G13-H13</f>
-        <v>1.2128841712729871E-3</v>
+        <v>1.2087604283084951E-3</v>
       </c>
       <c r="J13" s="1" t="b">
         <f>AND(NOT(ISERROR(I13)),E13&lt;&gt;$E$11,E13&lt;&gt;$E$10)</f>
@@ -4558,32 +4557,32 @@
       </c>
       <c r="K13" s="15">
         <f>(I13-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P13-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>1.012591988628934E-6</v>
+        <v>8.8343240014442143E-7</v>
       </c>
       <c r="L13" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K13*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>9.9618948570639521E-4</v>
+        <v>1.0161721650770112E-3</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="113">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O13" s="113">
         <f t="shared" si="3"/>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" si="6"/>
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="R13" s="92">
         <f t="shared" si="4"/>
-        <v>12154.333333333334</v>
+        <v>12586.333333333334</v>
       </c>
       <c r="S13" s="92">
         <f t="shared" si="5"/>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="T13" s="92">
         <v>1</v>
@@ -4598,7 +4597,7 @@
       </c>
       <c r="B14" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E14,F14,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003dc#0001</v>
+        <v>obj_003dd#0000</v>
       </c>
       <c r="C14" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B14,OisEngine)</f>
@@ -4610,11 +4609,11 @@
       </c>
       <c r="E14" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>41865</v>
+        <v>41870</v>
       </c>
       <c r="F14" s="55">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E14)</f>
-        <v>41957</v>
+        <v>41962</v>
       </c>
       <c r="G14" s="51">
         <f>_xll.qlQuoteValue($D14,AllTriggers)</f>
@@ -4622,11 +4621,11 @@
       </c>
       <c r="H14" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B14,_xll.ohTrigger(C14,InterestRatesTrigger))</f>
-        <v>4.3966738574222662E-3</v>
+        <v>4.4213050800151242E-3</v>
       </c>
       <c r="I14" s="16">
         <f>G14-H14</f>
-        <v>1.2533261425777334E-3</v>
+        <v>1.2286949199848754E-3</v>
       </c>
       <c r="J14" s="1" t="b">
         <f>AND(NOT(ISERROR(I14)),E14&lt;&gt;$E$11,E14&lt;&gt;$E$10)</f>
@@ -4634,11 +4633,11 @@
       </c>
       <c r="K14" s="15">
         <f>(I14-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P14-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>8.9118583650802295E-7</v>
+        <v>7.1329877225313781E-7</v>
       </c>
       <c r="L14" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K14*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.0073588517015191E-3</v>
+        <v>1.0318244588430094E-3</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="113">
@@ -4674,7 +4673,7 @@
       </c>
       <c r="B15" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E15,F15,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b8#0001</v>
+        <v>obj_003d5#0000</v>
       </c>
       <c r="C15" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B15,OisEngine)</f>
@@ -4686,23 +4685,23 @@
       </c>
       <c r="E15" s="104">
         <f>SettlementDate</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F15" s="105">
         <f>_xll.qlCalendarAdvance(Calendar,E15,A16,"mf")</f>
-        <v>41957</v>
+        <v>41962</v>
       </c>
       <c r="G15" s="106">
         <f>_xll.qlQuoteValue($D15,AllTriggers)</f>
-        <v>6.4156000000000005E-3</v>
+        <v>6.3031000000000007E-3</v>
       </c>
       <c r="H15" s="107">
         <f>_xll.qlOvernightIndexedSwapFairRate(B15,_xll.ohTrigger(C15,InterestRatesTrigger))</f>
-        <v>4.2904109589039906E-3</v>
+        <v>4.3027397256719139E-3</v>
       </c>
       <c r="I15" s="108">
         <f t="shared" si="1"/>
-        <v>2.1251890410960098E-3</v>
+        <v>2.0003602743280868E-3</v>
       </c>
       <c r="J15" s="109" t="b">
         <v>0</v>
@@ -4742,7 +4741,7 @@
       </c>
       <c r="B16" s="57" t="str">
         <f>_xll.qlMakeDatedOIS(,E16,F16,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a3#0001</v>
+        <v>obj_00346#0002</v>
       </c>
       <c r="C16" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B16,OisEngine)</f>
@@ -4753,24 +4752,24 @@
         <v>Gbplibor6MLastFixing_Quote</v>
       </c>
       <c r="E16" s="97">
-        <f>E15</f>
-        <v>41773</v>
+        <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D16),_xll.qlInterestRateIndexFixingDays(A17)&amp;"D","f",,LastFixingsTrigger)</f>
+        <v>41778</v>
       </c>
       <c r="F16" s="98">
         <f>F15</f>
-        <v>41957</v>
+        <v>41962</v>
       </c>
       <c r="G16" s="99">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>6.4156000000000005E-3</v>
+        <v>6.3031000000000007E-3</v>
       </c>
       <c r="H16" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(B16,_xll.ohTrigger(C16,InterestRatesTrigger))</f>
-        <v>4.2904109589039906E-3</v>
+        <v>4.3027397256719139E-3</v>
       </c>
       <c r="I16" s="101">
         <f t="shared" si="1"/>
-        <v>2.1251890410960098E-3</v>
+        <v>2.0003602743280868E-3</v>
       </c>
       <c r="J16" s="109" t="b">
         <f>AND(ISERROR(I17),ISERROR(I18),NOT(ISERROR(I16)))</f>
@@ -4829,11 +4828,11 @@
       <c r="M17" s="110"/>
       <c r="N17" s="112">
         <f t="shared" si="2"/>
-        <v>-41773</v>
+        <v>-41778</v>
       </c>
       <c r="O17" s="112">
         <f t="shared" si="3"/>
-        <v>-41773</v>
+        <v>-41778</v>
       </c>
       <c r="P17" s="110" t="e">
         <f t="shared" si="7"/>
@@ -4846,7 +4845,7 @@
       </c>
       <c r="S17" s="123">
         <f t="shared" si="9"/>
-        <v>-41773</v>
+        <v>-41778</v>
       </c>
       <c r="T17" s="123">
         <v>1</v>
@@ -4876,20 +4875,20 @@
       </c>
       <c r="K18" s="100">
         <f>AVERAGE(_xll.ohFilter(K19:K21,J19:J21))</f>
-        <v>-3.9337552452140543E-7</v>
+        <v>2.5939319343994164E-7</v>
       </c>
       <c r="L18" s="100">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K18*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.1975701376079483E-3</v>
+        <v>1.9526319267351374E-3</v>
       </c>
       <c r="M18" s="110"/>
       <c r="N18" s="112">
         <f t="shared" si="2"/>
-        <v>-41773</v>
+        <v>-41778</v>
       </c>
       <c r="O18" s="112">
         <f t="shared" si="3"/>
-        <v>-41773</v>
+        <v>-41778</v>
       </c>
       <c r="P18" s="110" t="e">
         <f t="shared" si="7"/>
@@ -4902,7 +4901,7 @@
       </c>
       <c r="S18" s="123">
         <f t="shared" si="9"/>
-        <v>-41773</v>
+        <v>-41778</v>
       </c>
       <c r="T18" s="123">
         <v>1</v>
@@ -4921,25 +4920,25 @@
       </c>
       <c r="Z18" s="68">
         <f t="array" ref="Z18:Z20">MMULT(AD18:AF20,AB18:AB20)</f>
-        <v>1.3653800817993045E-7</v>
+        <v>5.4628137039992633E-8</v>
       </c>
       <c r="AB18" s="68">
         <f t="array" ref="AB18:AB20">_xll.ohFilter(I15:I24,$J15:$J24)</f>
-        <v>2.1251890410960098E-3</v>
+        <v>2.0003602743280868E-3</v>
       </c>
       <c r="AD18" s="74">
         <f t="array" ref="AD18:AF20">MINVERSE(V18:X20)</f>
-        <v>4.8829101001996052E-4</v>
+        <v>5.0485044776351273E-4</v>
       </c>
       <c r="AE18" s="75">
-        <v>-1.0451140916216699E-3</v>
+        <v>-9.7863317566465537E-4</v>
       </c>
       <c r="AF18" s="76">
-        <v>5.5682308160170967E-4</v>
+        <v>4.7378272790114275E-4</v>
       </c>
       <c r="AH18" s="71">
         <f t="array" ref="AH18:AH20">MMULT(V18:X20,Z18:Z20)-AB18:AB20</f>
-        <v>1.3010426069826053E-18</v>
+        <v>4.3368086899420177E-19</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -4948,7 +4947,7 @@
       </c>
       <c r="B19" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E19,F19,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003db#0001</v>
+        <v>obj_003e2#0000</v>
       </c>
       <c r="C19" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B19,OisEngine)</f>
@@ -4960,23 +4959,23 @@
       </c>
       <c r="E19" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>41806</v>
+        <v>41809</v>
       </c>
       <c r="F19" s="55">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E19)</f>
-        <v>41989</v>
+        <v>41992</v>
       </c>
       <c r="G19" s="27">
         <f>_xll.qlQuoteValue($D19,AllTriggers)</f>
-        <v>6.45E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="H19" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B19,_xll.ohTrigger(C19,InterestRatesTrigger))</f>
-        <v>4.4460204073847711E-3</v>
+        <v>4.4250458658411764E-3</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" ref="I19:I24" si="11">G19-H19</f>
-        <v>2.0039795926152289E-3</v>
+        <v>1.9749541341588239E-3</v>
       </c>
       <c r="J19" s="1" t="b">
         <f t="shared" ref="J19:J24" si="12">NOT(ISERROR(I19))</f>
@@ -4984,41 +4983,41 @@
       </c>
       <c r="K19" s="15">
         <f>(I19-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P19-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-1.8647607458581675E-6</v>
+        <v>-4.1649410113545687E-7</v>
       </c>
       <c r="L19" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K19*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.4683050183339126E-3</v>
+        <v>2.0769951889370109E-3</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="113">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O19" s="113">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P19" s="5">
         <f t="shared" si="7"/>
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="R19" s="92">
         <f t="shared" si="8"/>
-        <v>18291</v>
+        <v>17797</v>
       </c>
       <c r="S19" s="92">
         <f t="shared" si="9"/>
-        <v>124.5</v>
+        <v>122.5</v>
       </c>
       <c r="T19" s="92">
         <v>1</v>
       </c>
       <c r="V19" s="86">
-        <v>18291</v>
+        <v>17797</v>
       </c>
       <c r="W19" s="87">
-        <v>124.5</v>
+        <v>122.5</v>
       </c>
       <c r="X19" s="88">
         <v>1</v>
@@ -5027,25 +5026,25 @@
         <v>44</v>
       </c>
       <c r="Z19" s="69">
-        <v>-3.3161514495999328E-5</v>
+        <v>-1.2495946203104294E-5</v>
       </c>
       <c r="AA19" s="59" t="s">
         <v>45</v>
       </c>
       <c r="AB19" s="69">
-        <v>2.0039795926152289E-3</v>
+        <v>1.9749541341588239E-3</v>
       </c>
       <c r="AD19" s="77">
-        <v>-0.13602474007784116</v>
+        <v>-0.14057107647060349</v>
       </c>
       <c r="AE19" s="78">
-        <v>0.25605295244730913</v>
+        <v>0.24172239438916984</v>
       </c>
       <c r="AF19" s="79">
-        <v>-0.12002821236946802</v>
+        <v>-0.10115131791856637</v>
       </c>
       <c r="AH19" s="72">
-        <v>4.3368086899420177E-18</v>
+        <v>8.6736173798840355E-19</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
@@ -5054,7 +5053,7 @@
       </c>
       <c r="B20" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E20,F20,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003e0#0001</v>
+        <v>obj_003e4#0000</v>
       </c>
       <c r="C20" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B20,OisEngine)</f>
@@ -5066,23 +5065,23 @@
       </c>
       <c r="E20" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>41834</v>
+        <v>41841</v>
       </c>
       <c r="F20" s="55">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E20)</f>
-        <v>42018</v>
+        <v>42025</v>
       </c>
       <c r="G20" s="27">
         <f>_xll.qlQuoteValue($D20,AllTriggers)</f>
-        <v>6.7500000000000008E-3</v>
+        <v>6.6500000000000005E-3</v>
       </c>
       <c r="H20" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B20,_xll.ohTrigger(C20,InterestRatesTrigger))</f>
-        <v>4.6071028109108949E-3</v>
+        <v>4.5868158959881606E-3</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="11"/>
-        <v>2.1428971890891059E-3</v>
+        <v>2.06318410401184E-3</v>
       </c>
       <c r="J20" s="1" t="b">
         <f t="shared" si="12"/>
@@ -5090,62 +5089,62 @@
       </c>
       <c r="K20" s="15">
         <f>(I20-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P20-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>1.451487540417708E-7</v>
+        <v>4.9860182288692992E-7</v>
       </c>
       <c r="L20" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K20*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.0984816703523241E-3</v>
+        <v>1.9086175389168916E-3</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="113">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" s="113">
         <f t="shared" si="3"/>
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P20" s="5">
         <f t="shared" si="7"/>
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="R20" s="92">
         <f t="shared" si="8"/>
-        <v>26230.333333333332</v>
+        <v>26846.333333333332</v>
       </c>
       <c r="S20" s="92">
         <f t="shared" si="9"/>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="T20" s="92">
         <v>1</v>
       </c>
       <c r="V20" s="89">
-        <v>26230.333333333332</v>
+        <v>26846.333333333332</v>
       </c>
       <c r="W20" s="90">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="X20" s="91">
         <v>1</v>
       </c>
       <c r="Z20" s="70">
-        <v>3.6351714397480413E-3</v>
+        <v>2.533490589138352E-3</v>
       </c>
       <c r="AB20" s="70">
-        <v>2.1428971890891059E-3</v>
+        <v>2.06318410401184E-3</v>
       </c>
       <c r="AD20" s="80">
-        <v>8.0037492754161246</v>
+        <v>8.2351334488016921</v>
       </c>
       <c r="AE20" s="81">
-        <v>-11.762410729838022</v>
+        <v>-11.194258685369435</v>
       </c>
       <c r="AF20" s="82">
-        <v>4.7586614544218984</v>
+        <v>3.959125236567743</v>
       </c>
       <c r="AH20" s="73">
-        <v>6.9388939039072284E-18</v>
+        <v>1.7347234759768071E-18</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
@@ -5154,7 +5153,7 @@
       </c>
       <c r="B21" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E21,F21,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003da#0001</v>
+        <v>obj_003d7#0000</v>
       </c>
       <c r="C21" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B21,OisEngine)</f>
@@ -5166,23 +5165,23 @@
       </c>
       <c r="E21" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>41865</v>
+        <v>41870</v>
       </c>
       <c r="F21" s="55">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E21)</f>
-        <v>42051</v>
+        <v>42054</v>
       </c>
       <c r="G21" s="27">
         <f>_xll.qlQuoteValue($D21,AllTriggers)</f>
-        <v>7.0999999999999995E-3</v>
+        <v>6.9500000000000004E-3</v>
       </c>
       <c r="H21" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B21,_xll.ohTrigger(C21,InterestRatesTrigger))</f>
-        <v>4.8744666711090841E-3</v>
+        <v>4.8215625036953369E-3</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="11"/>
-        <v>2.2255333288909154E-3</v>
+        <v>2.1284374963046635E-3</v>
       </c>
       <c r="J21" s="1" t="b">
         <f t="shared" si="12"/>
@@ -5190,11 +5189,11 @@
       </c>
       <c r="K21" s="15">
         <f>(I21-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P21-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>5.3948541825218047E-7</v>
+        <v>6.9607185856835188E-7</v>
       </c>
       <c r="L21" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K21*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.0259237241376086E-3</v>
+        <v>1.87228305235151E-3</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="113">
@@ -5203,19 +5202,19 @@
       </c>
       <c r="O21" s="113">
         <f t="shared" si="3"/>
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P21" s="5">
         <f t="shared" si="7"/>
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="R21" s="92">
         <f t="shared" si="8"/>
-        <v>37108</v>
+        <v>36677.333333333328</v>
       </c>
       <c r="S21" s="92">
         <f t="shared" si="9"/>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T21" s="92">
         <v>1</v>
@@ -5231,7 +5230,7 @@
       </c>
       <c r="B22" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E22,F22,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003d7#0001</v>
+        <v>obj_003d8#0000</v>
       </c>
       <c r="C22" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B22,OisEngine)</f>
@@ -5243,23 +5242,23 @@
       </c>
       <c r="E22" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>41897</v>
+        <v>41901</v>
       </c>
       <c r="F22" s="55">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E22)</f>
-        <v>42079</v>
+        <v>42082</v>
       </c>
       <c r="G22" s="27">
         <f>_xll.qlQuoteValue($D22,AllTriggers)</f>
-        <v>7.4000000000000003E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="H22" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B22,_xll.ohTrigger(C22,InterestRatesTrigger))</f>
-        <v>5.2245513275944793E-3</v>
+        <v>5.1492296754717002E-3</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="11"/>
-        <v>2.175448672405521E-3</v>
+        <v>2.1507703245282998E-3</v>
       </c>
       <c r="J22" s="1" t="b">
         <f t="shared" si="12"/>
@@ -5267,32 +5266,32 @@
       </c>
       <c r="K22" s="15">
         <f>(I22-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P22-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>2.0430744434760633E-7</v>
+        <v>6.1897140000087672E-7</v>
       </c>
       <c r="L22" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K22*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.0875964713360502E-3</v>
+        <v>1.8864695367279256E-3</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="113">
         <f t="shared" si="2"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O22" s="113">
         <f t="shared" si="3"/>
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P22" s="5">
         <f t="shared" si="7"/>
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="R22" s="92">
         <f t="shared" si="8"/>
-        <v>48985.333333333328</v>
+        <v>48312.333333333336</v>
       </c>
       <c r="S22" s="92">
         <f t="shared" si="9"/>
-        <v>215</v>
+        <v>213.5</v>
       </c>
       <c r="T22" s="92">
         <v>1</v>
@@ -5308,7 +5307,7 @@
       </c>
       <c r="B23" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E23,F23,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003d6#0001</v>
+        <v>obj_003e0#0000</v>
       </c>
       <c r="C23" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B23,OisEngine)</f>
@@ -5320,23 +5319,23 @@
       </c>
       <c r="E23" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>41926</v>
+        <v>41932</v>
       </c>
       <c r="F23" s="55">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E23)</f>
-        <v>42108</v>
+        <v>42114</v>
       </c>
       <c r="G23" s="27">
         <f>_xll.qlQuoteValue($D23,AllTriggers)</f>
-        <v>7.9000000000000008E-3</v>
+        <v>7.8500000000000011E-3</v>
       </c>
       <c r="H23" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B23,_xll.ohTrigger(C23,InterestRatesTrigger))</f>
-        <v>5.6152512745138577E-3</v>
+        <v>5.5511511822691952E-3</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="11"/>
-        <v>2.284748725486143E-3</v>
+        <v>2.2988488177308058E-3</v>
       </c>
       <c r="J23" s="1" t="b">
         <f t="shared" si="12"/>
@@ -5344,32 +5343,32 @@
       </c>
       <c r="K23" s="15">
         <f>(I23-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P23-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>5.2486738286228027E-7</v>
+        <v>9.7545275621803619E-7</v>
       </c>
       <c r="L23" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K23*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.0286134426493502E-3</v>
+        <v>1.8208769671839682E-3</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="113">
         <f t="shared" si="2"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O23" s="113">
         <f t="shared" si="3"/>
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P23" s="5">
         <f t="shared" si="7"/>
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="R23" s="92">
         <f t="shared" si="8"/>
-        <v>62296.333333333328</v>
+        <v>62785.333333333328</v>
       </c>
       <c r="S23" s="92">
         <f t="shared" si="9"/>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T23" s="92">
         <v>1</v>
@@ -5385,7 +5384,7 @@
       </c>
       <c r="B24" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E24,F24,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003d8#0001</v>
+        <v>obj_003dc#0000</v>
       </c>
       <c r="C24" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B24,OisEngine)</f>
@@ -5397,23 +5396,23 @@
       </c>
       <c r="E24" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>41957</v>
+        <v>41962</v>
       </c>
       <c r="F24" s="55">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E24)</f>
-        <v>42138</v>
+        <v>42143</v>
       </c>
       <c r="G24" s="27">
         <f>_xll.qlQuoteValue($D24,AllTriggers)</f>
-        <v>8.4499999999999992E-3</v>
+        <v>8.3499999999999998E-3</v>
       </c>
       <c r="H24" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B24,_xll.ohTrigger(C24,InterestRatesTrigger))</f>
-        <v>6.0919691486971345E-3</v>
+        <v>5.9553886222633249E-3</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="11"/>
-        <v>2.3580308513028647E-3</v>
+        <v>2.3946113777366749E-3</v>
       </c>
       <c r="J24" s="1" t="b">
         <f t="shared" si="12"/>
@@ -5421,11 +5420,11 @@
       </c>
       <c r="K24" s="15">
         <f>(I24-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P24-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>6.3792276769001333E-7</v>
+        <v>1.0801400093385974E-6</v>
       </c>
       <c r="L24" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K24*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.0078112518410476E-3</v>
+        <v>1.8016145126097849E-3</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="113">
@@ -5458,7 +5457,7 @@
       </c>
       <c r="B25" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E25,F25,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0039c#0001</v>
+        <v>obj_003a9#0000</v>
       </c>
       <c r="C25" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B25,OisEngine)</f>
@@ -5470,23 +5469,23 @@
       </c>
       <c r="E25" s="104">
         <f>SettlementDate</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F25" s="105">
         <f>_xll.qlCalendarAdvance(Calendar,E25,A26,"mf")</f>
-        <v>42138</v>
+        <v>42143</v>
       </c>
       <c r="G25" s="106">
         <f>_xll.qlQuoteValue($D25,AllTriggers)</f>
-        <v>9.5025000000000005E-3</v>
+        <v>9.2513000000000005E-3</v>
       </c>
       <c r="H25" s="107">
         <f>_xll.qlOvernightIndexedSwapFairRate(B25,_xll.ohTrigger(C25,InterestRatesTrigger))</f>
-        <v>5.1904109589040581E-3</v>
+        <v>5.1287671231136558E-3</v>
       </c>
       <c r="I25" s="108">
         <f t="shared" si="1"/>
-        <v>4.3120890410959425E-3</v>
+        <v>4.1225328768863447E-3</v>
       </c>
       <c r="J25" s="109" t="b">
         <v>0</v>
@@ -5526,7 +5525,7 @@
       </c>
       <c r="B26" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E26,F26,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003d0#0001</v>
+        <v>obj_00347#0002</v>
       </c>
       <c r="C26" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B26,OisEngine)</f>
@@ -5537,24 +5536,24 @@
         <v>Gbplibor1YLastFixing_Quote</v>
       </c>
       <c r="E26" s="97">
-        <f>E25</f>
-        <v>41773</v>
+        <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D26),_xll.qlInterestRateIndexFixingDays(A27)&amp;"D","f",,LastFixingsTrigger)</f>
+        <v>41778</v>
       </c>
       <c r="F26" s="98">
         <f>F25</f>
-        <v>42138</v>
+        <v>42143</v>
       </c>
       <c r="G26" s="99">
         <f>_xll.qlQuoteValue(D26,AllTriggers)</f>
-        <v>9.5025000000000005E-3</v>
+        <v>9.2513000000000005E-3</v>
       </c>
       <c r="H26" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(B26,_xll.ohTrigger(C26,InterestRatesTrigger))</f>
-        <v>5.1904109589040581E-3</v>
+        <v>5.1287671231136558E-3</v>
       </c>
       <c r="I26" s="101">
         <f t="shared" si="1"/>
-        <v>4.3120890410959425E-3</v>
+        <v>4.1225328768863447E-3</v>
       </c>
       <c r="J26" s="109" t="b">
         <f>NOT(ISERROR(I26))</f>
@@ -5562,11 +5561,11 @@
       </c>
       <c r="K26" s="111">
         <f>K27</f>
-        <v>7.8841927862747374E-7</v>
+        <v>1.0389870680659485E-6</v>
       </c>
       <c r="L26" s="100">
         <f>L27</f>
-        <v>4.0243160043969143E-3</v>
+        <v>3.7433025970422737E-3</v>
       </c>
       <c r="M26" s="110"/>
       <c r="N26" s="112">
@@ -5601,7 +5600,7 @@
       </c>
       <c r="B27" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E27,F27,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003df#0001</v>
+        <v>obj_003df#0000</v>
       </c>
       <c r="C27" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B27,OisEngine)</f>
@@ -5613,23 +5612,23 @@
       </c>
       <c r="E27" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"12M","mf")</f>
-        <v>42138</v>
+        <v>42143</v>
       </c>
       <c r="F27" s="55">
         <f>_xll.qlInterestRateIndexMaturity(A27,E27)</f>
-        <v>42506</v>
+        <v>42509</v>
       </c>
       <c r="G27" s="27">
         <f>_xll.qlQuoteValue($D27,AllTriggers)</f>
-        <v>1.685E-2</v>
+        <v>1.6549999999999999E-2</v>
       </c>
       <c r="H27" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B27,_xll.ohTrigger(C27,InterestRatesTrigger))</f>
-        <v>1.195999962767012E-2</v>
+        <v>1.1667967576357446E-2</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="1"/>
-        <v>4.8900003723298807E-3</v>
+        <v>4.882032423642553E-3</v>
       </c>
       <c r="J27" s="1" t="b">
         <f>NOT(ISERROR(I27))</f>
@@ -5637,11 +5636,11 @@
       </c>
       <c r="K27" s="15">
         <f>(I27-_xll.ohFilter($I$25:$I$26,$J$25:$J$26))/(P27-_xll.ohFilter($P$25:$P$26,$J$25:$J$26))</f>
-        <v>7.8841927862747374E-7</v>
+        <v>1.0389870680659485E-6</v>
       </c>
       <c r="L27" s="15">
         <f>_xll.ohFilter($I$25:$I$26,$J$25:$J$26)-K27*_xll.ohFilter($P$25:$P$26,$J$25:$J$26)</f>
-        <v>4.0243160043969143E-3</v>
+        <v>3.7433025970422737E-3</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="113">
@@ -5650,19 +5649,19 @@
       </c>
       <c r="O27" s="113">
         <f t="shared" si="3"/>
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="P27" s="5">
         <f t="shared" si="7"/>
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="R27" s="92">
         <f t="shared" si="8"/>
-        <v>312686.33333333337</v>
+        <v>311467</v>
       </c>
       <c r="S27" s="92">
         <f t="shared" si="9"/>
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="T27" s="92">
         <v>1</v>
@@ -5733,11 +5732,11 @@
       </c>
       <c r="V30" s="118">
         <f>Z9</f>
-        <v>1.6342491855929052E-7</v>
+        <v>-4.0575438369294792E-7</v>
       </c>
       <c r="W30" s="13">
         <f>Z18</f>
-        <v>1.3653800817993045E-7</v>
+        <v>5.4628137039992633E-8</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
@@ -5746,49 +5745,49 @@
       </c>
       <c r="G31" s="37">
         <f>_xll.ohFilter(I2:I3,J2:J3)</f>
-        <v>7.0167671232864229E-4</v>
+        <v>7.0477671344798282E-4</v>
       </c>
       <c r="H31" s="38">
         <f>_xll.ohFilter(I6:I9,J6:J9)</f>
-        <v>1.0893479486602572E-3</v>
+        <v>1.097447945890298E-3</v>
       </c>
       <c r="I31" s="38">
         <f>_xll.ohFilter(I15:I18,J15:J18)</f>
-        <v>2.1251890410960098E-3</v>
+        <v>2.0003602743280868E-3</v>
       </c>
       <c r="J31" s="39">
         <f>_xll.ohFilter(I25:I26,J25:J26)</f>
-        <v>4.3120890410959425E-3</v>
+        <v>4.1225328768863447E-3</v>
       </c>
       <c r="M31" s="59" t="s">
         <v>43</v>
       </c>
       <c r="N31" s="58">
         <f>K4</f>
-        <v>6.580374390923599E-7</v>
+        <v>-3.0232919027164575E-7</v>
       </c>
       <c r="O31" s="58">
         <f>K9</f>
-        <v>-4.0749301250571258E-7</v>
+        <v>2.5301090281643175E-6</v>
       </c>
       <c r="P31" s="58">
         <f>AVERAGE(K19:K21)</f>
-        <v>-3.9337552452140543E-7</v>
+        <v>2.5939319343994164E-7</v>
       </c>
       <c r="Q31" s="58">
         <f>K26</f>
-        <v>7.8841927862747374E-7</v>
+        <v>1.0389870680659485E-6</v>
       </c>
       <c r="U31" s="119" t="s">
         <v>43</v>
       </c>
       <c r="V31" s="64">
         <f>Z10</f>
-        <v>-2.0095216772048381E-5</v>
+        <v>5.0807087562631885E-5</v>
       </c>
       <c r="W31" s="16">
         <f>Z19</f>
-        <v>-3.3161514495999328E-5</v>
+        <v>-1.2495946203104294E-5</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
@@ -5797,49 +5796,49 @@
       </c>
       <c r="G32" s="37">
         <f>IF(G31&lt;H31,G31,H31)</f>
-        <v>7.0167671232864229E-4</v>
+        <v>7.0477671344798282E-4</v>
       </c>
       <c r="H32" s="38">
         <f>H31</f>
-        <v>1.0893479486602572E-3</v>
+        <v>1.097447945890298E-3</v>
       </c>
       <c r="I32" s="38">
         <f>IF(I31&lt;H31,H31,I31)</f>
-        <v>2.1251890410960098E-3</v>
+        <v>2.0003602743280868E-3</v>
       </c>
       <c r="J32" s="39">
         <f>IF(J31&lt;I31,I31,J31)</f>
-        <v>4.3120890410959425E-3</v>
+        <v>4.1225328768863447E-3</v>
       </c>
       <c r="M32" s="59" t="s">
         <v>42</v>
       </c>
       <c r="N32" s="58">
         <f>L4</f>
-        <v>6.7996147683859441E-4</v>
+        <v>7.1414891834640387E-4</v>
       </c>
       <c r="O32" s="58">
         <f>L9</f>
-        <v>1.1268373058107828E-3</v>
+        <v>8.6467791529918085E-4</v>
       </c>
       <c r="P32" s="58">
         <f>L18</f>
-        <v>2.1975701376079483E-3</v>
+        <v>1.9526319267351374E-3</v>
       </c>
       <c r="Q32" s="58">
         <f>L26</f>
-        <v>4.0243160043969143E-3</v>
+        <v>3.7433025970422737E-3</v>
       </c>
       <c r="U32" s="119" t="s">
         <v>42</v>
       </c>
       <c r="V32" s="64">
         <f>Z11</f>
-        <v>1.5526517499458705E-3</v>
+        <v>-9.4909714131724901E-5</v>
       </c>
       <c r="W32" s="16">
         <f>Z20</f>
-        <v>3.6351714397480413E-3</v>
+        <v>2.533490589138352E-3</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
@@ -5897,7 +5896,7 @@
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E34,F34,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bf#0001</v>
+        <v>obj_003ae#0000</v>
       </c>
       <c r="C34" s="7" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B34,OisEngine)</f>
@@ -5908,27 +5907,27 @@
       </c>
       <c r="E34" s="52">
         <f t="shared" ref="E34:E49" si="13">SettlementDate</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F34" s="22">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D34,"Following")</f>
-        <v>41774</v>
+        <v>41779</v>
       </c>
       <c r="G34" s="32">
         <f t="shared" ref="G34:J38" si="14">$L34+IF(G$30,G$32,N34)</f>
-        <v>4.8476796521073227E-3</v>
+        <v>5.3001479590360518E-3</v>
       </c>
       <c r="H34" s="32">
         <f t="shared" si="14"/>
-        <v>5.7097187543623355E-3</v>
+        <v>4.5166599480682794E-3</v>
       </c>
       <c r="I34" s="32">
         <f t="shared" si="14"/>
-        <v>7.785696332999071E-3</v>
+        <v>7.1135621952957331E-3</v>
       </c>
       <c r="J34" s="32">
         <f t="shared" si="14"/>
-        <v>8.1921645615051775E-3</v>
+        <v>8.3306429539902593E-3</v>
       </c>
       <c r="K34" s="228">
         <f>F34-$E$7</f>
@@ -5936,40 +5935,40 @@
       </c>
       <c r="L34" s="2">
         <f>_xll.qlOvernightIndexedSwapFairRate(B34,_xll.ohTrigger(C34,InterestRatesTrigger))</f>
-        <v>4.1670601378296359E-3</v>
+        <v>4.5863013698799193E-3</v>
       </c>
       <c r="N34" s="63">
         <f>N$31*$K34+N$32</f>
-        <v>6.8061951427768677E-4</v>
+        <v>7.1384658915613227E-4</v>
       </c>
       <c r="O34" s="64">
         <f t="shared" ref="O34:P40" si="15">IF(O$30,V34,O$31*$K34+O$32)</f>
-        <v>1.5426586165326994E-3</v>
+        <v>-6.9641421811639944E-5</v>
       </c>
       <c r="P34" s="64">
         <f t="shared" si="15"/>
-        <v>3.618636195169435E-3</v>
+        <v>2.5272608254158133E-3</v>
       </c>
       <c r="Q34" s="16">
         <f t="shared" ref="Q34:Q49" si="16">Q$31*$K34+Q$32</f>
-        <v>4.0251044236755415E-3</v>
+        <v>3.7443415841103395E-3</v>
       </c>
       <c r="U34" s="21" t="s">
         <v>14</v>
       </c>
       <c r="V34" s="64">
         <f t="shared" ref="V34:W40" si="17">$K34*$K34/3*V$30+$K34/2*V$31+V$32</f>
-        <v>1.5426586165326994E-3</v>
+        <v>-6.9641421811639944E-5</v>
       </c>
       <c r="W34" s="16">
         <f t="shared" si="17"/>
-        <v>3.618636195169435E-3</v>
+        <v>2.5272608254158133E-3</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E35,F35,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bd#0001</v>
+        <v>obj_003af#0000</v>
       </c>
       <c r="C35" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B35,OisEngine)</f>
@@ -5980,68 +5979,68 @@
       </c>
       <c r="E35" s="54">
         <f t="shared" si="13"/>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F35" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D35,"Following")</f>
-        <v>41780</v>
+        <v>41786</v>
       </c>
       <c r="G35" s="32">
         <f t="shared" si="14"/>
-        <v>4.8516910265929396E-3</v>
+        <v>4.8788535610383875E-3</v>
       </c>
       <c r="H35" s="32">
         <f t="shared" si="14"/>
-        <v>5.6521110525942012E-3</v>
+        <v>4.2667858188141766E-3</v>
       </c>
       <c r="I35" s="32">
         <f t="shared" si="14"/>
-        <v>7.6884595474930144E-3</v>
+        <v>6.6517954807969442E-3</v>
       </c>
       <c r="J35" s="32">
         <f t="shared" si="14"/>
-        <v>8.1969582270280048E-3</v>
+        <v>7.9187377698009577E-3</v>
       </c>
       <c r="K35" s="229">
         <f t="shared" ref="K35:K49" si="18">F35-$E$7</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L35" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B35,_xll.ohTrigger(C35,InterestRatesTrigger))</f>
-        <v>4.1671232876806987E-3</v>
+        <v>4.1671232762141566E-3</v>
       </c>
       <c r="N35" s="63">
         <f>N$31*$K35+N$32</f>
-        <v>6.8456773891224093E-4</v>
+        <v>7.1173028482423065E-4</v>
       </c>
       <c r="O35" s="64">
         <f t="shared" si="15"/>
-        <v>1.4849877649135029E-3</v>
+        <v>9.9662542600019747E-5</v>
       </c>
       <c r="P35" s="64">
         <f t="shared" si="15"/>
-        <v>3.5213362598123157E-3</v>
+        <v>2.484672204582788E-3</v>
       </c>
       <c r="Q35" s="16">
         <f t="shared" si="16"/>
-        <v>4.0298349393473069E-3</v>
+        <v>3.7516144935868011E-3</v>
       </c>
       <c r="U35" s="23" t="s">
         <v>4</v>
       </c>
       <c r="V35" s="64">
         <f t="shared" si="17"/>
-        <v>1.4849877649135029E-3</v>
+        <v>9.9662542600019747E-5</v>
       </c>
       <c r="W35" s="16">
         <f t="shared" si="17"/>
-        <v>3.5213362598123157E-3</v>
+        <v>2.484672204582788E-3</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E36,F36,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a4#0001</v>
+        <v>obj_003c1#0000</v>
       </c>
       <c r="C36" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B36,OisEngine)</f>
@@ -6052,27 +6051,27 @@
       </c>
       <c r="E36" s="54">
         <f t="shared" si="13"/>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F36" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D36,"Following")</f>
-        <v>41787</v>
+        <v>41792</v>
       </c>
       <c r="G36" s="32">
         <f t="shared" si="14"/>
-        <v>4.8562972886551665E-3</v>
+        <v>4.8770395940973422E-3</v>
       </c>
       <c r="H36" s="32">
         <f t="shared" si="14"/>
-        <v>5.5897856148900181E-3</v>
+        <v>4.4013538968201669E-3</v>
       </c>
       <c r="I36" s="32">
         <f t="shared" si="14"/>
-        <v>7.5790846091464137E-3</v>
+        <v>6.6167112884179761E-3</v>
       </c>
       <c r="J36" s="32">
         <f t="shared" si="14"/>
-        <v>8.2024771619669777E-3</v>
+        <v>7.9249717004099378E-3</v>
       </c>
       <c r="K36" s="229">
         <f t="shared" si="18"/>
@@ -6080,40 +6079,40 @@
       </c>
       <c r="L36" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B36,_xll.ohTrigger(C36,InterestRatesTrigger))</f>
-        <v>4.167123287669279E-3</v>
+        <v>4.1671232844147409E-3</v>
       </c>
       <c r="N36" s="63">
         <f>N$31*$K36+N$32</f>
-        <v>6.8917400098588745E-4</v>
+        <v>7.0991630968260085E-4</v>
       </c>
       <c r="O36" s="64">
         <f t="shared" si="15"/>
-        <v>1.4226623272207389E-3</v>
+        <v>2.3423061240542573E-4</v>
       </c>
       <c r="P36" s="64">
         <f t="shared" si="15"/>
-        <v>3.4119613214771347E-3</v>
+        <v>2.4495880040032347E-3</v>
       </c>
       <c r="Q36" s="16">
         <f t="shared" si="16"/>
-        <v>4.0353538742976987E-3</v>
+        <v>3.7578484159951969E-3</v>
       </c>
       <c r="U36" s="23" t="s">
         <v>5</v>
       </c>
       <c r="V36" s="64">
         <f t="shared" si="17"/>
-        <v>1.4226623272207389E-3</v>
+        <v>2.3423061240542573E-4</v>
       </c>
       <c r="W36" s="16">
         <f t="shared" si="17"/>
-        <v>3.4119613214771347E-3</v>
+        <v>2.4495880040032347E-3</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E37,F37,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b2#0001</v>
+        <v>obj_003c9#0000</v>
       </c>
       <c r="C37" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B37,OisEngine)</f>
@@ -6124,27 +6123,27 @@
       </c>
       <c r="E37" s="53">
         <f t="shared" si="13"/>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F37" s="26">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D37,"Following")</f>
-        <v>41794</v>
+        <v>41799</v>
       </c>
       <c r="G37" s="35">
         <f t="shared" si="14"/>
-        <v>4.8609581768724215E-3</v>
+        <v>4.8765731538736303E-3</v>
       </c>
       <c r="H37" s="35">
         <f t="shared" si="14"/>
-        <v>5.5328533506804663E-3</v>
+        <v>4.5476919593959771E-3</v>
       </c>
       <c r="I37" s="35">
         <f t="shared" si="14"/>
-        <v>7.4742245385553858E-3</v>
+        <v>6.5790866386735668E-3</v>
       </c>
       <c r="J37" s="35">
         <f t="shared" si="14"/>
-        <v>8.2080507230609789E-3</v>
+        <v>7.9338944739945887E-3</v>
       </c>
       <c r="K37" s="230">
         <f t="shared" si="18"/>
@@ -6152,40 +6151,40 @@
       </c>
       <c r="L37" s="4">
         <f>_xll.qlOvernightIndexedSwapFairRate(B37,_xll.ohTrigger(C37,InterestRatesTrigger))</f>
-        <v>4.1671779138128875E-3</v>
+        <v>4.1687731485229307E-3</v>
       </c>
       <c r="N37" s="93">
         <f>N$31*$K37+N$32</f>
-        <v>6.9378026305953397E-4</v>
+        <v>7.0780000535069934E-4</v>
       </c>
       <c r="O37" s="94">
         <f t="shared" si="15"/>
-        <v>1.3656754368675784E-3</v>
+        <v>3.7891881087304661E-4</v>
       </c>
       <c r="P37" s="94">
         <f t="shared" si="15"/>
-        <v>3.3070466247424983E-3</v>
+        <v>2.4103134901506361E-3</v>
       </c>
       <c r="Q37" s="14">
         <f t="shared" si="16"/>
-        <v>4.0408728092480913E-3</v>
+        <v>3.7651213254716585E-3</v>
       </c>
       <c r="U37" s="31" t="s">
         <v>8</v>
       </c>
       <c r="V37" s="94">
         <f t="shared" si="17"/>
-        <v>1.3656754368675784E-3</v>
+        <v>3.7891881087304661E-4</v>
       </c>
       <c r="W37" s="14">
         <f t="shared" si="17"/>
-        <v>3.3070466247424983E-3</v>
+        <v>2.4103134901506361E-3</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E38,F38,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c2#0001</v>
+        <v>obj_003ac#0000</v>
       </c>
       <c r="C38" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B38,OisEngine)</f>
@@ -6196,68 +6195,68 @@
       </c>
       <c r="E38" s="54">
         <f t="shared" si="13"/>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F38" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D38,"mf",TRUE)</f>
-        <v>41806</v>
+        <v>41809</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="14"/>
-        <v>4.8687999999999995E-3</v>
+        <v>4.8719000000000002E-3</v>
       </c>
       <c r="H38" s="34">
         <f t="shared" si="14"/>
-        <v>5.4475272063154515E-3</v>
+        <v>4.729746775398112E-3</v>
       </c>
       <c r="I38" s="34">
         <f t="shared" si="14"/>
-        <v>7.3046930352047247E-3</v>
+        <v>6.5244259227740641E-3</v>
       </c>
       <c r="J38" s="34">
         <f t="shared" si="14"/>
-        <v>8.2174571282629776E-3</v>
+        <v>7.9426344827043353E-3</v>
       </c>
       <c r="K38" s="228">
         <f t="shared" si="18"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L38" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B38,_xll.ohTrigger(C38,InterestRatesTrigger))</f>
-        <v>4.1671232876713572E-3</v>
+        <v>4.1671232865520174E-3</v>
       </c>
       <c r="N38" s="63">
         <f>N$31*$K38+N$32</f>
-        <v>7.0167671232864229E-4</v>
+        <v>7.0477671344798282E-4</v>
       </c>
       <c r="O38" s="64">
         <f t="shared" si="15"/>
-        <v>1.2804039186440947E-3</v>
+        <v>5.6262348884609495E-4</v>
       </c>
       <c r="P38" s="64">
         <f t="shared" si="15"/>
-        <v>3.1375697475333674E-3</v>
+        <v>2.3573026362220463E-3</v>
       </c>
       <c r="Q38" s="16">
         <f t="shared" si="16"/>
-        <v>4.0503338405916212E-3</v>
+        <v>3.775511196152318E-3</v>
       </c>
       <c r="U38" s="23" t="s">
         <v>9</v>
       </c>
       <c r="V38" s="64">
         <f t="shared" si="17"/>
-        <v>1.2804039186440947E-3</v>
+        <v>5.6262348884609495E-4</v>
       </c>
       <c r="W38" s="16">
         <f t="shared" si="17"/>
-        <v>3.1375697475333674E-3</v>
+        <v>2.3573026362220463E-3</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E39,F39,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003be#0001</v>
+        <v>obj_003b7#0000</v>
       </c>
       <c r="C39" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B39,OisEngine)</f>
@@ -6268,62 +6267,62 @@
       </c>
       <c r="E39" s="54">
         <f t="shared" si="13"/>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F39" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D39,"mf",TRUE)</f>
-        <v>41834</v>
+        <v>41841</v>
       </c>
       <c r="G39" s="48"/>
       <c r="H39" s="32">
         <f t="shared" ref="H39:J40" si="19">$L39+IF(H$30,H$32,O39)</f>
-        <v>5.3095722979951791E-3</v>
+        <v>5.1358237810371545E-3</v>
       </c>
       <c r="I39" s="32">
         <f t="shared" si="19"/>
-        <v>6.9602211760429796E-3</v>
+        <v>6.3792645956162221E-3</v>
       </c>
       <c r="J39" s="32">
         <f t="shared" si="19"/>
-        <v>8.2395328660036012E-3</v>
+        <v>7.975882068902174E-3</v>
       </c>
       <c r="K39" s="229">
         <f t="shared" si="18"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L39" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B39,_xll.ohTrigger(C39,InterestRatesTrigger))</f>
-        <v>4.1671232856104112E-3</v>
+        <v>4.1671232865717455E-3</v>
       </c>
       <c r="N39" s="48"/>
       <c r="O39" s="64">
         <f t="shared" si="15"/>
-        <v>1.1424490123847684E-3</v>
+        <v>9.6870049446540945E-4</v>
       </c>
       <c r="P39" s="64">
         <f t="shared" si="15"/>
-        <v>2.7930978904325689E-3</v>
+        <v>2.212141309044477E-3</v>
       </c>
       <c r="Q39" s="16">
         <f t="shared" si="16"/>
-        <v>4.07240958039319E-3</v>
+        <v>3.8087587823304285E-3</v>
       </c>
       <c r="U39" s="23" t="s">
         <v>10</v>
       </c>
       <c r="V39" s="64">
         <f t="shared" si="17"/>
-        <v>1.1424490123847684E-3</v>
+        <v>9.6870049446540945E-4</v>
       </c>
       <c r="W39" s="16">
         <f t="shared" si="17"/>
-        <v>2.7930978904325689E-3</v>
+        <v>2.212141309044477E-3</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E40,F40,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003aa#0001</v>
+        <v>obj_003a2#0000</v>
       </c>
       <c r="C40" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B40,OisEngine)</f>
@@ -6334,24 +6333,24 @@
       </c>
       <c r="E40" s="54">
         <f t="shared" si="13"/>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F40" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D40,"mf",TRUE)</f>
-        <v>41865</v>
+        <v>41870</v>
       </c>
       <c r="G40" s="46"/>
       <c r="H40" s="32">
         <f t="shared" si="19"/>
-        <v>5.2688000000000006E-3</v>
+        <v>5.2769000000000062E-3</v>
       </c>
       <c r="I40" s="32">
         <f t="shared" si="19"/>
-        <v>6.6744130580167925E-3</v>
+        <v>6.2922533018740893E-3</v>
       </c>
       <c r="J40" s="32">
         <f t="shared" si="19"/>
-        <v>8.2763026293703849E-3</v>
+        <v>8.0183414614140441E-3</v>
       </c>
       <c r="K40" s="229">
         <f t="shared" si="18"/>
@@ -6359,37 +6358,37 @@
       </c>
       <c r="L40" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B40,_xll.ohTrigger(C40,InterestRatesTrigger))</f>
-        <v>4.1794520513397434E-3</v>
+        <v>4.1794520541097021E-3</v>
       </c>
       <c r="N40" s="46"/>
       <c r="O40" s="64">
         <f t="shared" si="15"/>
-        <v>1.0893479486602567E-3</v>
+        <v>1.0974479458903045E-3</v>
       </c>
       <c r="P40" s="64">
         <f t="shared" si="15"/>
-        <v>2.4949610066770491E-3</v>
+        <v>2.1128012477643872E-3</v>
       </c>
       <c r="Q40" s="16">
         <f t="shared" si="16"/>
-        <v>4.0968505780306416E-3</v>
+        <v>3.8388894073043411E-3</v>
       </c>
       <c r="U40" s="23" t="s">
         <v>3</v>
       </c>
       <c r="V40" s="64">
         <f t="shared" si="17"/>
-        <v>1.0893479486602567E-3</v>
+        <v>1.0974479458903045E-3</v>
       </c>
       <c r="W40" s="16">
         <f t="shared" si="17"/>
-        <v>2.4949610066770491E-3</v>
+        <v>2.1128012477643872E-3</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E41,F41,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c9#0001</v>
+        <v>obj_003a8#0000</v>
       </c>
       <c r="C41" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B41,OisEngine)</f>
@@ -6400,39 +6399,39 @@
       </c>
       <c r="E41" s="54">
         <f t="shared" si="13"/>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F41" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D41,"mf",TRUE)</f>
-        <v>41897</v>
+        <v>41901</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="47"/>
       <c r="I41" s="32">
         <f t="shared" ref="I41:J43" si="20">$L41+IF(I$30,I$32,P41)</f>
-        <v>6.4953987017520743E-3</v>
+        <v>6.2445891812322862E-3</v>
       </c>
       <c r="J41" s="32">
         <f t="shared" si="20"/>
-        <v>8.3385183511111745E-3</v>
+        <v>8.075207594906552E-3</v>
       </c>
       <c r="K41" s="229">
         <f t="shared" si="18"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L41" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B41,_xll.ohTrigger(C41,InterestRatesTrigger))</f>
-        <v>4.2164383561644541E-3</v>
+        <v>4.2041095884921657E-3</v>
       </c>
       <c r="N41" s="36"/>
       <c r="O41" s="47"/>
       <c r="P41" s="64">
         <f>IF(P$30,W41,P$31*$K41+P$32)</f>
-        <v>2.2789603455876197E-3</v>
+        <v>2.0404795927401209E-3</v>
       </c>
       <c r="Q41" s="16">
         <f t="shared" si="16"/>
-        <v>4.1220799949467212E-3</v>
+        <v>3.8710980064143854E-3</v>
       </c>
       <c r="U41" s="23" t="s">
         <v>12</v>
@@ -6440,13 +6439,13 @@
       <c r="V41" s="64"/>
       <c r="W41" s="16">
         <f>$K41*$K41/3*W$30+$K41/2*W$31+W$32</f>
-        <v>2.2789603455876197E-3</v>
+        <v>2.0404795927401209E-3</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E42,F42,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ca#0001</v>
+        <v>obj_003ca#0000</v>
       </c>
       <c r="C42" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B42,OisEngine)</f>
@@ -6457,39 +6456,39 @@
       </c>
       <c r="E42" s="54">
         <f t="shared" si="13"/>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F42" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D42,"mf",TRUE)</f>
-        <v>41926</v>
+        <v>41932</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="45"/>
       <c r="I42" s="32">
         <f t="shared" si="20"/>
-        <v>6.4048175490428573E-3</v>
+        <v>6.2442522541520705E-3</v>
       </c>
       <c r="J42" s="32">
         <f t="shared" si="20"/>
-        <v>8.3860400444376836E-3</v>
+        <v>8.1444024954970239E-3</v>
       </c>
       <c r="K42" s="229">
         <f t="shared" si="18"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L42" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B42,_xll.ohTrigger(C42,InterestRatesTrigger))</f>
-        <v>4.2410958904107671E-3</v>
+        <v>4.2410958899725942E-3</v>
       </c>
       <c r="N42" s="36"/>
       <c r="O42" s="45"/>
       <c r="P42" s="64">
         <f>IF(P$30,W42,P$31*$K42+P$32)</f>
-        <v>2.1637216586320902E-3</v>
+        <v>2.0031563641794764E-3</v>
       </c>
       <c r="Q42" s="16">
         <f t="shared" si="16"/>
-        <v>4.1449441540269173E-3</v>
+        <v>3.9033066055244297E-3</v>
       </c>
       <c r="U42" s="23" t="s">
         <v>13</v>
@@ -6497,13 +6496,13 @@
       <c r="V42" s="64"/>
       <c r="W42" s="16">
         <f>$K42*$K42/3*W$30+$K42/2*W$31+W$32</f>
-        <v>2.1637216586320902E-3</v>
+        <v>2.0031563641794764E-3</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E43,F43,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a8#0001</v>
+        <v>obj_003a0#0000</v>
       </c>
       <c r="C43" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B43,OisEngine)</f>
@@ -6514,21 +6513,21 @@
       </c>
       <c r="E43" s="54">
         <f t="shared" si="13"/>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F43" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D43,"mf",TRUE)</f>
-        <v>41957</v>
+        <v>41962</v>
       </c>
       <c r="G43" s="36"/>
       <c r="H43" s="45"/>
       <c r="I43" s="32">
         <f t="shared" si="20"/>
-        <v>6.4156000000000022E-3</v>
+        <v>6.3031000000000007E-3</v>
       </c>
       <c r="J43" s="32">
         <f t="shared" si="20"/>
-        <v>8.4597961105683604E-3</v>
+        <v>8.2372159432383234E-3</v>
       </c>
       <c r="K43" s="229">
         <f t="shared" si="18"/>
@@ -6536,17 +6535,17 @@
       </c>
       <c r="L43" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B43,_xll.ohTrigger(C43,InterestRatesTrigger))</f>
-        <v>4.2904109589039906E-3</v>
+        <v>4.3027397256719139E-3</v>
       </c>
       <c r="N43" s="36"/>
       <c r="O43" s="45"/>
       <c r="P43" s="64">
         <f>IF(P$30,W43,P$31*$K43+P$32)</f>
-        <v>2.1251890410960116E-3</v>
+        <v>2.0003602743280872E-3</v>
       </c>
       <c r="Q43" s="16">
         <f t="shared" si="16"/>
-        <v>4.1693851516643697E-3</v>
+        <v>3.9344762175664086E-3</v>
       </c>
       <c r="U43" s="121" t="s">
         <v>15</v>
@@ -6554,13 +6553,13 @@
       <c r="V43" s="94"/>
       <c r="W43" s="14">
         <f>$K43*$K43/3*W$30+$K43/2*W$31+W$32</f>
-        <v>2.1251890410960116E-3</v>
+        <v>2.0003602743280872E-3</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E44,F44,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b3#0001</v>
+        <v>obj_003bc#0000</v>
       </c>
       <c r="C44" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B44,OisEngine)</f>
@@ -6571,39 +6570,39 @@
       </c>
       <c r="E44" s="54">
         <f t="shared" si="13"/>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F44" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D44,"mf",TRUE)</f>
-        <v>41988</v>
+        <v>41992</v>
       </c>
       <c r="G44" s="36"/>
       <c r="H44" s="33"/>
       <c r="I44" s="47"/>
       <c r="J44" s="32">
         <f t="shared" ref="J44:J49" si="21">$L44+IF(J$30,J$32,Q44)</f>
-        <v>8.5951960123157381E-3</v>
+        <v>8.3546869251934844E-3</v>
       </c>
       <c r="K44" s="229">
         <f t="shared" si="18"/>
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L44" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B44,_xll.ohTrigger(C44,InterestRatesTrigger))</f>
-        <v>4.4013698630139177E-3</v>
+        <v>4.3890410955850978E-3</v>
       </c>
       <c r="N44" s="36"/>
       <c r="O44" s="33"/>
       <c r="P44" s="47"/>
       <c r="Q44" s="16">
         <f t="shared" si="16"/>
-        <v>4.1938261493018212E-3</v>
+        <v>3.9656458296083866E-3</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E45,F45,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b9#0001</v>
+        <v>obj_003bb#0000</v>
       </c>
       <c r="C45" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B45,OisEngine)</f>
@@ -6614,18 +6613,18 @@
       </c>
       <c r="E45" s="54">
         <f t="shared" si="13"/>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F45" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D45,"mf",TRUE)</f>
-        <v>42018</v>
+        <v>42023</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="33"/>
       <c r="I45" s="45"/>
       <c r="J45" s="32">
         <f t="shared" si="21"/>
-        <v>8.7174787276605992E-3</v>
+        <v>8.4731968941954613E-3</v>
       </c>
       <c r="K45" s="229">
         <f t="shared" si="18"/>
@@ -6633,20 +6632,20 @@
       </c>
       <c r="L45" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B45,_xll.ohTrigger(C45,InterestRatesTrigger))</f>
-        <v>4.4999999999999528E-3</v>
+        <v>4.4753424654770304E-3</v>
       </c>
       <c r="N45" s="36"/>
       <c r="O45" s="33"/>
       <c r="P45" s="45"/>
       <c r="Q45" s="16">
         <f t="shared" si="16"/>
-        <v>4.2174787276606455E-3</v>
+        <v>3.9978544287184309E-3</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E46,F46,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ce#0001</v>
+        <v>obj_003bf#0000</v>
       </c>
       <c r="C46" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B46,OisEngine)</f>
@@ -6657,39 +6656,39 @@
       </c>
       <c r="E46" s="54">
         <f t="shared" si="13"/>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F46" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D46,"mf",TRUE)</f>
-        <v>42051</v>
+        <v>42054</v>
       </c>
       <c r="G46" s="36"/>
       <c r="H46" s="33"/>
       <c r="I46" s="45"/>
       <c r="J46" s="32">
         <f t="shared" si="21"/>
-        <v>8.891441769334759E-3</v>
+        <v>8.641021931692576E-3</v>
       </c>
       <c r="K46" s="229">
         <f t="shared" si="18"/>
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L46" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B46,_xll.ohTrigger(C46,InterestRatesTrigger))</f>
-        <v>4.6479452054794066E-3</v>
+        <v>4.6109589038641017E-3</v>
       </c>
       <c r="N46" s="36"/>
       <c r="O46" s="33"/>
       <c r="P46" s="45"/>
       <c r="Q46" s="16">
         <f t="shared" si="16"/>
-        <v>4.2434965638553515E-3</v>
+        <v>4.0300630278284752E-3</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E47,F47,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003d2#0001</v>
+        <v>obj_003a4#0000</v>
       </c>
       <c r="C47" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B47,OisEngine)</f>
@@ -6700,39 +6699,39 @@
       </c>
       <c r="E47" s="54">
         <f t="shared" si="13"/>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F47" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D47,"mf",TRUE)</f>
-        <v>42079</v>
+        <v>42082</v>
       </c>
       <c r="G47" s="36"/>
       <c r="H47" s="33"/>
       <c r="I47" s="45"/>
       <c r="J47" s="32">
         <f t="shared" si="21"/>
-        <v>9.086120248862491E-3</v>
+        <v>8.8303875422458995E-3</v>
       </c>
       <c r="K47" s="229">
         <f t="shared" si="18"/>
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L47" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B47,_xll.ohTrigger(C47,InterestRatesTrigger))</f>
-        <v>4.8205479452055697E-3</v>
+        <v>4.7712328765115771E-3</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="33"/>
       <c r="P47" s="45"/>
       <c r="Q47" s="16">
         <f t="shared" si="16"/>
-        <v>4.2655723036569212E-3</v>
+        <v>4.0591546657343224E-3</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E48,F48,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ad#0001</v>
+        <v>obj_003ce#0000</v>
       </c>
       <c r="C48" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B48,OisEngine)</f>
@@ -6743,39 +6742,39 @@
       </c>
       <c r="E48" s="54">
         <f t="shared" si="13"/>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F48" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D48,"mf",TRUE)</f>
-        <v>42108</v>
+        <v>42114</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="33"/>
       <c r="I48" s="45"/>
       <c r="J48" s="32">
         <f t="shared" si="21"/>
-        <v>9.2815871476686386E-3</v>
+        <v>9.0485666352650845E-3</v>
       </c>
       <c r="K48" s="229">
         <f t="shared" si="18"/>
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L48" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B48,_xll.ohTrigger(C48,InterestRatesTrigger))</f>
-        <v>4.9931506849315195E-3</v>
+        <v>4.9561643833526516E-3</v>
       </c>
       <c r="N48" s="36"/>
       <c r="O48" s="33"/>
       <c r="P48" s="45"/>
       <c r="Q48" s="16">
         <f t="shared" si="16"/>
-        <v>4.2884364627371182E-3</v>
+        <v>4.0924022519124321E-3</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E49,F49,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bc#0001</v>
+        <v>obj_003c2#0000</v>
       </c>
       <c r="C49" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B49,OisEngine)</f>
@@ -6786,18 +6785,18 @@
       </c>
       <c r="E49" s="54">
         <f t="shared" si="13"/>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="F49" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D49,"mf",TRUE)</f>
-        <v>42138</v>
+        <v>42143</v>
       </c>
       <c r="G49" s="36"/>
       <c r="H49" s="33"/>
       <c r="I49" s="45"/>
       <c r="J49" s="32">
         <f t="shared" si="21"/>
-        <v>9.5025000000000005E-3</v>
+        <v>9.2513000000000005E-3</v>
       </c>
       <c r="K49" s="229">
         <f t="shared" si="18"/>
@@ -6805,14 +6804,14 @@
       </c>
       <c r="L49" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B49,_xll.ohTrigger(C49,InterestRatesTrigger))</f>
-        <v>5.1904109589040581E-3</v>
+        <v>5.1287671231136558E-3</v>
       </c>
       <c r="N49" s="65"/>
       <c r="O49" s="66"/>
       <c r="P49" s="67"/>
       <c r="Q49" s="14">
         <f t="shared" si="16"/>
-        <v>4.3120890410959425E-3</v>
+        <v>4.1225328768863447E-3</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
@@ -6845,7 +6844,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -6905,15 +6904,15 @@
       </c>
       <c r="E2" s="258" t="str">
         <f>Contribution!D40</f>
-        <v>GBP1YD_SYNTH1Y_Quote#0001</v>
+        <v>GBP1YD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="F2" s="258" t="str">
         <f>_xll.qlDepositRateHelper(,E2,$F$10)</f>
-        <v>obj_00667#0003</v>
+        <v>obj_00398#0000</v>
       </c>
       <c r="G2" s="259">
         <f>_xll.qlRateHelperQuoteValue($F2,InterestRatesTrigger)</f>
-        <v>9.5029999999999993E-3</v>
+        <v>9.2510000000000005E-3</v>
       </c>
       <c r="H2" s="258" t="b">
         <v>1</v>
@@ -6926,11 +6925,11 @@
       </c>
       <c r="K2" s="261">
         <f>_xll.qlRateHelperEarliestDate($F2,InterestRatesTrigger)</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="L2" s="262">
         <f>_xll.qlRateHelperLatestDate($F2,InterestRatesTrigger)</f>
-        <v>42138</v>
+        <v>42143</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -6949,11 +6948,11 @@
       </c>
       <c r="F3" s="283" t="str">
         <f>_xll.qlFraRateHelper(,E3,B3&amp;"M",$F$10)</f>
-        <v>obj_00346#0001</v>
+        <v>obj_0034a#0000</v>
       </c>
       <c r="G3" s="259">
         <f>_xll.qlRateHelperQuoteValue($F3,InterestRatesTrigger)</f>
-        <v>1.685E-2</v>
+        <v>1.6549999999999999E-2</v>
       </c>
       <c r="H3" s="258" t="b">
         <v>1</v>
@@ -6966,11 +6965,11 @@
       </c>
       <c r="K3" s="261">
         <f>_xll.qlRateHelperEarliestDate($F3,InterestRatesTrigger)</f>
-        <v>42138</v>
+        <v>42143</v>
       </c>
       <c r="L3" s="262">
         <f>_xll.qlRateHelperLatestDate($F3,InterestRatesTrigger)</f>
-        <v>42506</v>
+        <v>42509</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -6985,15 +6984,15 @@
       </c>
       <c r="E4" s="247" t="str">
         <f>Swaps1Y!K5</f>
-        <v>GBPSB6L3Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L3Y_S6L12L_Quote#0000</v>
       </c>
       <c r="F4" s="284" t="str">
         <f>_xll.qlSwapRateHelper2(,E4,D4,Calendar,"annual","mf","30/360 (Bond Basis)",$F$10,0,"0D",OisCurve)</f>
-        <v>obj_00664#0001</v>
+        <v>obj_003d9#0000</v>
       </c>
       <c r="G4" s="248">
         <f>_xll.qlRateHelperQuoteValue($F4,InterestRatesTrigger)</f>
-        <v>1.6785000000052657E-2</v>
+        <v>1.648250000001273E-2</v>
       </c>
       <c r="H4" s="247" t="b">
         <v>1</v>
@@ -7006,11 +7005,11 @@
       </c>
       <c r="K4" s="250">
         <f>_xll.qlRateHelperEarliestDate($F4,InterestRatesTrigger)</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="L4" s="251">
         <f>_xll.qlRateHelperLatestDate($F4,InterestRatesTrigger)</f>
-        <v>42870</v>
+        <v>42874</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -7025,15 +7024,15 @@
       </c>
       <c r="E5" s="247" t="str">
         <f>Swaps1Y!K6</f>
-        <v>GBPSB6L4Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L4Y_S6L12L_Quote#0000</v>
       </c>
       <c r="F5" s="284" t="str">
         <f>_xll.qlSwapRateHelper2(,E5,D5,Calendar,"annual","mf","30/360 (Bond Basis)",$F$10,0,"0D",OisCurve)</f>
-        <v>obj_00665#0001</v>
+        <v>obj_003da#0000</v>
       </c>
       <c r="G5" s="248">
         <f>_xll.qlRateHelperQuoteValue($F5,InterestRatesTrigger)</f>
-        <v>1.972000000014627E-2</v>
+        <v>1.9367499999978249E-2</v>
       </c>
       <c r="H5" s="247" t="b">
         <v>1</v>
@@ -7046,11 +7045,11 @@
       </c>
       <c r="K5" s="250">
         <f>_xll.qlRateHelperEarliestDate($F5,InterestRatesTrigger)</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="L5" s="251">
         <f>_xll.qlRateHelperLatestDate($F5,InterestRatesTrigger)</f>
-        <v>43234</v>
+        <v>43241</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -7065,15 +7064,15 @@
       </c>
       <c r="E6" s="207" t="str">
         <f>Swaps1Y!K7</f>
-        <v>GBPSB6L5Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L5Y_S6L12L_Quote#0000</v>
       </c>
       <c r="F6" s="285" t="str">
         <f>_xll.qlSwapRateHelper2(,E6,D6,Calendar,"annual","mf","30/360 (Bond Basis)",$F$10,0,"0D",OisCurve)</f>
-        <v>obj_00666#0001</v>
+        <v>obj_003db#0000</v>
       </c>
       <c r="G6" s="253">
         <f>_xll.qlRateHelperQuoteValue($F6,InterestRatesTrigger)</f>
-        <v>2.199250000037881E-2</v>
+        <v>2.1600000000018552E-2</v>
       </c>
       <c r="H6" s="207" t="b">
         <v>1</v>
@@ -7086,17 +7085,17 @@
       </c>
       <c r="K6" s="255">
         <f>_xll.qlRateHelperEarliestDate($F6,InterestRatesTrigger)</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="L6" s="256">
         <f>_xll.qlRateHelperLatestDate($F6,InterestRatesTrigger)</f>
-        <v>43599</v>
+        <v>43605</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F10" s="263" t="str">
         <f>_xll.qlLibor(,Currency,IborTenor,,,EvaluationDate)</f>
-        <v>obj_00345#0001</v>
+        <v>obj_00349#0000</v>
       </c>
     </row>
   </sheetData>
@@ -7114,9 +7113,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7937,7 +7934,7 @@
       <c r="C2" s="270"/>
       <c r="D2" s="271">
         <f>SettlementDate</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="E2" s="272">
         <f t="array" ref="E2:E127">_xll.qlPiecewiseYieldCurveData(YieldCurve,InterestRatesTrigger)</f>
@@ -7948,265 +7945,265 @@
       </c>
       <c r="G2" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I2)</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="H2" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I2,J2,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0066f#0003</v>
+        <v>obj_003ff#0000</v>
       </c>
       <c r="I2" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F2&amp;"M","mf")</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="J2" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I2)</f>
-        <v>42138</v>
+        <v>42143</v>
       </c>
       <c r="K2" s="272">
         <f>_xll.qlIndexFixing(IborIndex,G2,TRUE,InterestRatesTrigger)</f>
-        <v>9.5030000000000392E-3</v>
+        <v>9.2510000000063375E-3</v>
       </c>
       <c r="L2" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H2,InterestRatesTrigger)</f>
-        <v>5.1904109589040581E-3</v>
+        <v>5.1287671231136558E-3</v>
       </c>
       <c r="M2" s="273">
         <f>K2-L2</f>
-        <v>4.3125890410959811E-3</v>
+        <v>4.1222328768926817E-3</v>
       </c>
       <c r="N2" s="272"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="275" t="str">
         <f>RateHelpersFRA!$F2</f>
-        <v>obj_00667#0003</v>
+        <v>obj_00398#0000</v>
       </c>
       <c r="B3" s="276">
         <f>_xll.qlRateHelperRate($A3,InterestRatesTrigger)</f>
-        <v>9.5029999999999993E-3</v>
+        <v>9.2510000000000005E-3</v>
       </c>
       <c r="C3" s="277">
         <f>_xll.qlRateHelperEarliestDate($A3)</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="D3" s="271">
         <f>_xll.qlRateHelperLatestDate($A3)</f>
-        <v>42138</v>
+        <v>42143</v>
       </c>
       <c r="E3" s="272">
-        <v>0.99058645690007852</v>
+        <v>0.99083379654812709</v>
       </c>
       <c r="F3" s="139">
         <v>12</v>
       </c>
       <c r="G3" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I3)</f>
-        <v>42138</v>
+        <v>42143</v>
       </c>
       <c r="H3" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I3,J3,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00673#0003</v>
+        <v>obj_003f2#0000</v>
       </c>
       <c r="I3" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F3&amp;"M","mf")</f>
-        <v>42138</v>
+        <v>42143</v>
       </c>
       <c r="J3" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I3)</f>
-        <v>42506</v>
+        <v>42509</v>
       </c>
       <c r="K3" s="272">
         <f>_xll.qlIndexFixing(IborIndex,G3,TRUE,InterestRatesTrigger)</f>
-        <v>1.6850000000000025E-2</v>
+        <v>1.6550000000001574E-2</v>
       </c>
       <c r="L3" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H3,InterestRatesTrigger)</f>
-        <v>1.195999962767012E-2</v>
+        <v>1.1667967576357446E-2</v>
       </c>
       <c r="M3" s="273">
         <f>K3-L3</f>
-        <v>4.890000372329905E-3</v>
+        <v>4.8820324236441281E-3</v>
       </c>
       <c r="N3" s="272"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="275" t="str">
         <f>RateHelpersFRA!$F3</f>
-        <v>obj_00346#0001</v>
+        <v>obj_0034a#0000</v>
       </c>
       <c r="B4" s="276">
         <f>_xll.qlRateHelperRate($A4,InterestRatesTrigger)</f>
-        <v>1.685E-2</v>
+        <v>1.6549999999999999E-2</v>
       </c>
       <c r="C4" s="277">
         <f>_xll.qlRateHelperEarliestDate($A4)</f>
-        <v>42138</v>
+        <v>42143</v>
       </c>
       <c r="D4" s="271">
         <f>_xll.qlRateHelperLatestDate($A4)</f>
-        <v>42506</v>
+        <v>42509</v>
       </c>
       <c r="E4" s="272">
-        <v>0.97403900198633375</v>
+        <v>0.97465899671038903</v>
       </c>
       <c r="F4" s="139">
         <v>24</v>
       </c>
       <c r="G4" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I4)</f>
-        <v>42506</v>
+        <v>42509</v>
       </c>
       <c r="H4" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I4,J4,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0066c#0003</v>
+        <v>obj_003f7#0000</v>
       </c>
       <c r="I4" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F4&amp;"M","mf")</f>
-        <v>42506</v>
+        <v>42509</v>
       </c>
       <c r="J4" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I4)</f>
-        <v>42871</v>
+        <v>42874</v>
       </c>
       <c r="K4" s="272">
         <f>_xll.qlIndexFixing(IborIndex,G4,TRUE,InterestRatesTrigger)</f>
-        <v>2.4213837762182777E-2</v>
+        <v>2.38226437939284E-2</v>
       </c>
       <c r="L4" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H4,InterestRatesTrigger)</f>
-        <v>1.908113482261654E-2</v>
+        <v>1.8620345660108645E-2</v>
       </c>
       <c r="M4" s="273">
         <f>K4-L4</f>
-        <v>5.1327029395662367E-3</v>
+        <v>5.2022981338197549E-3</v>
       </c>
       <c r="N4" s="272"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="275" t="str">
         <f>RateHelpersFRA!$F4</f>
-        <v>obj_00664#0001</v>
+        <v>obj_003d9#0000</v>
       </c>
       <c r="B5" s="276">
         <f>_xll.qlRateHelperRate($A5,InterestRatesTrigger)</f>
-        <v>1.6785000000052657E-2</v>
+        <v>1.648250000001273E-2</v>
       </c>
       <c r="C5" s="277">
         <f>_xll.qlRateHelperEarliestDate($A5)</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="D5" s="271">
         <f>_xll.qlRateHelperLatestDate($A5)</f>
-        <v>42870</v>
+        <v>42874</v>
       </c>
       <c r="E5" s="272">
-        <v>0.95108068577722715</v>
+        <v>0.95198030891233654</v>
       </c>
       <c r="F5" s="139">
         <v>36</v>
       </c>
       <c r="G5" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I5)</f>
-        <v>42870</v>
+        <v>42874</v>
       </c>
       <c r="H5" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I5,J5,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00696#0003</v>
+        <v>obj_0040f#0000</v>
       </c>
       <c r="I5" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F5&amp;"M","mf")</f>
-        <v>42870</v>
+        <v>42874</v>
       </c>
       <c r="J5" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I5)</f>
-        <v>43235</v>
+        <v>43241</v>
       </c>
       <c r="K5" s="272">
         <f>_xll.qlIndexFixing(IborIndex,G5,TRUE,InterestRatesTrigger)</f>
-        <v>2.8923938089082224E-2</v>
+        <v>2.8320705942273483E-2</v>
       </c>
       <c r="L5" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H5,InterestRatesTrigger)</f>
-        <v>2.3221058035161092E-2</v>
+        <v>2.2518656839404232E-2</v>
       </c>
       <c r="M5" s="273">
         <f>K5-L5</f>
-        <v>5.7028800539211319E-3</v>
+        <v>5.8020491028692514E-3</v>
       </c>
       <c r="N5" s="272"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="275" t="str">
         <f>RateHelpersFRA!$F5</f>
-        <v>obj_00665#0001</v>
+        <v>obj_003da#0000</v>
       </c>
       <c r="B6" s="276">
         <f>_xll.qlRateHelperRate($A6,InterestRatesTrigger)</f>
-        <v>1.972000000014627E-2</v>
+        <v>1.9367499999978249E-2</v>
       </c>
       <c r="C6" s="277">
         <f>_xll.qlRateHelperEarliestDate($A6)</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="D6" s="271">
         <f>_xll.qlRateHelperLatestDate($A6)</f>
-        <v>43234</v>
+        <v>43241</v>
       </c>
       <c r="E6" s="272">
-        <v>0.92442140649105775</v>
+        <v>0.9256223895175163</v>
       </c>
       <c r="F6" s="139">
         <v>48</v>
       </c>
       <c r="G6" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I6)</f>
-        <v>43234</v>
+        <v>43241</v>
       </c>
       <c r="H6" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I6,J6,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00672#0003</v>
+        <v>obj_003ee#0000</v>
       </c>
       <c r="I6" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F6&amp;"M","mf")</f>
-        <v>43234</v>
+        <v>43241</v>
       </c>
       <c r="J6" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I6)</f>
-        <v>43599</v>
+        <v>43606</v>
       </c>
       <c r="K6" s="272">
         <f>_xll.qlIndexFixing(IborIndex,G6,TRUE,InterestRatesTrigger)</f>
-        <v>3.1603063646774343E-2</v>
+        <v>3.1070317279761284E-2</v>
       </c>
       <c r="L6" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H6,InterestRatesTrigger)</f>
-        <v>2.5415901825326499E-2</v>
+        <v>2.496935359471995E-2</v>
       </c>
       <c r="M6" s="273">
         <f>K6-L6</f>
-        <v>6.1871618214478438E-3</v>
+        <v>6.1009636850413336E-3</v>
       </c>
       <c r="N6" s="272"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="275" t="str">
         <f>RateHelpersFRA!$F6</f>
-        <v>obj_00666#0001</v>
+        <v>obj_003db#0000</v>
       </c>
       <c r="B7" s="276">
         <f>_xll.qlRateHelperRate($A7,InterestRatesTrigger)</f>
-        <v>2.199250000037881E-2</v>
+        <v>2.1600000000018552E-2</v>
       </c>
       <c r="C7" s="277">
         <f>_xll.qlRateHelperEarliestDate($A7)</f>
-        <v>41773</v>
+        <v>41778</v>
       </c>
       <c r="D7" s="271">
         <f>_xll.qlRateHelperLatestDate($A7)</f>
-        <v>43599</v>
+        <v>43605</v>
       </c>
       <c r="E7" s="272">
-        <v>0.89610184291541017</v>
+        <v>0.8978061312588419</v>
       </c>
       <c r="G7" s="274"/>
       <c r="I7" s="274"/>
@@ -8228,31 +8225,31 @@
       </c>
       <c r="G8" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I8)</f>
-        <v>41806</v>
+        <v>41809</v>
       </c>
       <c r="H8" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I8,J8,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00680#0003</v>
+        <v>obj_00411#0000</v>
       </c>
       <c r="I8" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F8&amp;"M","mf")</f>
-        <v>41806</v>
+        <v>41809</v>
       </c>
       <c r="J8" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I8)</f>
-        <v>42171</v>
+        <v>42174</v>
       </c>
       <c r="L8" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H8,InterestRatesTrigger)</f>
-        <v>5.5492794817301348E-3</v>
+        <v>5.4432720254568769E-3</v>
       </c>
       <c r="M8" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I8)</f>
-        <v>4.371754386366414E-3</v>
+        <v>4.1934071594886017E-3</v>
       </c>
       <c r="N8" s="272">
         <f t="shared" ref="N8:N51" si="0">L8+M8</f>
-        <v>9.9210338680965487E-3</v>
+        <v>9.6366791849454778E-3</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -8268,31 +8265,31 @@
       </c>
       <c r="G9" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I9)</f>
-        <v>41834</v>
+        <v>41841</v>
       </c>
       <c r="H9" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I9,J9,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0066e#0003</v>
+        <v>obj_00403#0000</v>
       </c>
       <c r="I9" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F9&amp;"M","mf")</f>
-        <v>41834</v>
+        <v>41841</v>
       </c>
       <c r="J9" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I9)</f>
-        <v>42199</v>
+        <v>42206</v>
       </c>
       <c r="L9" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H9,InterestRatesTrigger)</f>
-        <v>5.9094545367885335E-3</v>
+        <v>5.8401353884298254E-3</v>
       </c>
       <c r="M9" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I9)</f>
-        <v>4.4222224974911264E-3</v>
+        <v>4.2676239665927779E-3</v>
       </c>
       <c r="N9" s="272">
         <f t="shared" si="0"/>
-        <v>1.033167703427966E-2</v>
+        <v>1.0107759355022602E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -8308,31 +8305,31 @@
       </c>
       <c r="G10" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I10)</f>
-        <v>41865</v>
+        <v>41870</v>
       </c>
       <c r="H10" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I10,J10,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0068d#0003</v>
+        <v>obj_003ed#0000</v>
       </c>
       <c r="I10" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F10&amp;"M","mf")</f>
-        <v>41865</v>
+        <v>41870</v>
       </c>
       <c r="J10" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I10)</f>
-        <v>42230</v>
+        <v>42235</v>
       </c>
       <c r="L10" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H10,InterestRatesTrigger)</f>
-        <v>6.3624974371960614E-3</v>
+        <v>6.2540899494843392E-3</v>
       </c>
       <c r="M10" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I10)</f>
-        <v>4.4779862387914291E-3</v>
+        <v>4.3350597691599966E-3</v>
       </c>
       <c r="N10" s="272">
         <f t="shared" si="0"/>
-        <v>1.084048367598749E-2</v>
+        <v>1.0589149718644336E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -8348,31 +8345,31 @@
       </c>
       <c r="G11" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I11)</f>
-        <v>41897</v>
+        <v>41901</v>
       </c>
       <c r="H11" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I11,J11,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00690#0003</v>
+        <v>obj_003f9#0000</v>
       </c>
       <c r="I11" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F11&amp;"M","mf")</f>
-        <v>41897</v>
+        <v>41901</v>
       </c>
       <c r="J11" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I11)</f>
-        <v>42262</v>
+        <v>42268</v>
       </c>
       <c r="L11" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H11,InterestRatesTrigger)</f>
-        <v>6.8811918805030724E-3</v>
+        <v>6.7659872882659426E-3</v>
       </c>
       <c r="M11" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I11)</f>
-        <v>4.5349705527646797E-3</v>
+        <v>4.4067959801204551E-3</v>
       </c>
       <c r="N11" s="272">
         <f t="shared" si="0"/>
-        <v>1.1416162433267752E-2</v>
+        <v>1.1172783268386399E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -8388,31 +8385,31 @@
       </c>
       <c r="G12" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I12)</f>
-        <v>41926</v>
+        <v>41932</v>
       </c>
       <c r="H12" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I12,J12,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00687#0003</v>
+        <v>obj_00409#0000</v>
       </c>
       <c r="I12" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F12&amp;"M","mf")</f>
-        <v>41926</v>
+        <v>41932</v>
       </c>
       <c r="J12" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I12)</f>
-        <v>42291</v>
+        <v>42297</v>
       </c>
       <c r="L12" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H12,InterestRatesTrigger)</f>
-        <v>7.4040329804559738E-3</v>
+        <v>7.2847676937614911E-3</v>
       </c>
       <c r="M12" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I12)</f>
-        <v>4.5856832574012046E-3</v>
+        <v>4.4775881131227362E-3</v>
       </c>
       <c r="N12" s="272">
         <f t="shared" si="0"/>
-        <v>1.1989716237857179E-2</v>
+        <v>1.1762355806884228E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -8428,31 +8425,31 @@
       </c>
       <c r="G13" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I13)</f>
-        <v>41957</v>
+        <v>41962</v>
       </c>
       <c r="H13" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I13,J13,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00688#0003</v>
+        <v>obj_0040e#0000</v>
       </c>
       <c r="I13" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F13&amp;"M","mf")</f>
-        <v>41957</v>
+        <v>41962</v>
       </c>
       <c r="J13" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I13)</f>
-        <v>42324</v>
+        <v>42327</v>
       </c>
       <c r="L13" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H13,InterestRatesTrigger)</f>
-        <v>8.0276730421999024E-3</v>
+        <v>7.8416572490749622E-3</v>
       </c>
       <c r="M13" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I13)</f>
-        <v>4.6384538262901377E-3</v>
+        <v>4.5446061106819199E-3</v>
       </c>
       <c r="N13" s="272">
         <f t="shared" si="0"/>
-        <v>1.266612686849004E-2</v>
+        <v>1.2386263359756882E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -8468,31 +8465,31 @@
       </c>
       <c r="G14" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I14)</f>
-        <v>41988</v>
+        <v>41992</v>
       </c>
       <c r="H14" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I14,J14,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00685#0003</v>
+        <v>obj_003ef#0000</v>
       </c>
       <c r="I14" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F14&amp;"M","mf")</f>
-        <v>41988</v>
+        <v>41992</v>
       </c>
       <c r="J14" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I14)</f>
-        <v>42353</v>
+        <v>42359</v>
       </c>
       <c r="L14" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H14,InterestRatesTrigger)</f>
-        <v>8.6241871808403793E-3</v>
+        <v>8.4495309028442007E-3</v>
       </c>
       <c r="M14" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I14)</f>
-        <v>4.689246202433963E-3</v>
+        <v>4.6095531903951594E-3</v>
       </c>
       <c r="N14" s="272">
         <f t="shared" si="0"/>
-        <v>1.3313433383274342E-2</v>
+        <v>1.3059084093239359E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -8508,31 +8505,31 @@
       </c>
       <c r="G15" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I15)</f>
-        <v>42018</v>
+        <v>42023</v>
       </c>
       <c r="H15" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I15,J15,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00693#0003</v>
+        <v>obj_003f8#0000</v>
       </c>
       <c r="I15" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F15&amp;"M","mf")</f>
-        <v>42018</v>
+        <v>42023</v>
       </c>
       <c r="J15" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I15)</f>
-        <v>42383</v>
+        <v>42388</v>
       </c>
       <c r="L15" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H15,InterestRatesTrigger)</f>
-        <v>9.2684383969428453E-3</v>
+        <v>9.0765957211189872E-3</v>
       </c>
       <c r="M15" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I15)</f>
-        <v>4.7360288937378994E-3</v>
+        <v>4.6738258760362179E-3</v>
       </c>
       <c r="N15" s="272">
         <f t="shared" si="0"/>
-        <v>1.4004467290680745E-2</v>
+        <v>1.3750421597155206E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -8548,31 +8545,31 @@
       </c>
       <c r="G16" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I16)</f>
-        <v>42051</v>
+        <v>42054</v>
       </c>
       <c r="H16" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I16,J16,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00670#0003</v>
+        <v>obj_00410#0000</v>
       </c>
       <c r="I16" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F16&amp;"M","mf")</f>
-        <v>42051</v>
+        <v>42054</v>
       </c>
       <c r="J16" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I16)</f>
-        <v>42416</v>
+        <v>42419</v>
       </c>
       <c r="L16" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H16,InterestRatesTrigger)</f>
-        <v>9.9921680037169548E-3</v>
+        <v>9.7298560243216769E-3</v>
       </c>
       <c r="M16" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I16)</f>
-        <v>4.7842139101654663E-3</v>
+        <v>4.7345051091432847E-3</v>
       </c>
       <c r="N16" s="272">
         <f t="shared" si="0"/>
-        <v>1.4776381913882421E-2</v>
+        <v>1.4464361133464962E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -8588,31 +8585,31 @@
       </c>
       <c r="G17" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I17)</f>
-        <v>42079</v>
+        <v>42082</v>
       </c>
       <c r="H17" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I17,J17,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00683#0003</v>
+        <v>obj_003fc#0000</v>
       </c>
       <c r="I17" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F17&amp;"M","mf")</f>
-        <v>42079</v>
+        <v>42082</v>
       </c>
       <c r="J17" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I17)</f>
-        <v>42445</v>
+        <v>42450</v>
       </c>
       <c r="L17" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H17,InterestRatesTrigger)</f>
-        <v>1.0608196881630052E-2</v>
+        <v>1.0349581775577115E-2</v>
       </c>
       <c r="M17" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I17)</f>
-        <v>4.8219339101102142E-3</v>
+        <v>4.7856108565215161E-3</v>
       </c>
       <c r="N17" s="272">
         <f t="shared" si="0"/>
-        <v>1.5430130791740267E-2</v>
+        <v>1.5135192632098631E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -8628,31 +8625,31 @@
       </c>
       <c r="G18" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I18)</f>
-        <v>42108</v>
+        <v>42114</v>
       </c>
       <c r="H18" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I18,J18,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00681#0003</v>
+        <v>obj_003eb#0000</v>
       </c>
       <c r="I18" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F18&amp;"M","mf")</f>
-        <v>42108</v>
+        <v>42114</v>
       </c>
       <c r="J18" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I18)</f>
-        <v>42474</v>
+        <v>42480</v>
       </c>
       <c r="L18" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H18,InterestRatesTrigger)</f>
-        <v>1.1260378439910308E-2</v>
+        <v>1.1021606665887928E-2</v>
       </c>
       <c r="M18" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I18)</f>
-        <v>4.8574793518467501E-3</v>
+        <v>4.8389798426274732E-3</v>
       </c>
       <c r="N18" s="272">
         <f t="shared" si="0"/>
-        <v>1.6117857791757059E-2</v>
+        <v>1.5860586508515399E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -8668,31 +8665,31 @@
       </c>
       <c r="G19" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I19)</f>
-        <v>42170</v>
+        <v>42174</v>
       </c>
       <c r="H19" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I19,J19,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0066a#0003</v>
+        <v>obj_003f5#0000</v>
       </c>
       <c r="I19" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F19&amp;"M","mf")</f>
-        <v>42170</v>
+        <v>42174</v>
       </c>
       <c r="J19" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I19)</f>
-        <v>42536</v>
+        <v>42541</v>
       </c>
       <c r="L19" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H19,InterestRatesTrigger)</f>
-        <v>1.2648763755564863E-2</v>
+        <v>1.2356706804592502E-2</v>
       </c>
       <c r="M19" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I19)</f>
-        <v>4.9196083521729486E-3</v>
+        <v>4.922006365589998E-3</v>
       </c>
       <c r="N19" s="272">
         <f t="shared" si="0"/>
-        <v>1.756837210773781E-2</v>
+        <v>1.7278713170182501E-2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -8708,31 +8705,31 @@
       </c>
       <c r="G20" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I20)</f>
-        <v>42199</v>
+        <v>42205</v>
       </c>
       <c r="H20" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I20,J20,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0067c#0003</v>
+        <v>obj_003fa#0000</v>
       </c>
       <c r="I20" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F20&amp;"M","mf")</f>
-        <v>42199</v>
+        <v>42205</v>
       </c>
       <c r="J20" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I20)</f>
-        <v>42565</v>
+        <v>42571</v>
       </c>
       <c r="L20" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H20,InterestRatesTrigger)</f>
-        <v>1.3282268926607284E-2</v>
+        <v>1.3006547182189829E-2</v>
       </c>
       <c r="M20" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I20)</f>
-        <v>4.9424311934569342E-3</v>
+        <v>4.9563489573469103E-3</v>
       </c>
       <c r="N20" s="272">
         <f t="shared" si="0"/>
-        <v>1.8224700120064219E-2</v>
+        <v>1.7962896139536739E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -8748,31 +8745,31 @@
       </c>
       <c r="G21" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I21)</f>
-        <v>42230</v>
+        <v>42235</v>
       </c>
       <c r="H21" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I21,J21,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00695#0003</v>
+        <v>obj_0040d#0000</v>
       </c>
       <c r="I21" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F21&amp;"M","mf")</f>
-        <v>42230</v>
+        <v>42235</v>
       </c>
       <c r="J21" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I21)</f>
-        <v>42597</v>
+        <v>42601</v>
       </c>
       <c r="L21" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H21,InterestRatesTrigger)</f>
-        <v>1.3958846586914651E-2</v>
+        <v>1.3632959192627364E-2</v>
       </c>
       <c r="M21" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I21)</f>
-        <v>4.9633963960385224E-3</v>
+        <v>4.9850954219978856E-3</v>
       </c>
       <c r="N21" s="272">
         <f t="shared" si="0"/>
-        <v>1.8922242982953173E-2</v>
+        <v>1.8618054614625248E-2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -8788,31 +8785,31 @@
       </c>
       <c r="G22" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I22)</f>
-        <v>42261</v>
+        <v>42268</v>
       </c>
       <c r="H22" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I22,J22,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00689#0003</v>
+        <v>obj_003f6#0000</v>
       </c>
       <c r="I22" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F22&amp;"M","mf")</f>
-        <v>42261</v>
+        <v>42268</v>
       </c>
       <c r="J22" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I22)</f>
-        <v>42627</v>
+        <v>42634</v>
       </c>
       <c r="L22" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H22,InterestRatesTrigger)</f>
-        <v>1.4602761986217867E-2</v>
+        <v>1.4310491923992327E-2</v>
       </c>
       <c r="M22" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I22)</f>
-        <v>4.9816401681424607E-3</v>
+        <v>5.0126760800920014E-3</v>
       </c>
       <c r="N22" s="272">
         <f t="shared" si="0"/>
-        <v>1.9584402154360327E-2</v>
+        <v>1.9323168004084328E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -8828,31 +8825,31 @@
       </c>
       <c r="G23" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I23)</f>
-        <v>42291</v>
+        <v>42296</v>
       </c>
       <c r="H23" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I23,J23,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0068f#0003</v>
+        <v>obj_0040b#0000</v>
       </c>
       <c r="I23" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F23&amp;"M","mf")</f>
-        <v>42291</v>
+        <v>42296</v>
       </c>
       <c r="J23" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I23)</f>
-        <v>42657</v>
+        <v>42662</v>
       </c>
       <c r="L23" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H23,InterestRatesTrigger)</f>
-        <v>1.522228829011384E-2</v>
+        <v>1.4874241715818094E-2</v>
       </c>
       <c r="M23" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I23)</f>
-        <v>4.9975150764991092E-3</v>
+        <v>5.0336277469698364E-3</v>
       </c>
       <c r="N23" s="272">
         <f t="shared" si="0"/>
-        <v>2.021980336661295E-2</v>
+        <v>1.9907869462787931E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -8868,31 +8865,31 @@
       </c>
       <c r="G24" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I24)</f>
-        <v>42324</v>
+        <v>42327</v>
       </c>
       <c r="H24" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I24,J24,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00675#0003</v>
+        <v>obj_00401#0000</v>
       </c>
       <c r="I24" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F24&amp;"M","mf")</f>
-        <v>42324</v>
+        <v>42327</v>
       </c>
       <c r="J24" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I24)</f>
-        <v>42690</v>
+        <v>42695</v>
       </c>
       <c r="L24" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H24,InterestRatesTrigger)</f>
-        <v>1.5884452987399395E-2</v>
+        <v>1.5502444876161627E-2</v>
       </c>
       <c r="M24" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I24)</f>
-        <v>5.0139121137987288E-3</v>
+        <v>5.0551652971390325E-3</v>
       </c>
       <c r="N24" s="272">
         <f t="shared" si="0"/>
-        <v>2.0898365101198125E-2</v>
+        <v>2.0557610173300659E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -8908,31 +8905,31 @@
       </c>
       <c r="G25" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I25)</f>
-        <v>42352</v>
+        <v>42359</v>
       </c>
       <c r="H25" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I25,J25,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0068c#0003</v>
+        <v>obj_003f1#0000</v>
       </c>
       <c r="I25" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F25&amp;"M","mf")</f>
-        <v>42352</v>
+        <v>42359</v>
       </c>
       <c r="J25" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I25)</f>
-        <v>42718</v>
+        <v>42725</v>
       </c>
       <c r="L25" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H25,InterestRatesTrigger)</f>
-        <v>1.6427831968103726E-2</v>
+        <v>1.6093460116968362E-2</v>
       </c>
       <c r="M25" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I25)</f>
-        <v>5.0277211708877542E-3</v>
+        <v>5.0766422757819781E-3</v>
       </c>
       <c r="N25" s="272">
         <f t="shared" si="0"/>
-        <v>2.145555313899148E-2</v>
+        <v>2.1170102392750342E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -8948,31 +8945,31 @@
       </c>
       <c r="G26" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I26)</f>
-        <v>42383</v>
+        <v>42388</v>
       </c>
       <c r="H26" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I26,J26,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0068a#0003</v>
+        <v>obj_00416#0000</v>
       </c>
       <c r="I26" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F26&amp;"M","mf")</f>
-        <v>42383</v>
+        <v>42388</v>
       </c>
       <c r="J26" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I26)</f>
-        <v>42751</v>
+        <v>42754</v>
       </c>
       <c r="L26" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H26,InterestRatesTrigger)</f>
-        <v>1.7026367152361423E-2</v>
+        <v>1.6627372528239866E-2</v>
       </c>
       <c r="M26" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I26)</f>
-        <v>5.0437445588941802E-3</v>
+        <v>5.0964112205689801E-3</v>
       </c>
       <c r="N26" s="272">
         <f t="shared" si="0"/>
-        <v>2.2070111711255603E-2</v>
+        <v>2.1723783748808845E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -8988,31 +8985,31 @@
       </c>
       <c r="G27" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I27)</f>
-        <v>42415</v>
+        <v>42419</v>
       </c>
       <c r="H27" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I27,J27,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00677#0003</v>
+        <v>obj_00400#0000</v>
       </c>
       <c r="I27" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F27&amp;"M","mf")</f>
-        <v>42415</v>
+        <v>42419</v>
       </c>
       <c r="J27" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I27)</f>
-        <v>42781</v>
+        <v>42786</v>
       </c>
       <c r="L27" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H27,InterestRatesTrigger)</f>
-        <v>1.7584833925914221E-2</v>
+        <v>1.7184786186060848E-2</v>
       </c>
       <c r="M27" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I27)</f>
-        <v>5.0620287946238872E-3</v>
+        <v>5.1188997505142693E-3</v>
       </c>
       <c r="N27" s="272">
         <f t="shared" si="0"/>
-        <v>2.2646862720538109E-2</v>
+        <v>2.2303685936575116E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -9028,31 +9025,31 @@
       </c>
       <c r="G28" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I28)</f>
-        <v>42443</v>
+        <v>42450</v>
       </c>
       <c r="H28" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I28,J28,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00698#0003</v>
+        <v>obj_003fe#0000</v>
       </c>
       <c r="I28" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F28&amp;"M","mf")</f>
-        <v>42443</v>
+        <v>42450</v>
       </c>
       <c r="J28" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I28)</f>
-        <v>42808</v>
+        <v>42815</v>
       </c>
       <c r="L28" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H28,InterestRatesTrigger)</f>
-        <v>1.8060882692690829E-2</v>
+        <v>1.7693798763919522E-2</v>
       </c>
       <c r="M28" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I28)</f>
-        <v>5.0802705360177541E-3</v>
+        <v>5.1438668137441549E-3</v>
       </c>
       <c r="N28" s="272">
         <f t="shared" si="0"/>
-        <v>2.3141153228708584E-2</v>
+        <v>2.2837665577663677E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -9068,31 +9065,31 @@
       </c>
       <c r="G29" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I29)</f>
-        <v>42474</v>
+        <v>42479</v>
       </c>
       <c r="H29" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I29,J29,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00676#0003</v>
+        <v>obj_00404#0000</v>
       </c>
       <c r="I29" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F29&amp;"M","mf")</f>
-        <v>42474</v>
+        <v>42479</v>
       </c>
       <c r="J29" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I29)</f>
-        <v>42843</v>
+        <v>42844</v>
       </c>
       <c r="L29" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H29,InterestRatesTrigger)</f>
-        <v>1.8606358581473931E-2</v>
+        <v>1.8161834301004182E-2</v>
       </c>
       <c r="M29" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I29)</f>
-        <v>5.1037845589405164E-3</v>
+        <v>5.1704624580149097E-3</v>
       </c>
       <c r="N29" s="272">
         <f t="shared" si="0"/>
-        <v>2.3710143140414447E-2</v>
+        <v>2.3332296759019093E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -9108,31 +9105,31 @@
       </c>
       <c r="G30" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I30)</f>
-        <v>42535</v>
+        <v>42541</v>
       </c>
       <c r="H30" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I30,J30,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0066d#0003</v>
+        <v>obj_003f4#0000</v>
       </c>
       <c r="I30" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F30&amp;"M","mf")</f>
-        <v>42535</v>
+        <v>42541</v>
       </c>
       <c r="J30" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I30)</f>
-        <v>42900</v>
+        <v>42906</v>
       </c>
       <c r="L30" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H30,InterestRatesTrigger)</f>
-        <v>1.9517497631413448E-2</v>
+        <v>1.9079425773882112E-2</v>
       </c>
       <c r="M30" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I30)</f>
-        <v>5.1636725423771252E-3</v>
+        <v>5.2419413368748995E-3</v>
       </c>
       <c r="N30" s="272">
         <f t="shared" si="0"/>
-        <v>2.4681170173790574E-2</v>
+        <v>2.4321367110757011E-2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -9148,31 +9145,31 @@
       </c>
       <c r="G31" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I31)</f>
-        <v>42565</v>
+        <v>42570</v>
       </c>
       <c r="H31" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I31,J31,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0066b#0003</v>
+        <v>obj_003f3#0000</v>
       </c>
       <c r="I31" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F31&amp;"M","mf")</f>
-        <v>42565</v>
+        <v>42570</v>
       </c>
       <c r="J31" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I31)</f>
-        <v>42930</v>
+        <v>42935</v>
       </c>
       <c r="L31" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H31,InterestRatesTrigger)</f>
-        <v>1.9947216322249894E-2</v>
+        <v>1.9469925329131863E-2</v>
       </c>
       <c r="M31" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I31)</f>
-        <v>5.2002162510695069E-3</v>
+        <v>5.2825311417213291E-3</v>
       </c>
       <c r="N31" s="272">
         <f t="shared" si="0"/>
-        <v>2.51474325733194E-2</v>
+        <v>2.4752456470853192E-2</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -9188,31 +9185,31 @@
       </c>
       <c r="G32" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I32)</f>
-        <v>42597</v>
+        <v>42601</v>
       </c>
       <c r="H32" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I32,J32,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0069a#0003</v>
+        <v>obj_00415#0000</v>
       </c>
       <c r="I32" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F32&amp;"M","mf")</f>
-        <v>42597</v>
+        <v>42601</v>
       </c>
       <c r="J32" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I32)</f>
-        <v>42962</v>
+        <v>42968</v>
       </c>
       <c r="L32" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H32,InterestRatesTrigger)</f>
-        <v>2.0382026410362283E-2</v>
+        <v>1.987406227344576E-2</v>
       </c>
       <c r="M32" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I32)</f>
-        <v>5.2436580728086879E-3</v>
+        <v>5.3300807614440502E-3</v>
       </c>
       <c r="N32" s="272">
         <f t="shared" si="0"/>
-        <v>2.5625684483170971E-2</v>
+        <v>2.5204143034889812E-2</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -9228,31 +9225,31 @@
       </c>
       <c r="G33" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I33)</f>
-        <v>42627</v>
+        <v>42632</v>
       </c>
       <c r="H33" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I33,J33,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0067e#0003</v>
+        <v>obj_00408#0000</v>
       </c>
       <c r="I33" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F33&amp;"M","mf")</f>
-        <v>42627</v>
+        <v>42632</v>
       </c>
       <c r="J33" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I33)</f>
-        <v>42992</v>
+        <v>42997</v>
       </c>
       <c r="L33" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H33,InterestRatesTrigger)</f>
-        <v>2.0768296953720015E-2</v>
+        <v>2.0230951899547985E-2</v>
       </c>
       <c r="M33" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I33)</f>
-        <v>5.2879998587786279E-3</v>
+        <v>5.3811512159029039E-3</v>
       </c>
       <c r="N33" s="272">
         <f t="shared" si="0"/>
-        <v>2.6056296812498644E-2</v>
+        <v>2.5612103115450889E-2</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -9268,31 +9265,31 @@
       </c>
       <c r="G34" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I34)</f>
-        <v>42657</v>
+        <v>42662</v>
       </c>
       <c r="H34" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I34,J34,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00686#0003</v>
+        <v>obj_003fd#0000</v>
       </c>
       <c r="I34" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F34&amp;"M","mf")</f>
-        <v>42657</v>
+        <v>42662</v>
       </c>
       <c r="J34" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I34)</f>
-        <v>43024</v>
+        <v>43027</v>
       </c>
       <c r="L34" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H34,InterestRatesTrigger)</f>
-        <v>2.1146362291640044E-2</v>
+        <v>2.0566753868175743E-2</v>
       </c>
       <c r="M34" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I34)</f>
-        <v>5.3352768118390508E-3</v>
+        <v>5.4331532140485563E-3</v>
       </c>
       <c r="N34" s="272">
         <f t="shared" si="0"/>
-        <v>2.6481639103479095E-2</v>
+        <v>2.5999907082224299E-2</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -9308,31 +9305,31 @@
       </c>
       <c r="G35" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I35)</f>
-        <v>42688</v>
+        <v>42695</v>
       </c>
       <c r="H35" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I35,J35,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0067f#0003</v>
+        <v>obj_00417#0000</v>
       </c>
       <c r="I35" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F35&amp;"M","mf")</f>
-        <v>42688</v>
+        <v>42695</v>
       </c>
       <c r="J35" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I35)</f>
-        <v>43053</v>
+        <v>43060</v>
       </c>
       <c r="L35" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H35,InterestRatesTrigger)</f>
-        <v>2.1492841861579071E-2</v>
+        <v>2.091457620015235E-2</v>
       </c>
       <c r="M35" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I35)</f>
-        <v>5.3866095175401909E-3</v>
+        <v>5.4923533056613332E-3</v>
       </c>
       <c r="N35" s="272">
         <f t="shared" si="0"/>
-        <v>2.6879451379119262E-2</v>
+        <v>2.6406929505813685E-2</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -9348,31 +9345,31 @@
       </c>
       <c r="G36" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I36)</f>
-        <v>42718</v>
+        <v>42723</v>
       </c>
       <c r="H36" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I36,J36,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00684#0003</v>
+        <v>obj_003fb#0000</v>
       </c>
       <c r="I36" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F36&amp;"M","mf")</f>
-        <v>42718</v>
+        <v>42723</v>
       </c>
       <c r="J36" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I36)</f>
-        <v>43083</v>
+        <v>43088</v>
       </c>
       <c r="L36" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H36,InterestRatesTrigger)</f>
-        <v>2.1820640787639331E-2</v>
+        <v>2.1193708540890518E-2</v>
       </c>
       <c r="M36" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I36)</f>
-        <v>5.4380813017998264E-3</v>
+        <v>5.5434540015098432E-3</v>
       </c>
       <c r="N36" s="272">
         <f t="shared" si="0"/>
-        <v>2.7258722089439157E-2</v>
+        <v>2.6737162542400363E-2</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -9388,31 +9385,31 @@
       </c>
       <c r="G37" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I37)</f>
-        <v>42751</v>
+        <v>42754</v>
       </c>
       <c r="H37" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I37,J37,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00678#0003</v>
+        <v>obj_0040a#0000</v>
       </c>
       <c r="I37" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F37&amp;"M","mf")</f>
-        <v>42751</v>
+        <v>42754</v>
       </c>
       <c r="J37" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I37)</f>
-        <v>43116</v>
+        <v>43119</v>
       </c>
       <c r="L37" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H37,InterestRatesTrigger)</f>
-        <v>2.2160587943465506E-2</v>
+        <v>2.1487493904409797E-2</v>
       </c>
       <c r="M37" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I37)</f>
-        <v>5.4960017631047447E-3</v>
+        <v>5.6000925695832045E-3</v>
       </c>
       <c r="N37" s="272">
         <f t="shared" si="0"/>
-        <v>2.7656589706570249E-2</v>
+        <v>2.7087586473993001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -9428,31 +9425,31 @@
       </c>
       <c r="G38" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I38)</f>
-        <v>42780</v>
+        <v>42786</v>
       </c>
       <c r="H38" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I38,J38,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00674#0003</v>
+        <v>obj_00406#0000</v>
       </c>
       <c r="I38" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F38&amp;"M","mf")</f>
-        <v>42780</v>
+        <v>42786</v>
       </c>
       <c r="J38" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I38)</f>
-        <v>43145</v>
+        <v>43151</v>
       </c>
       <c r="L38" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H38,InterestRatesTrigger)</f>
-        <v>2.2442193651340637E-2</v>
+        <v>2.1775982872366508E-2</v>
       </c>
       <c r="M38" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I38)</f>
-        <v>5.547377540615182E-3</v>
+        <v>5.6576407484781564E-3</v>
       </c>
       <c r="N38" s="272">
         <f t="shared" si="0"/>
-        <v>2.7989571191955817E-2</v>
+        <v>2.7433623620844665E-2</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -9468,31 +9465,31 @@
       </c>
       <c r="G39" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I39)</f>
-        <v>42808</v>
+        <v>42814</v>
       </c>
       <c r="H39" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I39,J39,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00679#0003</v>
+        <v>obj_00402#0000</v>
       </c>
       <c r="I39" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F39&amp;"M","mf")</f>
-        <v>42808</v>
+        <v>42814</v>
       </c>
       <c r="J39" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I39)</f>
-        <v>43173</v>
+        <v>43179</v>
       </c>
       <c r="L39" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H39,InterestRatesTrigger)</f>
-        <v>2.269949397834398E-2</v>
+        <v>2.2017802178236998E-2</v>
       </c>
       <c r="M39" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I39)</f>
-        <v>5.5968179594657009E-3</v>
+        <v>5.7063780023392926E-3</v>
       </c>
       <c r="N39" s="272">
         <f t="shared" si="0"/>
-        <v>2.8296311937809682E-2</v>
+        <v>2.7724180180576291E-2</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -9508,31 +9505,31 @@
       </c>
       <c r="G40" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I40)</f>
-        <v>42843</v>
+        <v>42844</v>
       </c>
       <c r="H40" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I40,J40,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00699#0003</v>
+        <v>obj_0040c#0000</v>
       </c>
       <c r="I40" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F40&amp;"M","mf")</f>
-        <v>42843</v>
+        <v>42844</v>
       </c>
       <c r="J40" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I40)</f>
-        <v>43208</v>
+        <v>43209</v>
       </c>
       <c r="L40" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H40,InterestRatesTrigger)</f>
-        <v>2.3001827157932024E-2</v>
+        <v>2.2267653120487889E-2</v>
       </c>
       <c r="M40" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I40)</f>
-        <v>5.6575313377522449E-3</v>
+        <v>5.7560177171489518E-3</v>
       </c>
       <c r="N40" s="272">
         <f t="shared" si="0"/>
-        <v>2.8659358495684267E-2</v>
+        <v>2.8023670837636842E-2</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -9548,31 +9545,31 @@
       </c>
       <c r="G41" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I41)</f>
-        <v>42900</v>
+        <v>42905</v>
       </c>
       <c r="H41" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I41,J41,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0068e#0003</v>
+        <v>obj_00412#0000</v>
       </c>
       <c r="I41" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F41&amp;"M","mf")</f>
-        <v>42900</v>
+        <v>42905</v>
       </c>
       <c r="J41" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I41)</f>
-        <v>43265</v>
+        <v>43270</v>
       </c>
       <c r="L41" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H41,InterestRatesTrigger)</f>
-        <v>2.345114111159825E-2</v>
+        <v>2.2753238319618112E-2</v>
       </c>
       <c r="M41" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I41)</f>
-        <v>5.7511866836304128E-3</v>
+        <v>5.8450172693548814E-3</v>
       </c>
       <c r="N41" s="272">
         <f t="shared" si="0"/>
-        <v>2.9202327795228661E-2</v>
+        <v>2.8598255588972991E-2</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -9588,31 +9585,31 @@
       </c>
       <c r="G42" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I42)</f>
-        <v>42930</v>
+        <v>42935</v>
       </c>
       <c r="H42" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I42,J42,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0067a#0003</v>
+        <v>obj_003ea#0000</v>
       </c>
       <c r="I42" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F42&amp;"M","mf")</f>
-        <v>42930</v>
+        <v>42935</v>
       </c>
       <c r="J42" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I42)</f>
-        <v>43297</v>
+        <v>43300</v>
       </c>
       <c r="L42" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H42,InterestRatesTrigger)</f>
-        <v>2.3675825704890938E-2</v>
+        <v>2.2982782733852861E-2</v>
       </c>
       <c r="M42" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I42)</f>
-        <v>5.7973343375273927E-3</v>
+        <v>5.8822502300565601E-3</v>
       </c>
       <c r="N42" s="272">
         <f t="shared" si="0"/>
-        <v>2.9473160042418331E-2</v>
+        <v>2.886503296390942E-2</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -9628,31 +9625,31 @@
       </c>
       <c r="G43" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I43)</f>
-        <v>42961</v>
+        <v>42968</v>
       </c>
       <c r="H43" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I43,J43,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0067b#0003</v>
+        <v>obj_003f0#0000</v>
       </c>
       <c r="I43" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F43&amp;"M","mf")</f>
-        <v>42961</v>
+        <v>42968</v>
       </c>
       <c r="J43" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I43)</f>
-        <v>43326</v>
+        <v>43333</v>
       </c>
       <c r="L43" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H43,InterestRatesTrigger)</f>
-        <v>2.3880000358634402E-2</v>
+        <v>2.3228267252559928E-2</v>
       </c>
       <c r="M43" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I43)</f>
-        <v>5.8429370527077473E-3</v>
+        <v>5.9186580483669071E-3</v>
       </c>
       <c r="N43" s="272">
         <f t="shared" si="0"/>
-        <v>2.9722937411342149E-2</v>
+        <v>2.9146925300926836E-2</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -9668,31 +9665,31 @@
       </c>
       <c r="G44" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I44)</f>
-        <v>42992</v>
+        <v>42997</v>
       </c>
       <c r="H44" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I44,J44,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00671#0003</v>
+        <v>obj_00405#0000</v>
       </c>
       <c r="I44" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F44&amp;"M","mf")</f>
-        <v>42992</v>
+        <v>42997</v>
       </c>
       <c r="J44" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I44)</f>
-        <v>43357</v>
+        <v>43362</v>
       </c>
       <c r="L44" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H44,InterestRatesTrigger)</f>
-        <v>2.4080606886806525E-2</v>
+        <v>2.3437883131829314E-2</v>
       </c>
       <c r="M44" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I44)</f>
-        <v>5.8866226296339415E-3</v>
+        <v>5.9470698260031844E-3</v>
       </c>
       <c r="N44" s="272">
         <f t="shared" si="0"/>
-        <v>2.9967229516440465E-2</v>
+        <v>2.93849529578325E-2</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -9708,31 +9705,31 @@
       </c>
       <c r="G45" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I45)</f>
-        <v>43024</v>
+        <v>43027</v>
       </c>
       <c r="H45" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I45,J45,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00692#0003</v>
+        <v>obj_00413#0000</v>
       </c>
       <c r="I45" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F45&amp;"M","mf")</f>
-        <v>43024</v>
+        <v>43027</v>
       </c>
       <c r="J45" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I45)</f>
-        <v>43389</v>
+        <v>43392</v>
       </c>
       <c r="L45" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H45,InterestRatesTrigger)</f>
-        <v>2.4277361823388542E-2</v>
+        <v>2.3648663534994313E-2</v>
       </c>
       <c r="M45" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I45)</f>
-        <v>5.9299313466188511E-3</v>
+        <v>5.9732949461210553E-3</v>
       </c>
       <c r="N45" s="272">
         <f t="shared" si="0"/>
-        <v>3.0207293170007393E-2</v>
+        <v>2.9621958481115367E-2</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -9748,31 +9745,31 @@
       </c>
       <c r="G46" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I46)</f>
-        <v>43053</v>
+        <v>43059</v>
       </c>
       <c r="H46" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I46,J46,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0067d#0003</v>
+        <v>obj_003e9#0000</v>
       </c>
       <c r="I46" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F46&amp;"M","mf")</f>
-        <v>43053</v>
+        <v>43059</v>
       </c>
       <c r="J46" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I46)</f>
-        <v>43418</v>
+        <v>43424</v>
       </c>
       <c r="L46" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H46,InterestRatesTrigger)</f>
-        <v>2.4447873116774439E-2</v>
+        <v>2.3866648478064034E-2</v>
       </c>
       <c r="M46" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I46)</f>
-        <v>5.9678138206373903E-3</v>
+        <v>5.9981341696629551E-3</v>
       </c>
       <c r="N46" s="272">
         <f t="shared" si="0"/>
-        <v>3.041568693741183E-2</v>
+        <v>2.986478264772699E-2</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -9788,31 +9785,31 @@
       </c>
       <c r="G47" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I47)</f>
-        <v>43083</v>
+        <v>43088</v>
       </c>
       <c r="H47" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I47,J47,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00697#0003</v>
+        <v>obj_003ec#0000</v>
       </c>
       <c r="I47" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F47&amp;"M","mf")</f>
-        <v>43083</v>
+        <v>43088</v>
       </c>
       <c r="J47" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I47)</f>
-        <v>43448</v>
+        <v>43453</v>
       </c>
       <c r="L47" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H47,InterestRatesTrigger)</f>
-        <v>2.4617710100324746E-2</v>
+        <v>2.4058046705136771E-2</v>
       </c>
       <c r="M47" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I47)</f>
-        <v>6.0058422780966412E-3</v>
+        <v>6.018230986995215E-3</v>
       </c>
       <c r="N47" s="272">
         <f t="shared" si="0"/>
-        <v>3.0623552378421386E-2</v>
+        <v>3.0076277692131986E-2</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -9828,31 +9825,31 @@
       </c>
       <c r="G48" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I48)</f>
-        <v>43115</v>
+        <v>43119</v>
       </c>
       <c r="H48" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I48,J48,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00691#0003</v>
+        <v>obj_00414#0000</v>
       </c>
       <c r="I48" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F48&amp;"M","mf")</f>
-        <v>43115</v>
+        <v>43119</v>
       </c>
       <c r="J48" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I48)</f>
-        <v>43480</v>
+        <v>43486</v>
       </c>
       <c r="L48" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H48,InterestRatesTrigger)</f>
-        <v>2.4792923458701602E-2</v>
+        <v>2.4263593486456059E-2</v>
       </c>
       <c r="M48" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I48)</f>
-        <v>6.0453446547894581E-3</v>
+        <v>6.0375905881592633E-3</v>
       </c>
       <c r="N48" s="272">
         <f t="shared" si="0"/>
-        <v>3.0838268113491059E-2</v>
+        <v>3.0301184074615323E-2</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -9868,31 +9865,31 @@
       </c>
       <c r="G49" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I49)</f>
-        <v>43145</v>
+        <v>43150</v>
       </c>
       <c r="H49" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I49,J49,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0068b#0003</v>
+        <v>obj_00407#0000</v>
       </c>
       <c r="I49" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F49&amp;"M","mf")</f>
-        <v>43145</v>
+        <v>43150</v>
       </c>
       <c r="J49" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I49)</f>
-        <v>43510</v>
+        <v>43515</v>
       </c>
       <c r="L49" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H49,InterestRatesTrigger)</f>
-        <v>2.495293973228787E-2</v>
+        <v>2.4447431954480014E-2</v>
       </c>
       <c r="M49" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I49)</f>
-        <v>6.0816167846181983E-3</v>
+        <v>6.0551884939692869E-3</v>
       </c>
       <c r="N49" s="272">
         <f t="shared" si="0"/>
-        <v>3.1034556516906068E-2</v>
+        <v>3.05026204484493E-2</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -9908,31 +9905,31 @@
       </c>
       <c r="G50" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I50)</f>
-        <v>43173</v>
+        <v>43178</v>
       </c>
       <c r="H50" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I50,J50,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00682#0003</v>
+        <v>obj_003e7#0000</v>
       </c>
       <c r="I50" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F50&amp;"M","mf")</f>
-        <v>43173</v>
+        <v>43178</v>
       </c>
       <c r="J50" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I50)</f>
-        <v>43538</v>
+        <v>43543</v>
       </c>
       <c r="L50" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H50,InterestRatesTrigger)</f>
-        <v>2.5099716026572509E-2</v>
+        <v>2.4614351022594256E-2</v>
       </c>
       <c r="M50" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I50)</f>
-        <v>6.1150110810554966E-3</v>
+        <v>6.0699424099483461E-3</v>
       </c>
       <c r="N50" s="272">
         <f t="shared" si="0"/>
-        <v>3.1214727107628005E-2</v>
+        <v>3.06842934325426E-2</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -9948,31 +9945,31 @@
       </c>
       <c r="G51" s="274">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I51)</f>
-        <v>43206</v>
+        <v>43209</v>
       </c>
       <c r="H51" s="139" t="str">
         <f>_xll.qlMakeDatedOIS(,I51,J51,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00694#0003</v>
+        <v>obj_003e8#0000</v>
       </c>
       <c r="I51" s="274">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F51&amp;"M","mf")</f>
-        <v>43206</v>
+        <v>43209</v>
       </c>
       <c r="J51" s="274">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I51)</f>
-        <v>43571</v>
+        <v>43578</v>
       </c>
       <c r="L51" s="272">
         <f>_xll.qlOvernightIndexedSwapFairRate(H51,InterestRatesTrigger)</f>
-        <v>2.5270937776004618E-2</v>
+        <v>2.4806372449865131E-2</v>
       </c>
       <c r="M51" s="273">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I51)</f>
-        <v>6.154062626033855E-3</v>
+        <v>6.0854326175722884E-3</v>
       </c>
       <c r="N51" s="272">
         <f t="shared" si="0"/>
-        <v>3.1425000402038474E-2</v>
+        <v>3.0891805067437418E-2</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -10671,7 +10668,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -10711,7 +10708,7 @@
       <c r="N1" s="143"/>
       <c r="O1" s="139">
         <f>_xll.ohTrigger(O3:O84)</f>
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="P1" s="145"/>
     </row>
@@ -10760,7 +10757,7 @@
       </c>
       <c r="D3" s="161" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBPSND_SYNTH1M_Quote#0001</v>
+        <v>GBPSND_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E3" s="172" t="str">
         <f>_xll.ohRangeRetrieveError($D3)</f>
@@ -10774,7 +10771,7 @@
       </c>
       <c r="J3" s="162">
         <f>SynthDepo!G34</f>
-        <v>4.8476796521073227E-3</v>
+        <v>5.3001479590360518E-3</v>
       </c>
       <c r="K3" s="163"/>
       <c r="L3" s="164">
@@ -10783,7 +10780,7 @@
       <c r="M3" s="154"/>
       <c r="N3" s="221">
         <f t="array" ref="N3:N84">QuoteLive</f>
-        <v>4.8476796521073227E-3</v>
+        <v>5.3001479590360518E-3</v>
       </c>
       <c r="O3" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND(N3,6),EvaluationDate)</f>
@@ -10805,7 +10802,7 @@
       </c>
       <c r="D4" s="171" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBPSWD_SYNTH1M_Quote#0001</v>
+        <v>GBPSWD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E4" s="172" t="str">
         <f>_xll.ohRangeRetrieveError($D4)</f>
@@ -10819,7 +10816,7 @@
       </c>
       <c r="J4" s="162">
         <f>SynthDepo!G35</f>
-        <v>4.8516910265929396E-3</v>
+        <v>4.8788535610383875E-3</v>
       </c>
       <c r="K4" s="163"/>
       <c r="L4" s="164">
@@ -10827,7 +10824,7 @@
       </c>
       <c r="M4" s="154"/>
       <c r="N4" s="165">
-        <v>4.8516910265929396E-3</v>
+        <v>4.8788535610383875E-3</v>
       </c>
       <c r="O4" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND(N4,6),EvaluationDate)</f>
@@ -10846,7 +10843,7 @@
       </c>
       <c r="D5" s="171" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP2WD_SYNTH1M_Quote#0001</v>
+        <v>GBP2WD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E5" s="172" t="str">
         <f>_xll.ohRangeRetrieveError($D5)</f>
@@ -10860,7 +10857,7 @@
       </c>
       <c r="J5" s="162">
         <f>SynthDepo!G36</f>
-        <v>4.8562972886551665E-3</v>
+        <v>4.8770395940973422E-3</v>
       </c>
       <c r="K5" s="163"/>
       <c r="L5" s="164">
@@ -10868,7 +10865,7 @@
       </c>
       <c r="M5" s="154"/>
       <c r="N5" s="165">
-        <v>4.8562972886551665E-3</v>
+        <v>4.8770395940973422E-3</v>
       </c>
       <c r="O5" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND(N5,6),EvaluationDate)</f>
@@ -10887,7 +10884,7 @@
       </c>
       <c r="D6" s="171" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP3WD_SYNTH1M_Quote#0001</v>
+        <v>GBP3WD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E6" s="172" t="str">
         <f>_xll.ohRangeRetrieveError($D6)</f>
@@ -10901,7 +10898,7 @@
       </c>
       <c r="J6" s="162">
         <f>SynthDepo!G37</f>
-        <v>4.8609581768724215E-3</v>
+        <v>4.8765731538736303E-3</v>
       </c>
       <c r="K6" s="163"/>
       <c r="L6" s="174">
@@ -10909,7 +10906,7 @@
       </c>
       <c r="M6" s="154"/>
       <c r="N6" s="175">
-        <v>4.8609581768724215E-3</v>
+        <v>4.8765731538736303E-3</v>
       </c>
       <c r="O6" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND(N6,6),EvaluationDate)</f>
@@ -10928,7 +10925,7 @@
       </c>
       <c r="D7" s="178" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP1MD_SYNTH1M_Quote#0001</v>
+        <v>GBP1MD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E7" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D7)</f>
@@ -10942,7 +10939,7 @@
       </c>
       <c r="J7" s="209">
         <f>SynthDepo!G38</f>
-        <v>4.8687999999999995E-3</v>
+        <v>4.8719000000000002E-3</v>
       </c>
       <c r="K7" s="163"/>
       <c r="L7" s="164">
@@ -10950,7 +10947,7 @@
       </c>
       <c r="M7" s="154"/>
       <c r="N7" s="165">
-        <v>4.8687999999999995E-3</v>
+        <v>4.8719000000000002E-3</v>
       </c>
       <c r="O7" s="215">
         <f>_xll.qlSimpleQuoteSetValue(D7,ROUND(N7,6),EvaluationDate)</f>
@@ -10971,7 +10968,7 @@
       </c>
       <c r="D8" s="195" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBPSND_SYNTH3M_Quote#0001</v>
+        <v>GBPSND_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E8" s="213" t="str">
         <f>_xll.ohRangeRetrieveError($D8)</f>
@@ -10985,7 +10982,7 @@
       </c>
       <c r="J8" s="162">
         <f>SynthDepo!H34</f>
-        <v>5.7097187543623355E-3</v>
+        <v>4.5166599480682794E-3</v>
       </c>
       <c r="K8" s="186"/>
       <c r="L8" s="187">
@@ -10993,7 +10990,7 @@
       </c>
       <c r="M8" s="188"/>
       <c r="N8" s="189">
-        <v>5.7097187543623355E-3</v>
+        <v>4.5166599480682794E-3</v>
       </c>
       <c r="O8" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND(N8,6),EvaluationDate)</f>
@@ -11014,7 +11011,7 @@
       </c>
       <c r="D9" s="195" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBPSWD_SYNTH3M_Quote#0001</v>
+        <v>GBPSWD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E9" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D9)</f>
@@ -11028,7 +11025,7 @@
       </c>
       <c r="J9" s="162">
         <f>SynthDepo!H35</f>
-        <v>5.6521110525942012E-3</v>
+        <v>4.2667858188141766E-3</v>
       </c>
       <c r="K9" s="186"/>
       <c r="L9" s="164">
@@ -11036,7 +11033,7 @@
       </c>
       <c r="M9" s="188"/>
       <c r="N9" s="165">
-        <v>5.6521110525942012E-3</v>
+        <v>4.2667858188141766E-3</v>
       </c>
       <c r="O9" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND(N9,6),EvaluationDate)</f>
@@ -11055,7 +11052,7 @@
       </c>
       <c r="D10" s="195" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP2WD_SYNTH3M_Quote#0001</v>
+        <v>GBP2WD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E10" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D10)</f>
@@ -11069,7 +11066,7 @@
       </c>
       <c r="J10" s="162">
         <f>SynthDepo!H36</f>
-        <v>5.5897856148900181E-3</v>
+        <v>4.4013538968201669E-3</v>
       </c>
       <c r="K10" s="186"/>
       <c r="L10" s="164">
@@ -11077,7 +11074,7 @@
       </c>
       <c r="M10" s="188"/>
       <c r="N10" s="165">
-        <v>5.5897856148900181E-3</v>
+        <v>4.4013538968201669E-3</v>
       </c>
       <c r="O10" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND(N10,6),EvaluationDate)</f>
@@ -11096,7 +11093,7 @@
       </c>
       <c r="D11" s="195" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP3WD_SYNTH3M_Quote#0001</v>
+        <v>GBP3WD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E11" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D11)</f>
@@ -11110,7 +11107,7 @@
       </c>
       <c r="J11" s="162">
         <f>SynthDepo!H37</f>
-        <v>5.5328533506804663E-3</v>
+        <v>4.5476919593959771E-3</v>
       </c>
       <c r="K11" s="186"/>
       <c r="L11" s="174">
@@ -11118,7 +11115,7 @@
       </c>
       <c r="M11" s="188"/>
       <c r="N11" s="175">
-        <v>5.5328533506804663E-3</v>
+        <v>4.5476919593959771E-3</v>
       </c>
       <c r="O11" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND(N11,6),EvaluationDate)</f>
@@ -11137,7 +11134,7 @@
       </c>
       <c r="D12" s="195" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP1MD_SYNTH3M_Quote#0001</v>
+        <v>GBP1MD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E12" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D12)</f>
@@ -11151,7 +11148,7 @@
       </c>
       <c r="J12" s="214">
         <f>SynthDepo!H38</f>
-        <v>5.4475272063154515E-3</v>
+        <v>4.729746775398112E-3</v>
       </c>
       <c r="K12" s="186"/>
       <c r="L12" s="164">
@@ -11159,7 +11156,7 @@
       </c>
       <c r="M12" s="188"/>
       <c r="N12" s="165">
-        <v>5.4475272063154515E-3</v>
+        <v>4.729746775398112E-3</v>
       </c>
       <c r="O12" s="216">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND(N12,6),EvaluationDate)</f>
@@ -11178,7 +11175,7 @@
       </c>
       <c r="D13" s="195" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP2MD_SYNTH3M_Quote#0001</v>
+        <v>GBP2MD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E13" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D13)</f>
@@ -11192,7 +11189,7 @@
       </c>
       <c r="J13" s="162">
         <f>SynthDepo!H39</f>
-        <v>5.3095722979951791E-3</v>
+        <v>5.1358237810371545E-3</v>
       </c>
       <c r="K13" s="186"/>
       <c r="L13" s="164">
@@ -11200,7 +11197,7 @@
       </c>
       <c r="M13" s="188"/>
       <c r="N13" s="165">
-        <v>5.3095722979951791E-3</v>
+        <v>5.1358237810371545E-3</v>
       </c>
       <c r="O13" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND(N13,6),EvaluationDate)</f>
@@ -11219,7 +11216,7 @@
       </c>
       <c r="D14" s="195" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP3MD_SYNTH3M_Quote#0001</v>
+        <v>GBP3MD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E14" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D14)</f>
@@ -11233,7 +11230,7 @@
       </c>
       <c r="J14" s="179">
         <f>SynthDepo!H40</f>
-        <v>5.2688000000000006E-3</v>
+        <v>5.2769000000000062E-3</v>
       </c>
       <c r="K14" s="186"/>
       <c r="L14" s="180">
@@ -11241,7 +11238,7 @@
       </c>
       <c r="M14" s="188"/>
       <c r="N14" s="181">
-        <v>5.2688000000000006E-3</v>
+        <v>5.2769000000000062E-3</v>
       </c>
       <c r="O14" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D14,ROUND(N14,6),EvaluationDate)</f>
@@ -11262,7 +11259,7 @@
       </c>
       <c r="D15" s="210" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBPSND_SYNTH6M_Quote#0001</v>
+        <v>GBPSND_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E15" s="213" t="str">
         <f>_xll.ohRangeRetrieveError($D15)</f>
@@ -11276,7 +11273,7 @@
       </c>
       <c r="J15" s="185">
         <f>SynthDepo!I34</f>
-        <v>7.785696332999071E-3</v>
+        <v>7.1135621952957331E-3</v>
       </c>
       <c r="K15" s="186"/>
       <c r="L15" s="187">
@@ -11284,7 +11281,7 @@
       </c>
       <c r="M15" s="188"/>
       <c r="N15" s="189">
-        <v>7.785696332999071E-3</v>
+        <v>7.1135621952957331E-3</v>
       </c>
       <c r="O15" s="190">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND(N15,6),EvaluationDate)</f>
@@ -11305,7 +11302,7 @@
       </c>
       <c r="D16" s="195" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBPSWD_SYNTH6M_Quote#0001</v>
+        <v>GBPSWD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E16" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D16)</f>
@@ -11319,7 +11316,7 @@
       </c>
       <c r="J16" s="162">
         <f>SynthDepo!I35</f>
-        <v>7.6884595474930144E-3</v>
+        <v>6.6517954807969442E-3</v>
       </c>
       <c r="K16" s="186"/>
       <c r="L16" s="164">
@@ -11327,7 +11324,7 @@
       </c>
       <c r="M16" s="188"/>
       <c r="N16" s="165">
-        <v>7.6884595474930144E-3</v>
+        <v>6.6517954807969442E-3</v>
       </c>
       <c r="O16" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND(N16,6),EvaluationDate)</f>
@@ -11346,7 +11343,7 @@
       </c>
       <c r="D17" s="195" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP2WD_SYNTH6M_Quote#0001</v>
+        <v>GBP2WD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E17" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D17)</f>
@@ -11360,7 +11357,7 @@
       </c>
       <c r="J17" s="162">
         <f>SynthDepo!I36</f>
-        <v>7.5790846091464137E-3</v>
+        <v>6.6167112884179761E-3</v>
       </c>
       <c r="K17" s="186"/>
       <c r="L17" s="164">
@@ -11368,7 +11365,7 @@
       </c>
       <c r="M17" s="188"/>
       <c r="N17" s="165">
-        <v>7.5790846091464137E-3</v>
+        <v>6.6167112884179761E-3</v>
       </c>
       <c r="O17" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND(N17,6),EvaluationDate)</f>
@@ -11387,7 +11384,7 @@
       </c>
       <c r="D18" s="195" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP3WD_SYNTH6M_Quote#0001</v>
+        <v>GBP3WD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E18" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D18)</f>
@@ -11401,7 +11398,7 @@
       </c>
       <c r="J18" s="162">
         <f>SynthDepo!I37</f>
-        <v>7.4742245385553858E-3</v>
+        <v>6.5790866386735668E-3</v>
       </c>
       <c r="K18" s="186"/>
       <c r="L18" s="164">
@@ -11409,7 +11406,7 @@
       </c>
       <c r="M18" s="188"/>
       <c r="N18" s="165">
-        <v>7.4742245385553858E-3</v>
+        <v>6.5790866386735668E-3</v>
       </c>
       <c r="O18" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND(N18,6),EvaluationDate)</f>
@@ -11428,7 +11425,7 @@
       </c>
       <c r="D19" s="195" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP1MD_SYNTH6M_Quote#0001</v>
+        <v>GBP1MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E19" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D19)</f>
@@ -11442,7 +11439,7 @@
       </c>
       <c r="J19" s="162">
         <f>SynthDepo!I38</f>
-        <v>7.3046930352047247E-3</v>
+        <v>6.5244259227740641E-3</v>
       </c>
       <c r="K19" s="186"/>
       <c r="L19" s="164">
@@ -11450,7 +11447,7 @@
       </c>
       <c r="M19" s="188"/>
       <c r="N19" s="165">
-        <v>7.3046930352047247E-3</v>
+        <v>6.5244259227740641E-3</v>
       </c>
       <c r="O19" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND(N19,6),EvaluationDate)</f>
@@ -11469,7 +11466,7 @@
       </c>
       <c r="D20" s="195" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP2MD_SYNTH6M_Quote#0001</v>
+        <v>GBP2MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E20" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D20)</f>
@@ -11483,7 +11480,7 @@
       </c>
       <c r="J20" s="162">
         <f>SynthDepo!I39</f>
-        <v>6.9602211760429796E-3</v>
+        <v>6.3792645956162221E-3</v>
       </c>
       <c r="K20" s="186"/>
       <c r="L20" s="164">
@@ -11491,7 +11488,7 @@
       </c>
       <c r="M20" s="188"/>
       <c r="N20" s="165">
-        <v>6.9602211760429796E-3</v>
+        <v>6.3792645956162221E-3</v>
       </c>
       <c r="O20" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND(N20,6),EvaluationDate)</f>
@@ -11510,7 +11507,7 @@
       </c>
       <c r="D21" s="195" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP3MD_SYNTH6M_Quote#0001</v>
+        <v>GBP3MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E21" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D21)</f>
@@ -11524,7 +11521,7 @@
       </c>
       <c r="J21" s="162">
         <f>SynthDepo!I40</f>
-        <v>6.6744130580167925E-3</v>
+        <v>6.2922533018740893E-3</v>
       </c>
       <c r="K21" s="186"/>
       <c r="L21" s="164">
@@ -11532,7 +11529,7 @@
       </c>
       <c r="M21" s="188"/>
       <c r="N21" s="165">
-        <v>6.6744130580167925E-3</v>
+        <v>6.2922533018740893E-3</v>
       </c>
       <c r="O21" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND(N21,6),EvaluationDate)</f>
@@ -11551,7 +11548,7 @@
       </c>
       <c r="D22" s="195" t="str">
         <f>_xll.qlSimpleQuote(C22,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP4MD_SYNTH6M_Quote#0001</v>
+        <v>GBP4MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E22" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D22)</f>
@@ -11565,7 +11562,7 @@
       </c>
       <c r="J22" s="162">
         <f>SynthDepo!I41</f>
-        <v>6.4953987017520743E-3</v>
+        <v>6.2445891812322862E-3</v>
       </c>
       <c r="K22" s="186"/>
       <c r="L22" s="164">
@@ -11573,7 +11570,7 @@
       </c>
       <c r="M22" s="188"/>
       <c r="N22" s="165">
-        <v>6.4953987017520743E-3</v>
+        <v>6.2445891812322862E-3</v>
       </c>
       <c r="O22" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND(N22,6),EvaluationDate)</f>
@@ -11592,7 +11589,7 @@
       </c>
       <c r="D23" s="195" t="str">
         <f>_xll.qlSimpleQuote(C23,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP5MD_SYNTH6M_Quote#0001</v>
+        <v>GBP5MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E23" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D23)</f>
@@ -11606,7 +11603,7 @@
       </c>
       <c r="J23" s="162">
         <f>SynthDepo!I42</f>
-        <v>6.4048175490428573E-3</v>
+        <v>6.2442522541520705E-3</v>
       </c>
       <c r="K23" s="186"/>
       <c r="L23" s="164">
@@ -11614,7 +11611,7 @@
       </c>
       <c r="M23" s="188"/>
       <c r="N23" s="165">
-        <v>6.4048175490428573E-3</v>
+        <v>6.2442522541520705E-3</v>
       </c>
       <c r="O23" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND(N23,6),EvaluationDate)</f>
@@ -11633,7 +11630,7 @@
       </c>
       <c r="D24" s="178" t="str">
         <f>_xll.qlSimpleQuote(C24,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP6MD_SYNTH6M_Quote#0001</v>
+        <v>GBP6MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E24" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D24)</f>
@@ -11647,7 +11644,7 @@
       </c>
       <c r="J24" s="179">
         <f>SynthDepo!I43</f>
-        <v>6.4156000000000022E-3</v>
+        <v>6.3031000000000007E-3</v>
       </c>
       <c r="K24" s="186"/>
       <c r="L24" s="180">
@@ -11655,7 +11652,7 @@
       </c>
       <c r="M24" s="188"/>
       <c r="N24" s="181">
-        <v>6.4156000000000022E-3</v>
+        <v>6.3031000000000007E-3</v>
       </c>
       <c r="O24" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND(N24,6),EvaluationDate)</f>
@@ -11676,7 +11673,7 @@
       </c>
       <c r="D25" s="210" t="str">
         <f>_xll.qlSimpleQuote(C25,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBPSND_SYNTH1Y_Quote#0001</v>
+        <v>GBPSND_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E25" s="213" t="str">
         <f>_xll.ohRangeRetrieveError($D25)</f>
@@ -11690,7 +11687,7 @@
       </c>
       <c r="J25" s="185">
         <f>SynthDepo!J34</f>
-        <v>8.1921645615051775E-3</v>
+        <v>8.3306429539902593E-3</v>
       </c>
       <c r="K25" s="186"/>
       <c r="L25" s="187">
@@ -11698,7 +11695,7 @@
       </c>
       <c r="M25" s="188"/>
       <c r="N25" s="189">
-        <v>8.1921645615051775E-3</v>
+        <v>8.3306429539902593E-3</v>
       </c>
       <c r="O25" s="190">
         <f>_xll.qlSimpleQuoteSetValue(D25,ROUND(N25,6),EvaluationDate)</f>
@@ -11719,7 +11716,7 @@
       </c>
       <c r="D26" s="195" t="str">
         <f>_xll.qlSimpleQuote(C26,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBPSWD_SYNTH1Y_Quote#0001</v>
+        <v>GBPSWD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E26" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D26)</f>
@@ -11733,7 +11730,7 @@
       </c>
       <c r="J26" s="162">
         <f>SynthDepo!J35</f>
-        <v>8.1969582270280048E-3</v>
+        <v>7.9187377698009577E-3</v>
       </c>
       <c r="K26" s="186"/>
       <c r="L26" s="164">
@@ -11741,7 +11738,7 @@
       </c>
       <c r="M26" s="188"/>
       <c r="N26" s="165">
-        <v>8.1969582270280048E-3</v>
+        <v>7.9187377698009577E-3</v>
       </c>
       <c r="O26" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D26,ROUND(N26,6),EvaluationDate)</f>
@@ -11760,7 +11757,7 @@
       </c>
       <c r="D27" s="195" t="str">
         <f>_xll.qlSimpleQuote(C27,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP2WD_SYNTH1Y_Quote#0001</v>
+        <v>GBP2WD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E27" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D27)</f>
@@ -11774,7 +11771,7 @@
       </c>
       <c r="J27" s="162">
         <f>SynthDepo!J36</f>
-        <v>8.2024771619669777E-3</v>
+        <v>7.9249717004099378E-3</v>
       </c>
       <c r="K27" s="186"/>
       <c r="L27" s="164">
@@ -11782,7 +11779,7 @@
       </c>
       <c r="M27" s="188"/>
       <c r="N27" s="165">
-        <v>8.2024771619669777E-3</v>
+        <v>7.9249717004099378E-3</v>
       </c>
       <c r="O27" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D27,ROUND(N27,6),EvaluationDate)</f>
@@ -11801,7 +11798,7 @@
       </c>
       <c r="D28" s="195" t="str">
         <f>_xll.qlSimpleQuote(C28,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP3WD_SYNTH1Y_Quote#0001</v>
+        <v>GBP3WD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E28" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D28)</f>
@@ -11815,7 +11812,7 @@
       </c>
       <c r="J28" s="162">
         <f>SynthDepo!J37</f>
-        <v>8.2080507230609789E-3</v>
+        <v>7.9338944739945887E-3</v>
       </c>
       <c r="K28" s="186"/>
       <c r="L28" s="164">
@@ -11823,7 +11820,7 @@
       </c>
       <c r="M28" s="188"/>
       <c r="N28" s="165">
-        <v>8.2080507230609789E-3</v>
+        <v>7.9338944739945887E-3</v>
       </c>
       <c r="O28" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D28,ROUND(N28,6),EvaluationDate)</f>
@@ -11842,7 +11839,7 @@
       </c>
       <c r="D29" s="195" t="str">
         <f>_xll.qlSimpleQuote(C29,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP1MD_SYNTH1Y_Quote#0001</v>
+        <v>GBP1MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E29" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D29)</f>
@@ -11856,7 +11853,7 @@
       </c>
       <c r="J29" s="162">
         <f>SynthDepo!J38</f>
-        <v>8.2174571282629776E-3</v>
+        <v>7.9426344827043353E-3</v>
       </c>
       <c r="K29" s="186"/>
       <c r="L29" s="174">
@@ -11864,7 +11861,7 @@
       </c>
       <c r="M29" s="188"/>
       <c r="N29" s="175">
-        <v>8.2174571282629776E-3</v>
+        <v>7.9426344827043353E-3</v>
       </c>
       <c r="O29" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D29,ROUND(N29,6),EvaluationDate)</f>
@@ -11883,7 +11880,7 @@
       </c>
       <c r="D30" s="195" t="str">
         <f>_xll.qlSimpleQuote(C30,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP2MD_SYNTH1Y_Quote#0001</v>
+        <v>GBP2MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E30" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D30)</f>
@@ -11897,7 +11894,7 @@
       </c>
       <c r="J30" s="214">
         <f>SynthDepo!J39</f>
-        <v>8.2395328660036012E-3</v>
+        <v>7.975882068902174E-3</v>
       </c>
       <c r="K30" s="186"/>
       <c r="L30" s="164">
@@ -11905,7 +11902,7 @@
       </c>
       <c r="M30" s="188"/>
       <c r="N30" s="165">
-        <v>8.2395328660036012E-3</v>
+        <v>7.975882068902174E-3</v>
       </c>
       <c r="O30" s="216">
         <f>_xll.qlSimpleQuoteSetValue(D30,ROUND(N30,6),EvaluationDate)</f>
@@ -11924,7 +11921,7 @@
       </c>
       <c r="D31" s="195" t="str">
         <f>_xll.qlSimpleQuote(C31,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP3MD_SYNTH1Y_Quote#0001</v>
+        <v>GBP3MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E31" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D31)</f>
@@ -11938,7 +11935,7 @@
       </c>
       <c r="J31" s="162">
         <f>SynthDepo!J40</f>
-        <v>8.2763026293703849E-3</v>
+        <v>8.0183414614140441E-3</v>
       </c>
       <c r="K31" s="186"/>
       <c r="L31" s="164">
@@ -11946,7 +11943,7 @@
       </c>
       <c r="M31" s="188"/>
       <c r="N31" s="165">
-        <v>8.2763026293703849E-3</v>
+        <v>8.0183414614140441E-3</v>
       </c>
       <c r="O31" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D31,ROUND(N31,6),EvaluationDate)</f>
@@ -11965,7 +11962,7 @@
       </c>
       <c r="D32" s="195" t="str">
         <f>_xll.qlSimpleQuote(C32,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP4MD_SYNTH1Y_Quote#0001</v>
+        <v>GBP4MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E32" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D32)</f>
@@ -11979,7 +11976,7 @@
       </c>
       <c r="J32" s="162">
         <f>SynthDepo!J41</f>
-        <v>8.3385183511111745E-3</v>
+        <v>8.075207594906552E-3</v>
       </c>
       <c r="K32" s="186"/>
       <c r="L32" s="164">
@@ -11987,7 +11984,7 @@
       </c>
       <c r="M32" s="188"/>
       <c r="N32" s="165">
-        <v>8.3385183511111745E-3</v>
+        <v>8.075207594906552E-3</v>
       </c>
       <c r="O32" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D32,ROUND(N32,6),EvaluationDate)</f>
@@ -12006,7 +12003,7 @@
       </c>
       <c r="D33" s="195" t="str">
         <f>_xll.qlSimpleQuote(C33,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP5MD_SYNTH1Y_Quote#0001</v>
+        <v>GBP5MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E33" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D33)</f>
@@ -12020,7 +12017,7 @@
       </c>
       <c r="J33" s="162">
         <f>SynthDepo!J42</f>
-        <v>8.3860400444376836E-3</v>
+        <v>8.1444024954970239E-3</v>
       </c>
       <c r="K33" s="186"/>
       <c r="L33" s="164">
@@ -12028,7 +12025,7 @@
       </c>
       <c r="M33" s="188"/>
       <c r="N33" s="165">
-        <v>8.3860400444376836E-3</v>
+        <v>8.1444024954970239E-3</v>
       </c>
       <c r="O33" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D33,ROUND(N33,6),EvaluationDate)</f>
@@ -12047,7 +12044,7 @@
       </c>
       <c r="D34" s="195" t="str">
         <f>_xll.qlSimpleQuote(C34,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP6MD_SYNTH1Y_Quote#0001</v>
+        <v>GBP6MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E34" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D34)</f>
@@ -12061,7 +12058,7 @@
       </c>
       <c r="J34" s="162">
         <f>SynthDepo!J43</f>
-        <v>8.4597961105683604E-3</v>
+        <v>8.2372159432383234E-3</v>
       </c>
       <c r="K34" s="186"/>
       <c r="L34" s="164">
@@ -12069,7 +12066,7 @@
       </c>
       <c r="M34" s="188"/>
       <c r="N34" s="165">
-        <v>8.4597961105683604E-3</v>
+        <v>8.2372159432383234E-3</v>
       </c>
       <c r="O34" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D34,ROUND(N34,6),EvaluationDate)</f>
@@ -12088,7 +12085,7 @@
       </c>
       <c r="D35" s="195" t="str">
         <f>_xll.qlSimpleQuote(C35,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP7MD_SYNTH1Y_Quote#0001</v>
+        <v>GBP7MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E35" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D35)</f>
@@ -12102,7 +12099,7 @@
       </c>
       <c r="J35" s="162">
         <f>SynthDepo!J44</f>
-        <v>8.5951960123157381E-3</v>
+        <v>8.3546869251934844E-3</v>
       </c>
       <c r="K35" s="186"/>
       <c r="L35" s="164">
@@ -12110,7 +12107,7 @@
       </c>
       <c r="M35" s="188"/>
       <c r="N35" s="165">
-        <v>8.5951960123157381E-3</v>
+        <v>8.3546869251934844E-3</v>
       </c>
       <c r="O35" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D35,ROUND(N35,6),EvaluationDate)</f>
@@ -12129,7 +12126,7 @@
       </c>
       <c r="D36" s="195" t="str">
         <f>_xll.qlSimpleQuote(C36,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP8MD_SYNTH1Y_Quote#0001</v>
+        <v>GBP8MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E36" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D36)</f>
@@ -12143,7 +12140,7 @@
       </c>
       <c r="J36" s="162">
         <f>SynthDepo!J45</f>
-        <v>8.7174787276605992E-3</v>
+        <v>8.4731968941954613E-3</v>
       </c>
       <c r="K36" s="186"/>
       <c r="L36" s="164">
@@ -12151,7 +12148,7 @@
       </c>
       <c r="M36" s="188"/>
       <c r="N36" s="165">
-        <v>8.7174787276605992E-3</v>
+        <v>8.4731968941954613E-3</v>
       </c>
       <c r="O36" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D36,ROUND(N36,6),EvaluationDate)</f>
@@ -12170,7 +12167,7 @@
       </c>
       <c r="D37" s="195" t="str">
         <f>_xll.qlSimpleQuote(C37,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP9MD_SYNTH1Y_Quote#0001</v>
+        <v>GBP9MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E37" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D37)</f>
@@ -12184,7 +12181,7 @@
       </c>
       <c r="J37" s="162">
         <f>SynthDepo!J46</f>
-        <v>8.891441769334759E-3</v>
+        <v>8.641021931692576E-3</v>
       </c>
       <c r="K37" s="186"/>
       <c r="L37" s="164">
@@ -12192,7 +12189,7 @@
       </c>
       <c r="M37" s="188"/>
       <c r="N37" s="165">
-        <v>8.891441769334759E-3</v>
+        <v>8.641021931692576E-3</v>
       </c>
       <c r="O37" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D37,ROUND(N37,6),EvaluationDate)</f>
@@ -12211,7 +12208,7 @@
       </c>
       <c r="D38" s="195" t="str">
         <f>_xll.qlSimpleQuote(C38,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP10MD_SYNTH1Y_Quote#0001</v>
+        <v>GBP10MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E38" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D38)</f>
@@ -12225,7 +12222,7 @@
       </c>
       <c r="J38" s="162">
         <f>SynthDepo!J47</f>
-        <v>9.086120248862491E-3</v>
+        <v>8.8303875422458995E-3</v>
       </c>
       <c r="K38" s="186"/>
       <c r="L38" s="164">
@@ -12233,7 +12230,7 @@
       </c>
       <c r="M38" s="188"/>
       <c r="N38" s="165">
-        <v>9.086120248862491E-3</v>
+        <v>8.8303875422458995E-3</v>
       </c>
       <c r="O38" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D38,ROUND(N38,6),EvaluationDate)</f>
@@ -12252,7 +12249,7 @@
       </c>
       <c r="D39" s="195" t="str">
         <f>_xll.qlSimpleQuote(C39,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP11MD_SYNTH1Y_Quote#0001</v>
+        <v>GBP11MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E39" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D39)</f>
@@ -12266,7 +12263,7 @@
       </c>
       <c r="J39" s="162">
         <f>SynthDepo!J48</f>
-        <v>9.2815871476686386E-3</v>
+        <v>9.0485666352650845E-3</v>
       </c>
       <c r="K39" s="186"/>
       <c r="L39" s="164">
@@ -12274,7 +12271,7 @@
       </c>
       <c r="M39" s="188"/>
       <c r="N39" s="165">
-        <v>9.2815871476686386E-3</v>
+        <v>9.0485666352650845E-3</v>
       </c>
       <c r="O39" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D39,ROUND(N39,6),EvaluationDate)</f>
@@ -12293,7 +12290,7 @@
       </c>
       <c r="D40" s="195" t="str">
         <f>_xll.qlSimpleQuote(C40,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>GBP1YD_SYNTH1Y_Quote#0001</v>
+        <v>GBP1YD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E40" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D40)</f>
@@ -12307,7 +12304,7 @@
       </c>
       <c r="J40" s="294">
         <f>SynthDepo!J49</f>
-        <v>9.5025000000000005E-3</v>
+        <v>9.2513000000000005E-3</v>
       </c>
       <c r="K40" s="186"/>
       <c r="L40" s="164">
@@ -12315,7 +12312,7 @@
       </c>
       <c r="M40" s="188"/>
       <c r="N40" s="165">
-        <v>9.5025000000000005E-3</v>
+        <v>9.2513000000000005E-3</v>
       </c>
       <c r="O40" s="166">
         <f>_xll.qlSimpleQuoteSetValue(D40,ROUND(N40,6),EvaluationDate)</f>
@@ -12337,7 +12334,7 @@
       </c>
       <c r="D41" s="210" t="str">
         <f>_xll.qlSimpleQuote(C41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1x13F_SYNTH1Y_Quote#0001</v>
+        <v>GBP1x13F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E41" s="213" t="str">
         <f>_xll.ohRangeRetrieveError($D41)</f>
@@ -12352,7 +12349,7 @@
       </c>
       <c r="J41" s="298">
         <f>SynthFRA!N8</f>
-        <v>9.9210338680965487E-3</v>
+        <v>9.6366791849454778E-3</v>
       </c>
       <c r="K41" s="286"/>
       <c r="L41" s="299">
@@ -12360,7 +12357,7 @@
       </c>
       <c r="M41" s="288"/>
       <c r="N41" s="300">
-        <v>9.9210338680965487E-3</v>
+        <v>9.6366791849454778E-3</v>
       </c>
       <c r="O41" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D41,ROUND(N41,6),EvaluationDate)</f>
@@ -12382,7 +12379,7 @@
       </c>
       <c r="D42" s="195" t="str">
         <f>_xll.qlSimpleQuote(C42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP2x14F_SYNTH1Y_Quote#0001</v>
+        <v>GBP2x14F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E42" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D42)</f>
@@ -12397,7 +12394,7 @@
       </c>
       <c r="J42" s="294">
         <f>SynthFRA!N9</f>
-        <v>1.033167703427966E-2</v>
+        <v>1.0107759355022602E-2</v>
       </c>
       <c r="K42" s="293"/>
       <c r="L42" s="295">
@@ -12405,7 +12402,7 @@
       </c>
       <c r="M42" s="291"/>
       <c r="N42" s="296">
-        <v>1.033167703427966E-2</v>
+        <v>1.0107759355022602E-2</v>
       </c>
       <c r="O42" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D42,ROUND(N42,6),EvaluationDate)</f>
@@ -12427,7 +12424,7 @@
       </c>
       <c r="D43" s="195" t="str">
         <f>_xll.qlSimpleQuote(C43,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3x15F_SYNTH1Y_Quote#0001</v>
+        <v>GBP3x15F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E43" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D43)</f>
@@ -12442,7 +12439,7 @@
       </c>
       <c r="J43" s="294">
         <f>SynthFRA!N10</f>
-        <v>1.084048367598749E-2</v>
+        <v>1.0589149718644336E-2</v>
       </c>
       <c r="K43" s="293"/>
       <c r="L43" s="295">
@@ -12450,11 +12447,11 @@
       </c>
       <c r="M43" s="291"/>
       <c r="N43" s="296">
-        <v>1.084048367598749E-2</v>
+        <v>1.0589149718644336E-2</v>
       </c>
       <c r="O43" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D43,ROUND(N43,6),EvaluationDate)</f>
-        <v>-9.9999999999926537E-7</v>
+        <v>0</v>
       </c>
       <c r="P43" s="303"/>
     </row>
@@ -12472,7 +12469,7 @@
       </c>
       <c r="D44" s="195" t="str">
         <f>_xll.qlSimpleQuote(C44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP4x16F_SYNTH1Y_Quote#0001</v>
+        <v>GBP4x16F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E44" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D44)</f>
@@ -12487,7 +12484,7 @@
       </c>
       <c r="J44" s="294">
         <f>SynthFRA!N11</f>
-        <v>1.1416162433267752E-2</v>
+        <v>1.1172783268386399E-2</v>
       </c>
       <c r="K44" s="293"/>
       <c r="L44" s="295">
@@ -12495,7 +12492,7 @@
       </c>
       <c r="M44" s="291"/>
       <c r="N44" s="296">
-        <v>1.1416162433267752E-2</v>
+        <v>1.1172783268386399E-2</v>
       </c>
       <c r="O44" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D44,ROUND(N44,6),EvaluationDate)</f>
@@ -12517,7 +12514,7 @@
       </c>
       <c r="D45" s="195" t="str">
         <f>_xll.qlSimpleQuote(C45,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP5x17F_SYNTH1Y_Quote#0001</v>
+        <v>GBP5x17F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E45" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D45)</f>
@@ -12532,7 +12529,7 @@
       </c>
       <c r="J45" s="294">
         <f>SynthFRA!N12</f>
-        <v>1.1989716237857179E-2</v>
+        <v>1.1762355806884228E-2</v>
       </c>
       <c r="K45" s="293"/>
       <c r="L45" s="295">
@@ -12540,7 +12537,7 @@
       </c>
       <c r="M45" s="291"/>
       <c r="N45" s="296">
-        <v>1.1989716237857179E-2</v>
+        <v>1.1762355806884228E-2</v>
       </c>
       <c r="O45" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D45,ROUND(N45,6),EvaluationDate)</f>
@@ -12562,7 +12559,7 @@
       </c>
       <c r="D46" s="195" t="str">
         <f>_xll.qlSimpleQuote(C46,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6x18F_SYNTH1Y_Quote#0001</v>
+        <v>GBP6x18F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E46" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D46)</f>
@@ -12577,7 +12574,7 @@
       </c>
       <c r="J46" s="294">
         <f>SynthFRA!N13</f>
-        <v>1.266612686849004E-2</v>
+        <v>1.2386263359756882E-2</v>
       </c>
       <c r="K46" s="293"/>
       <c r="L46" s="295">
@@ -12585,7 +12582,7 @@
       </c>
       <c r="M46" s="291"/>
       <c r="N46" s="296">
-        <v>1.266612686849004E-2</v>
+        <v>1.2386263359756882E-2</v>
       </c>
       <c r="O46" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D46,ROUND(N46,6),EvaluationDate)</f>
@@ -12607,7 +12604,7 @@
       </c>
       <c r="D47" s="195" t="str">
         <f>_xll.qlSimpleQuote(C47,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP7x19F_SYNTH1Y_Quote#0001</v>
+        <v>GBP7x19F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E47" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D47)</f>
@@ -12622,7 +12619,7 @@
       </c>
       <c r="J47" s="294">
         <f>SynthFRA!N14</f>
-        <v>1.3313433383274342E-2</v>
+        <v>1.3059084093239359E-2</v>
       </c>
       <c r="K47" s="293"/>
       <c r="L47" s="295">
@@ -12630,11 +12627,11 @@
       </c>
       <c r="M47" s="291"/>
       <c r="N47" s="296">
-        <v>1.3313433383274342E-2</v>
+        <v>1.3059084093239359E-2</v>
       </c>
       <c r="O47" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D47,ROUND(N47,6),EvaluationDate)</f>
-        <v>-9.9999999999926537E-7</v>
+        <v>0</v>
       </c>
       <c r="P47" s="303"/>
     </row>
@@ -12652,7 +12649,7 @@
       </c>
       <c r="D48" s="195" t="str">
         <f>_xll.qlSimpleQuote(C48,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP8x20F_SYNTH1Y_Quote#0001</v>
+        <v>GBP8x20F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E48" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D48)</f>
@@ -12667,7 +12664,7 @@
       </c>
       <c r="J48" s="294">
         <f>SynthFRA!N15</f>
-        <v>1.4004467290680745E-2</v>
+        <v>1.3750421597155206E-2</v>
       </c>
       <c r="K48" s="293"/>
       <c r="L48" s="295">
@@ -12675,11 +12672,11 @@
       </c>
       <c r="M48" s="291"/>
       <c r="N48" s="296">
-        <v>1.4004467290680745E-2</v>
+        <v>1.3750421597155206E-2</v>
       </c>
       <c r="O48" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D48,ROUND(N48,6),EvaluationDate)</f>
-        <v>-9.9999999999926537E-7</v>
+        <v>0</v>
       </c>
       <c r="P48" s="303"/>
     </row>
@@ -12697,7 +12694,7 @@
       </c>
       <c r="D49" s="195" t="str">
         <f>_xll.qlSimpleQuote(C49,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP9x21F_SYNTH1Y_Quote#0001</v>
+        <v>GBP9x21F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E49" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D49)</f>
@@ -12712,7 +12709,7 @@
       </c>
       <c r="J49" s="294">
         <f>SynthFRA!N16</f>
-        <v>1.4776381913882421E-2</v>
+        <v>1.4464361133464962E-2</v>
       </c>
       <c r="K49" s="293"/>
       <c r="L49" s="295">
@@ -12720,11 +12717,11 @@
       </c>
       <c r="M49" s="291"/>
       <c r="N49" s="296">
-        <v>1.4776381913882421E-2</v>
+        <v>1.4464361133464962E-2</v>
       </c>
       <c r="O49" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D49,ROUND(N49,6),EvaluationDate)</f>
-        <v>-1.0000000000010001E-6</v>
+        <v>0</v>
       </c>
       <c r="P49" s="303"/>
     </row>
@@ -12742,7 +12739,7 @@
       </c>
       <c r="D50" s="195" t="str">
         <f>_xll.qlSimpleQuote(C50,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP10x22F_SYNTH1Y_Quote#0001</v>
+        <v>GBP10x22F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E50" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D50)</f>
@@ -12757,7 +12754,7 @@
       </c>
       <c r="J50" s="294">
         <f>SynthFRA!N17</f>
-        <v>1.5430130791740267E-2</v>
+        <v>1.5135192632098631E-2</v>
       </c>
       <c r="K50" s="293"/>
       <c r="L50" s="295">
@@ -12765,7 +12762,7 @@
       </c>
       <c r="M50" s="291"/>
       <c r="N50" s="296">
-        <v>1.5430130791740267E-2</v>
+        <v>1.5135192632098631E-2</v>
       </c>
       <c r="O50" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D50,ROUND(N50,6),EvaluationDate)</f>
@@ -12787,7 +12784,7 @@
       </c>
       <c r="D51" s="195" t="str">
         <f>_xll.qlSimpleQuote(C51,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP11x23F_SYNTH1Y_Quote#0001</v>
+        <v>GBP11x23F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E51" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D51)</f>
@@ -12802,7 +12799,7 @@
       </c>
       <c r="J51" s="294">
         <f>SynthFRA!N18</f>
-        <v>1.6117857791757059E-2</v>
+        <v>1.5860586508515399E-2</v>
       </c>
       <c r="K51" s="293"/>
       <c r="L51" s="295">
@@ -12810,11 +12807,11 @@
       </c>
       <c r="M51" s="291"/>
       <c r="N51" s="296">
-        <v>1.6117857791757059E-2</v>
+        <v>1.5860586508515399E-2</v>
       </c>
       <c r="O51" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D51,ROUND(N51,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.0000000000010001E-6</v>
       </c>
       <c r="P51" s="303"/>
     </row>
@@ -12832,7 +12829,7 @@
       </c>
       <c r="D52" s="195" t="str">
         <f>_xll.qlSimpleQuote(C52,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP13x25F_SYNTH1Y_Quote#0001</v>
+        <v>GBP13x25F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E52" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D52)</f>
@@ -12847,7 +12844,7 @@
       </c>
       <c r="J52" s="294">
         <f>SynthFRA!N19</f>
-        <v>1.756837210773781E-2</v>
+        <v>1.7278713170182501E-2</v>
       </c>
       <c r="K52" s="293"/>
       <c r="L52" s="295">
@@ -12855,7 +12852,7 @@
       </c>
       <c r="M52" s="291"/>
       <c r="N52" s="296">
-        <v>1.756837210773781E-2</v>
+        <v>1.7278713170182501E-2</v>
       </c>
       <c r="O52" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D52,ROUND(N52,6),EvaluationDate)</f>
@@ -12877,7 +12874,7 @@
       </c>
       <c r="D53" s="195" t="str">
         <f>_xll.qlSimpleQuote(C53,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP14x26F_SYNTH1Y_Quote#0001</v>
+        <v>GBP14x26F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E53" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D53)</f>
@@ -12892,7 +12889,7 @@
       </c>
       <c r="J53" s="294">
         <f>SynthFRA!N20</f>
-        <v>1.8224700120064219E-2</v>
+        <v>1.7962896139536739E-2</v>
       </c>
       <c r="K53" s="293"/>
       <c r="L53" s="295">
@@ -12900,7 +12897,7 @@
       </c>
       <c r="M53" s="291"/>
       <c r="N53" s="296">
-        <v>1.8224700120064219E-2</v>
+        <v>1.7962896139536739E-2</v>
       </c>
       <c r="O53" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D53,ROUND(N53,6),EvaluationDate)</f>
@@ -12922,7 +12919,7 @@
       </c>
       <c r="D54" s="195" t="str">
         <f>_xll.qlSimpleQuote(C54,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP15x27F_SYNTH1Y_Quote#0001</v>
+        <v>GBP15x27F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E54" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D54)</f>
@@ -12937,7 +12934,7 @@
       </c>
       <c r="J54" s="294">
         <f>SynthFRA!N21</f>
-        <v>1.8922242982953173E-2</v>
+        <v>1.8618054614625248E-2</v>
       </c>
       <c r="K54" s="293"/>
       <c r="L54" s="295">
@@ -12945,11 +12942,11 @@
       </c>
       <c r="M54" s="291"/>
       <c r="N54" s="296">
-        <v>1.8922242982953173E-2</v>
+        <v>1.8618054614625248E-2</v>
       </c>
       <c r="O54" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D54,ROUND(N54,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-1.0000000000010001E-6</v>
       </c>
       <c r="P54" s="303"/>
     </row>
@@ -12967,7 +12964,7 @@
       </c>
       <c r="D55" s="195" t="str">
         <f>_xll.qlSimpleQuote(C55,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP16x28F_SYNTH1Y_Quote#0001</v>
+        <v>GBP16x28F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E55" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D55)</f>
@@ -12982,7 +12979,7 @@
       </c>
       <c r="J55" s="294">
         <f>SynthFRA!N22</f>
-        <v>1.9584402154360327E-2</v>
+        <v>1.9323168004084328E-2</v>
       </c>
       <c r="K55" s="293"/>
       <c r="L55" s="295">
@@ -12990,7 +12987,7 @@
       </c>
       <c r="M55" s="291"/>
       <c r="N55" s="296">
-        <v>1.9584402154360327E-2</v>
+        <v>1.9323168004084328E-2</v>
       </c>
       <c r="O55" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D55,ROUND(N55,6),EvaluationDate)</f>
@@ -13012,7 +13009,7 @@
       </c>
       <c r="D56" s="195" t="str">
         <f>_xll.qlSimpleQuote(C56,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP17x29F_SYNTH1Y_Quote#0001</v>
+        <v>GBP17x29F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E56" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D56)</f>
@@ -13027,7 +13024,7 @@
       </c>
       <c r="J56" s="294">
         <f>SynthFRA!N23</f>
-        <v>2.021980336661295E-2</v>
+        <v>1.9907869462787931E-2</v>
       </c>
       <c r="K56" s="293"/>
       <c r="L56" s="295">
@@ -13035,11 +13032,11 @@
       </c>
       <c r="M56" s="291"/>
       <c r="N56" s="296">
-        <v>2.021980336661295E-2</v>
+        <v>1.9907869462787931E-2</v>
       </c>
       <c r="O56" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D56,ROUND(N56,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-1.0000000000010001E-6</v>
       </c>
       <c r="P56" s="303"/>
     </row>
@@ -13057,7 +13054,7 @@
       </c>
       <c r="D57" s="195" t="str">
         <f>_xll.qlSimpleQuote(C57,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP18x30F_SYNTH1Y_Quote#0001</v>
+        <v>GBP18x30F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E57" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D57)</f>
@@ -13072,7 +13069,7 @@
       </c>
       <c r="J57" s="294">
         <f>SynthFRA!N24</f>
-        <v>2.0898365101198125E-2</v>
+        <v>2.0557610173300659E-2</v>
       </c>
       <c r="K57" s="293"/>
       <c r="L57" s="295">
@@ -13080,11 +13077,11 @@
       </c>
       <c r="M57" s="291"/>
       <c r="N57" s="296">
-        <v>2.0898365101198125E-2</v>
+        <v>2.0557610173300659E-2</v>
       </c>
       <c r="O57" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D57,ROUND(N57,6),EvaluationDate)</f>
-        <v>-1.0000000000010001E-6</v>
+        <v>0</v>
       </c>
       <c r="P57" s="303"/>
     </row>
@@ -13102,7 +13099,7 @@
       </c>
       <c r="D58" s="195" t="str">
         <f>_xll.qlSimpleQuote(C58,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP19x31F_SYNTH1Y_Quote#0001</v>
+        <v>GBP19x31F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E58" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D58)</f>
@@ -13117,7 +13114,7 @@
       </c>
       <c r="J58" s="294">
         <f>SynthFRA!N25</f>
-        <v>2.145555313899148E-2</v>
+        <v>2.1170102392750342E-2</v>
       </c>
       <c r="K58" s="293"/>
       <c r="L58" s="295">
@@ -13125,11 +13122,11 @@
       </c>
       <c r="M58" s="291"/>
       <c r="N58" s="296">
-        <v>2.145555313899148E-2</v>
+        <v>2.1170102392750342E-2</v>
       </c>
       <c r="O58" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D58,ROUND(N58,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-9.9999999999753064E-7</v>
       </c>
       <c r="P58" s="303"/>
     </row>
@@ -13147,7 +13144,7 @@
       </c>
       <c r="D59" s="195" t="str">
         <f>_xll.qlSimpleQuote(C59,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP20x32F_SYNTH1Y_Quote#0001</v>
+        <v>GBP20x32F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E59" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D59)</f>
@@ -13162,7 +13159,7 @@
       </c>
       <c r="J59" s="294">
         <f>SynthFRA!N26</f>
-        <v>2.2070111711255603E-2</v>
+        <v>2.1723783748808845E-2</v>
       </c>
       <c r="K59" s="293"/>
       <c r="L59" s="295">
@@ -13170,7 +13167,7 @@
       </c>
       <c r="M59" s="291"/>
       <c r="N59" s="296">
-        <v>2.2070111711255603E-2</v>
+        <v>2.1723783748808845E-2</v>
       </c>
       <c r="O59" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D59,ROUND(N59,6),EvaluationDate)</f>
@@ -13192,7 +13189,7 @@
       </c>
       <c r="D60" s="195" t="str">
         <f>_xll.qlSimpleQuote(C60,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP21x33F_SYNTH1Y_Quote#0001</v>
+        <v>GBP21x33F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E60" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D60)</f>
@@ -13207,7 +13204,7 @@
       </c>
       <c r="J60" s="294">
         <f>SynthFRA!N27</f>
-        <v>2.2646862720538109E-2</v>
+        <v>2.2303685936575116E-2</v>
       </c>
       <c r="K60" s="293"/>
       <c r="L60" s="295">
@@ -13215,11 +13212,11 @@
       </c>
       <c r="M60" s="291"/>
       <c r="N60" s="296">
-        <v>2.2646862720538109E-2</v>
+        <v>2.2303685936575116E-2</v>
       </c>
       <c r="O60" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D60,ROUND(N60,6),EvaluationDate)</f>
-        <v>-1.0000000000010001E-6</v>
+        <v>-9.9999999999753064E-7</v>
       </c>
       <c r="P60" s="303"/>
     </row>
@@ -13237,7 +13234,7 @@
       </c>
       <c r="D61" s="195" t="str">
         <f>_xll.qlSimpleQuote(C61,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP22x34F_SYNTH1Y_Quote#0001</v>
+        <v>GBP22x34F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E61" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D61)</f>
@@ -13252,7 +13249,7 @@
       </c>
       <c r="J61" s="294">
         <f>SynthFRA!N28</f>
-        <v>2.3141153228708584E-2</v>
+        <v>2.2837665577663677E-2</v>
       </c>
       <c r="K61" s="293"/>
       <c r="L61" s="295">
@@ -13260,11 +13257,11 @@
       </c>
       <c r="M61" s="291"/>
       <c r="N61" s="296">
-        <v>2.3141153228708584E-2</v>
+        <v>2.2837665577663677E-2</v>
       </c>
       <c r="O61" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D61,ROUND(N61,6),EvaluationDate)</f>
-        <v>-1.0000000000010001E-6</v>
+        <v>0</v>
       </c>
       <c r="P61" s="303"/>
     </row>
@@ -13282,7 +13279,7 @@
       </c>
       <c r="D62" s="195" t="str">
         <f>_xll.qlSimpleQuote(C62,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP23x35F_SYNTH1Y_Quote#0001</v>
+        <v>GBP23x35F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E62" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D62)</f>
@@ -13297,7 +13294,7 @@
       </c>
       <c r="J62" s="294">
         <f>SynthFRA!N29</f>
-        <v>2.3710143140414447E-2</v>
+        <v>2.3332296759019093E-2</v>
       </c>
       <c r="K62" s="293"/>
       <c r="L62" s="295">
@@ -13305,11 +13302,11 @@
       </c>
       <c r="M62" s="291"/>
       <c r="N62" s="296">
-        <v>2.3710143140414447E-2</v>
+        <v>2.3332296759019093E-2</v>
       </c>
       <c r="O62" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D62,ROUND(N62,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-1.0000000000010001E-6</v>
       </c>
       <c r="P62" s="303"/>
     </row>
@@ -13327,7 +13324,7 @@
       </c>
       <c r="D63" s="195" t="str">
         <f>_xll.qlSimpleQuote(C63,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP25x37F_SYNTH1Y_Quote#0001</v>
+        <v>GBP25x37F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E63" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D63)</f>
@@ -13342,7 +13339,7 @@
       </c>
       <c r="J63" s="294">
         <f>SynthFRA!N30</f>
-        <v>2.4681170173790574E-2</v>
+        <v>2.4321367110757011E-2</v>
       </c>
       <c r="K63" s="293"/>
       <c r="L63" s="295">
@@ -13350,7 +13347,7 @@
       </c>
       <c r="M63" s="291"/>
       <c r="N63" s="296">
-        <v>2.4681170173790574E-2</v>
+        <v>2.4321367110757011E-2</v>
       </c>
       <c r="O63" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D63,ROUND(N63,6),EvaluationDate)</f>
@@ -13372,7 +13369,7 @@
       </c>
       <c r="D64" s="195" t="str">
         <f>_xll.qlSimpleQuote(C64,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP26x38F_SYNTH1Y_Quote#0001</v>
+        <v>GBP26x38F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E64" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D64)</f>
@@ -13387,7 +13384,7 @@
       </c>
       <c r="J64" s="294">
         <f>SynthFRA!N31</f>
-        <v>2.51474325733194E-2</v>
+        <v>2.4752456470853192E-2</v>
       </c>
       <c r="K64" s="293"/>
       <c r="L64" s="295">
@@ -13395,11 +13392,11 @@
       </c>
       <c r="M64" s="291"/>
       <c r="N64" s="296">
-        <v>2.51474325733194E-2</v>
+        <v>2.4752456470853192E-2</v>
       </c>
       <c r="O64" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D64,ROUND(N64,6),EvaluationDate)</f>
-        <v>9.9999999999753064E-7</v>
+        <v>1.0000000000010001E-6</v>
       </c>
       <c r="P64" s="303"/>
     </row>
@@ -13417,7 +13414,7 @@
       </c>
       <c r="D65" s="195" t="str">
         <f>_xll.qlSimpleQuote(C65,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP27x39F_SYNTH1Y_Quote#0001</v>
+        <v>GBP27x39F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E65" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D65)</f>
@@ -13432,7 +13429,7 @@
       </c>
       <c r="J65" s="294">
         <f>SynthFRA!N32</f>
-        <v>2.5625684483170971E-2</v>
+        <v>2.5204143034889812E-2</v>
       </c>
       <c r="K65" s="293"/>
       <c r="L65" s="295">
@@ -13440,11 +13437,11 @@
       </c>
       <c r="M65" s="291"/>
       <c r="N65" s="296">
-        <v>2.5625684483170971E-2</v>
+        <v>2.5204143034889812E-2</v>
       </c>
       <c r="O65" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D65,ROUND(N65,6),EvaluationDate)</f>
-        <v>1.9999999999985307E-6</v>
+        <v>2.0000000000020002E-6</v>
       </c>
       <c r="P65" s="303"/>
     </row>
@@ -13462,7 +13459,7 @@
       </c>
       <c r="D66" s="195" t="str">
         <f>_xll.qlSimpleQuote(C66,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP28x40F_SYNTH1Y_Quote#0001</v>
+        <v>GBP28x40F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E66" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D66)</f>
@@ -13477,7 +13474,7 @@
       </c>
       <c r="J66" s="294">
         <f>SynthFRA!N33</f>
-        <v>2.6056296812498644E-2</v>
+        <v>2.5612103115450889E-2</v>
       </c>
       <c r="K66" s="293"/>
       <c r="L66" s="295">
@@ -13485,7 +13482,7 @@
       </c>
       <c r="M66" s="291"/>
       <c r="N66" s="296">
-        <v>2.6056296812498644E-2</v>
+        <v>2.5612103115450889E-2</v>
       </c>
       <c r="O66" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D66,ROUND(N66,6),EvaluationDate)</f>
@@ -13507,7 +13504,7 @@
       </c>
       <c r="D67" s="195" t="str">
         <f>_xll.qlSimpleQuote(C67,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP29x41F_SYNTH1Y_Quote#0001</v>
+        <v>GBP29x41F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E67" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D67)</f>
@@ -13522,7 +13519,7 @@
       </c>
       <c r="J67" s="294">
         <f>SynthFRA!N34</f>
-        <v>2.6481639103479095E-2</v>
+        <v>2.5999907082224299E-2</v>
       </c>
       <c r="K67" s="293"/>
       <c r="L67" s="295">
@@ -13530,11 +13527,11 @@
       </c>
       <c r="M67" s="291"/>
       <c r="N67" s="296">
-        <v>2.6481639103479095E-2</v>
+        <v>2.5999907082224299E-2</v>
       </c>
       <c r="O67" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D67,ROUND(N67,6),EvaluationDate)</f>
-        <v>3.9999999999970615E-6</v>
+        <v>2.9999999999995308E-6</v>
       </c>
       <c r="P67" s="303"/>
     </row>
@@ -13552,7 +13549,7 @@
       </c>
       <c r="D68" s="195" t="str">
         <f>_xll.qlSimpleQuote(C68,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP30x42F_SYNTH1Y_Quote#0001</v>
+        <v>GBP30x42F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E68" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D68)</f>
@@ -13567,7 +13564,7 @@
       </c>
       <c r="J68" s="294">
         <f>SynthFRA!N35</f>
-        <v>2.6879451379119262E-2</v>
+        <v>2.6406929505813685E-2</v>
       </c>
       <c r="K68" s="293"/>
       <c r="L68" s="295">
@@ -13575,11 +13572,11 @@
       </c>
       <c r="M68" s="291"/>
       <c r="N68" s="296">
-        <v>2.6879451379119262E-2</v>
+        <v>2.6406929505813685E-2</v>
       </c>
       <c r="O68" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D68,ROUND(N68,6),EvaluationDate)</f>
-        <v>2.9999999999995308E-6</v>
+        <v>4.0000000000005309E-6</v>
       </c>
       <c r="P68" s="303"/>
     </row>
@@ -13597,7 +13594,7 @@
       </c>
       <c r="D69" s="195" t="str">
         <f>_xll.qlSimpleQuote(C69,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP31x43F_SYNTH1Y_Quote#0001</v>
+        <v>GBP31x43F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E69" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D69)</f>
@@ -13612,7 +13609,7 @@
       </c>
       <c r="J69" s="294">
         <f>SynthFRA!N36</f>
-        <v>2.7258722089439157E-2</v>
+        <v>2.6737162542400363E-2</v>
       </c>
       <c r="K69" s="293"/>
       <c r="L69" s="295">
@@ -13620,11 +13617,11 @@
       </c>
       <c r="M69" s="291"/>
       <c r="N69" s="296">
-        <v>2.7258722089439157E-2</v>
+        <v>2.6737162542400363E-2</v>
       </c>
       <c r="O69" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D69,ROUND(N69,6),EvaluationDate)</f>
-        <v>3.9999999999970615E-6</v>
+        <v>4.0000000000005309E-6</v>
       </c>
       <c r="P69" s="303"/>
     </row>
@@ -13642,7 +13639,7 @@
       </c>
       <c r="D70" s="195" t="str">
         <f>_xll.qlSimpleQuote(C70,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP32x44F_SYNTH1Y_Quote#0001</v>
+        <v>GBP32x44F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E70" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D70)</f>
@@ -13657,7 +13654,7 @@
       </c>
       <c r="J70" s="294">
         <f>SynthFRA!N37</f>
-        <v>2.7656589706570249E-2</v>
+        <v>2.7087586473993001E-2</v>
       </c>
       <c r="K70" s="293"/>
       <c r="L70" s="295">
@@ -13665,7 +13662,7 @@
       </c>
       <c r="M70" s="291"/>
       <c r="N70" s="296">
-        <v>2.7656589706570249E-2</v>
+        <v>2.7087586473993001E-2</v>
       </c>
       <c r="O70" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D70,ROUND(N70,6),EvaluationDate)</f>
@@ -13687,7 +13684,7 @@
       </c>
       <c r="D71" s="195" t="str">
         <f>_xll.qlSimpleQuote(C71,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP33x45F_SYNTH1Y_Quote#0001</v>
+        <v>GBP33x45F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E71" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D71)</f>
@@ -13702,7 +13699,7 @@
       </c>
       <c r="J71" s="294">
         <f>SynthFRA!N38</f>
-        <v>2.7989571191955817E-2</v>
+        <v>2.7433623620844665E-2</v>
       </c>
       <c r="K71" s="293"/>
       <c r="L71" s="295">
@@ -13710,7 +13707,7 @@
       </c>
       <c r="M71" s="291"/>
       <c r="N71" s="296">
-        <v>2.7989571191955817E-2</v>
+        <v>2.7433623620844665E-2</v>
       </c>
       <c r="O71" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D71,ROUND(N71,6),EvaluationDate)</f>
@@ -13732,7 +13729,7 @@
       </c>
       <c r="D72" s="195" t="str">
         <f>_xll.qlSimpleQuote(C72,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP34x46F_SYNTH1Y_Quote#0001</v>
+        <v>GBP34x46F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E72" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D72)</f>
@@ -13747,7 +13744,7 @@
       </c>
       <c r="J72" s="294">
         <f>SynthFRA!N39</f>
-        <v>2.8296311937809682E-2</v>
+        <v>2.7724180180576291E-2</v>
       </c>
       <c r="K72" s="293"/>
       <c r="L72" s="295">
@@ -13755,11 +13752,11 @@
       </c>
       <c r="M72" s="291"/>
       <c r="N72" s="296">
-        <v>2.8296311937809682E-2</v>
+        <v>2.7724180180576291E-2</v>
       </c>
       <c r="O72" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D72,ROUND(N72,6),EvaluationDate)</f>
-        <v>3.0000000000030003E-6</v>
+        <v>2.9999999999995308E-6</v>
       </c>
       <c r="P72" s="303"/>
     </row>
@@ -13777,7 +13774,7 @@
       </c>
       <c r="D73" s="195" t="str">
         <f>_xll.qlSimpleQuote(C73,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP35x47F_SYNTH1Y_Quote#0001</v>
+        <v>GBP35x47F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E73" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D73)</f>
@@ -13792,7 +13789,7 @@
       </c>
       <c r="J73" s="294">
         <f>SynthFRA!N40</f>
-        <v>2.8659358495684267E-2</v>
+        <v>2.8023670837636842E-2</v>
       </c>
       <c r="K73" s="293"/>
       <c r="L73" s="295">
@@ -13800,11 +13797,11 @@
       </c>
       <c r="M73" s="291"/>
       <c r="N73" s="296">
-        <v>2.8659358495684267E-2</v>
+        <v>2.8023670837636842E-2</v>
       </c>
       <c r="O73" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D73,ROUND(N73,6),EvaluationDate)</f>
-        <v>1.0000000000010001E-6</v>
+        <v>2.0000000000020002E-6</v>
       </c>
       <c r="P73" s="303"/>
     </row>
@@ -13822,7 +13819,7 @@
       </c>
       <c r="D74" s="195" t="str">
         <f>_xll.qlSimpleQuote(C74,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP37x49F_SYNTH1Y_Quote#0001</v>
+        <v>GBP37x49F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E74" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D74)</f>
@@ -13837,7 +13834,7 @@
       </c>
       <c r="J74" s="294">
         <f>SynthFRA!N41</f>
-        <v>2.9202327795228661E-2</v>
+        <v>2.8598255588972991E-2</v>
       </c>
       <c r="K74" s="293"/>
       <c r="L74" s="295">
@@ -13845,11 +13842,11 @@
       </c>
       <c r="M74" s="291"/>
       <c r="N74" s="296">
-        <v>2.9202327795228661E-2</v>
+        <v>2.8598255588972991E-2</v>
       </c>
       <c r="O74" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D74,ROUND(N74,6),EvaluationDate)</f>
-        <v>-2.9999999999995308E-6</v>
+        <v>-2.0000000000020002E-6</v>
       </c>
       <c r="P74" s="303"/>
     </row>
@@ -13867,7 +13864,7 @@
       </c>
       <c r="D75" s="195" t="str">
         <f>_xll.qlSimpleQuote(C75,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP38x50F_SYNTH1Y_Quote#0001</v>
+        <v>GBP38x50F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E75" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D75)</f>
@@ -13882,7 +13879,7 @@
       </c>
       <c r="J75" s="294">
         <f>SynthFRA!N42</f>
-        <v>2.9473160042418331E-2</v>
+        <v>2.886503296390942E-2</v>
       </c>
       <c r="K75" s="293"/>
       <c r="L75" s="295">
@@ -13890,7 +13887,7 @@
       </c>
       <c r="M75" s="291"/>
       <c r="N75" s="296">
-        <v>2.9473160042418331E-2</v>
+        <v>2.886503296390942E-2</v>
       </c>
       <c r="O75" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D75,ROUND(N75,6),EvaluationDate)</f>
@@ -13912,7 +13909,7 @@
       </c>
       <c r="D76" s="195" t="str">
         <f>_xll.qlSimpleQuote(C76,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP39x51F_SYNTH1Y_Quote#0001</v>
+        <v>GBP39x51F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E76" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D76)</f>
@@ -13927,7 +13924,7 @@
       </c>
       <c r="J76" s="294">
         <f>SynthFRA!N43</f>
-        <v>2.9722937411342149E-2</v>
+        <v>2.9146925300926836E-2</v>
       </c>
       <c r="K76" s="293"/>
       <c r="L76" s="295">
@@ -13935,11 +13932,11 @@
       </c>
       <c r="M76" s="291"/>
       <c r="N76" s="296">
-        <v>2.9722937411342149E-2</v>
+        <v>2.9146925300926836E-2</v>
       </c>
       <c r="O76" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D76,ROUND(N76,6),EvaluationDate)</f>
-        <v>-7.0000000000000617E-6</v>
+        <v>-8.0000000000010618E-6</v>
       </c>
       <c r="P76" s="303"/>
     </row>
@@ -13957,7 +13954,7 @@
       </c>
       <c r="D77" s="195" t="str">
         <f>_xll.qlSimpleQuote(C77,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP40x52F_SYNTH1Y_Quote#0001</v>
+        <v>GBP40x52F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E77" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D77)</f>
@@ -13972,7 +13969,7 @@
       </c>
       <c r="J77" s="294">
         <f>SynthFRA!N44</f>
-        <v>2.9967229516440465E-2</v>
+        <v>2.93849529578325E-2</v>
       </c>
       <c r="K77" s="293"/>
       <c r="L77" s="295">
@@ -13980,11 +13977,11 @@
       </c>
       <c r="M77" s="291"/>
       <c r="N77" s="296">
-        <v>2.9967229516440465E-2</v>
+        <v>2.93849529578325E-2</v>
       </c>
       <c r="O77" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D77,ROUND(N77,6),EvaluationDate)</f>
-        <v>-9.9999999999995925E-6</v>
+        <v>-1.1999999999998123E-5</v>
       </c>
       <c r="P77" s="303"/>
     </row>
@@ -14002,7 +13999,7 @@
       </c>
       <c r="D78" s="195" t="str">
         <f>_xll.qlSimpleQuote(C78,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP41x53F_SYNTH1Y_Quote#0001</v>
+        <v>GBP41x53F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E78" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D78)</f>
@@ -14017,7 +14014,7 @@
       </c>
       <c r="J78" s="294">
         <f>SynthFRA!N45</f>
-        <v>3.0207293170007393E-2</v>
+        <v>2.9621958481115367E-2</v>
       </c>
       <c r="K78" s="293"/>
       <c r="L78" s="295">
@@ -14025,11 +14022,11 @@
       </c>
       <c r="M78" s="291"/>
       <c r="N78" s="296">
-        <v>3.0207293170007393E-2</v>
+        <v>2.9621958481115367E-2</v>
       </c>
       <c r="O78" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D78,ROUND(N78,6),EvaluationDate)</f>
-        <v>-1.1999999999998123E-5</v>
+        <v>-1.6000000000002124E-5</v>
       </c>
       <c r="P78" s="303"/>
     </row>
@@ -14047,7 +14044,7 @@
       </c>
       <c r="D79" s="195" t="str">
         <f>_xll.qlSimpleQuote(C79,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP42x54F_SYNTH1Y_Quote#0001</v>
+        <v>GBP42x54F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E79" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D79)</f>
@@ -14062,7 +14059,7 @@
       </c>
       <c r="J79" s="294">
         <f>SynthFRA!N46</f>
-        <v>3.041568693741183E-2</v>
+        <v>2.986478264772699E-2</v>
       </c>
       <c r="K79" s="293"/>
       <c r="L79" s="295">
@@ -14070,11 +14067,11 @@
       </c>
       <c r="M79" s="291"/>
       <c r="N79" s="296">
-        <v>3.041568693741183E-2</v>
+        <v>2.986478264772699E-2</v>
       </c>
       <c r="O79" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D79,ROUND(N79,6),EvaluationDate)</f>
-        <v>-1.3000000000002593E-5</v>
+        <v>-2.1000000000000185E-5</v>
       </c>
       <c r="P79" s="303"/>
     </row>
@@ -14092,7 +14089,7 @@
       </c>
       <c r="D80" s="195" t="str">
         <f>_xll.qlSimpleQuote(C80,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP43x55F_SYNTH1Y_Quote#0001</v>
+        <v>GBP43x55F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E80" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D80)</f>
@@ -14107,7 +14104,7 @@
       </c>
       <c r="J80" s="294">
         <f>SynthFRA!N47</f>
-        <v>3.0623552378421386E-2</v>
+        <v>3.0076277692131986E-2</v>
       </c>
       <c r="K80" s="293"/>
       <c r="L80" s="295">
@@ -14115,11 +14112,11 @@
       </c>
       <c r="M80" s="291"/>
       <c r="N80" s="296">
-        <v>3.0623552378421386E-2</v>
+        <v>3.0076277692131986E-2</v>
       </c>
       <c r="O80" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D80,ROUND(N80,6),EvaluationDate)</f>
-        <v>-1.4000000000000123E-5</v>
+        <v>-2.6000000000001716E-5</v>
       </c>
       <c r="P80" s="303"/>
     </row>
@@ -14137,7 +14134,7 @@
       </c>
       <c r="D81" s="195" t="str">
         <f>_xll.qlSimpleQuote(C81,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP44x56F_SYNTH1Y_Quote#0001</v>
+        <v>GBP44x56F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E81" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D81)</f>
@@ -14152,7 +14149,7 @@
       </c>
       <c r="J81" s="294">
         <f>SynthFRA!N48</f>
-        <v>3.0838268113491059E-2</v>
+        <v>3.0301184074615323E-2</v>
       </c>
       <c r="K81" s="293"/>
       <c r="L81" s="295">
@@ -14160,11 +14157,11 @@
       </c>
       <c r="M81" s="291"/>
       <c r="N81" s="296">
-        <v>3.0838268113491059E-2</v>
+        <v>3.0301184074615323E-2</v>
       </c>
       <c r="O81" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D81,ROUND(N81,6),EvaluationDate)</f>
-        <v>-1.4999999999997654E-5</v>
+        <v>-3.0999999999999778E-5</v>
       </c>
       <c r="P81" s="303"/>
     </row>
@@ -14182,7 +14179,7 @@
       </c>
       <c r="D82" s="195" t="str">
         <f>_xll.qlSimpleQuote(C82,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP45x57F_SYNTH1Y_Quote#0001</v>
+        <v>GBP45x57F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E82" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D82)</f>
@@ -14197,7 +14194,7 @@
       </c>
       <c r="J82" s="294">
         <f>SynthFRA!N49</f>
-        <v>3.1034556516906068E-2</v>
+        <v>3.05026204484493E-2</v>
       </c>
       <c r="K82" s="293"/>
       <c r="L82" s="295">
@@ -14205,11 +14202,11 @@
       </c>
       <c r="M82" s="291"/>
       <c r="N82" s="296">
-        <v>3.1034556516906068E-2</v>
+        <v>3.05026204484493E-2</v>
       </c>
       <c r="O82" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D82,ROUND(N82,6),EvaluationDate)</f>
-        <v>-1.2999999999999123E-5</v>
+        <v>-3.5000000000000309E-5</v>
       </c>
       <c r="P82" s="303"/>
     </row>
@@ -14227,7 +14224,7 @@
       </c>
       <c r="D83" s="195" t="str">
         <f>_xll.qlSimpleQuote(C83,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP46x58F_SYNTH1Y_Quote#0001</v>
+        <v>GBP46x58F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E83" s="211" t="str">
         <f>_xll.ohRangeRetrieveError($D83)</f>
@@ -14242,7 +14239,7 @@
       </c>
       <c r="J83" s="294">
         <f>SynthFRA!N50</f>
-        <v>3.1214727107628005E-2</v>
+        <v>3.06842934325426E-2</v>
       </c>
       <c r="K83" s="293"/>
       <c r="L83" s="295">
@@ -14250,11 +14247,11 @@
       </c>
       <c r="M83" s="291"/>
       <c r="N83" s="296">
-        <v>3.1214727107628005E-2</v>
+        <v>3.06842934325426E-2</v>
       </c>
       <c r="O83" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D83,ROUND(N83,6),EvaluationDate)</f>
-        <v>-1.1000000000000593E-5</v>
+        <v>-4.099999999999937E-5</v>
       </c>
       <c r="P83" s="303"/>
     </row>
@@ -14272,7 +14269,7 @@
       </c>
       <c r="D84" s="178" t="str">
         <f>_xll.qlSimpleQuote(C84,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP47x59F_SYNTH1Y_Quote#0001</v>
+        <v>GBP47x59F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E84" s="212" t="str">
         <f>_xll.ohRangeRetrieveError($D84)</f>
@@ -14287,7 +14284,7 @@
       </c>
       <c r="J84" s="294">
         <f>SynthFRA!N51</f>
-        <v>3.1425000402038474E-2</v>
+        <v>3.0891805067437418E-2</v>
       </c>
       <c r="K84" s="293"/>
       <c r="L84" s="295">
@@ -14295,11 +14292,11 @@
       </c>
       <c r="M84" s="291"/>
       <c r="N84" s="296">
-        <v>3.1425000402038474E-2</v>
+        <v>3.0891805067437418E-2</v>
       </c>
       <c r="O84" s="297">
         <f>_xll.qlSimpleQuoteSetValue(D84,ROUND(N84,6),EvaluationDate)</f>
-        <v>-5.9999999999990616E-6</v>
+        <v>-4.6000000000000901E-5</v>
       </c>
       <c r="P84" s="303"/>
     </row>
@@ -14356,7 +14353,7 @@
     <row r="1" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="304" t="str">
         <f>K7</f>
-        <v>GBPSB6L5Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L5Y_S6L12L_Quote#0000</v>
       </c>
       <c r="B1" s="305"/>
       <c r="C1" s="305"/>
@@ -14508,7 +14505,7 @@
       </c>
       <c r="K4" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J4,I4,H4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L2Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L2Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L4" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -14573,7 +14570,7 @@
       </c>
       <c r="K5" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J5,I5,H5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L3Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L3Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L5" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -14638,7 +14635,7 @@
       </c>
       <c r="K6" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J6,I6,H6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L4Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L4Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L6" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -14703,7 +14700,7 @@
       </c>
       <c r="K7" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J7,I7,H7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L5Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L5Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L7" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -14768,7 +14765,7 @@
       </c>
       <c r="K8" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J8,I8,H8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L6Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L6Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L8" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -14815,7 +14812,7 @@
       </c>
       <c r="K9" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J9,I9,H9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L7Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L7Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L9" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -14862,7 +14859,7 @@
       </c>
       <c r="K10" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J10,I10,H10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L8Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L8Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L10" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -14909,7 +14906,7 @@
       </c>
       <c r="K11" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J11,I11,H11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L9Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L9Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L11" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -14956,7 +14953,7 @@
       </c>
       <c r="K12" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J12,I12,H12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L10Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L10Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L12" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -15003,7 +15000,7 @@
       </c>
       <c r="K13" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J13,I13,H13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L11Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L11Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L13" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -15050,7 +15047,7 @@
       </c>
       <c r="K14" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J14,I14,H14,E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L12Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L12Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L14" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -15097,7 +15094,7 @@
       </c>
       <c r="K15" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J15,I15,H15,E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L13Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L13Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L15" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -15144,7 +15141,7 @@
       </c>
       <c r="K16" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J16,I16,H16,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L14Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L14Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L16" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -15191,7 +15188,7 @@
       </c>
       <c r="K17" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J17,I17,H17,E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L15Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L15Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L17" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -15238,7 +15235,7 @@
       </c>
       <c r="K18" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J18,I18,H18,E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L16Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L16Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L18" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -15285,7 +15282,7 @@
       </c>
       <c r="K19" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J19,I19,H19,E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L17Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L17Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L19" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -15332,7 +15329,7 @@
       </c>
       <c r="K20" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J20,I20,H20,E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L18Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L18Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L20" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -15379,7 +15376,7 @@
       </c>
       <c r="K21" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J21,I21,H21,E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L19Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L19Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L21" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -15426,7 +15423,7 @@
       </c>
       <c r="K22" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J22,I22,H22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L20Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L20Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L22" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -15473,7 +15470,7 @@
       </c>
       <c r="K23" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J23,I23,H23,E23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L21Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L21Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L23" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -15520,7 +15517,7 @@
       </c>
       <c r="K24" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J24,I24,H24,E24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L22Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L22Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L24" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -15567,7 +15564,7 @@
       </c>
       <c r="K25" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J25,I25,H25,E25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L23Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L23Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L25" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -15614,7 +15611,7 @@
       </c>
       <c r="K26" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J26,I26,H26,E26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L24Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L24Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L26" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -15661,7 +15658,7 @@
       </c>
       <c r="K27" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J27,I27,H27,E27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L25Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L25Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L27" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -15708,7 +15705,7 @@
       </c>
       <c r="K28" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J28,I28,H28,E28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L26Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L26Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L28" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -15755,7 +15752,7 @@
       </c>
       <c r="K29" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J29,I29,H29,E29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L27Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L27Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L29" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -15802,7 +15799,7 @@
       </c>
       <c r="K30" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J30,I30,H30,E30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L28Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L28Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L30" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -15849,7 +15846,7 @@
       </c>
       <c r="K31" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J31,I31,H31,E31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L29Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L29Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L31" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -15896,7 +15893,7 @@
       </c>
       <c r="K32" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J32,I32,H32,E32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L30Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L30Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L32" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -15943,7 +15940,7 @@
       </c>
       <c r="K33" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J33,I33,H33,E33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L35Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L35Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L33" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -15990,7 +15987,7 @@
       </c>
       <c r="K34" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J34,I34,H34,E34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L40Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L40Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L34" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -16037,7 +16034,7 @@
       </c>
       <c r="K35" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J35,I35,H35,E35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L50Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L50Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L35" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -16084,7 +16081,7 @@
       </c>
       <c r="K36" s="322" t="str">
         <f>_xll.qlForwardSwapQuote(J36,I36,H36,E36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L60Y_S6L12L_Quote#0001</v>
+        <v>GBPSB6L60Y_S6L12L_Quote#0000</v>
       </c>
       <c r="L36" s="323" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
